--- a/OpenData_Slovakia_CovidAutomat_History.xlsx
+++ b/OpenData_Slovakia_CovidAutomat_History.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF98854D-4A74-4BEA-8949-A754D409E20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{DF98854D-4A74-4BEA-8949-A754D409E20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A4A6CFB-7536-403B-92BF-7DD1EC648E1A}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="-110" windowWidth="18350" windowHeight="11020" xr2:uid="{817111DC-07F4-49D8-B88A-F51DD2C39FFE}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{817111DC-07F4-49D8-B88A-F51DD2C39FFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2377" uniqueCount="97">
   <si>
     <t>Platne od</t>
   </si>
@@ -680,13 +680,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3118A9E1-7AB7-4959-BB1E-0523D5A0DF60}">
-  <dimension ref="A1:G712"/>
+  <dimension ref="A1:G791"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A702" workbookViewId="0">
+      <selection activeCell="A713" sqref="A713:G791"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -17062,6 +17064,1823 @@
         <v>68759</v>
       </c>
       <c r="G712">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A713" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B713">
+        <v>41</v>
+      </c>
+      <c r="C713" t="s">
+        <v>7</v>
+      </c>
+      <c r="D713" t="s">
+        <v>8</v>
+      </c>
+      <c r="E713" t="s">
+        <v>9</v>
+      </c>
+      <c r="F713">
+        <v>36282</v>
+      </c>
+      <c r="G713">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A714" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B714">
+        <v>32</v>
+      </c>
+      <c r="C714" t="s">
+        <v>10</v>
+      </c>
+      <c r="D714" t="s">
+        <v>10</v>
+      </c>
+      <c r="E714" t="s">
+        <v>11</v>
+      </c>
+      <c r="F714">
+        <v>110829</v>
+      </c>
+      <c r="G714">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A715" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B715">
+        <v>31</v>
+      </c>
+      <c r="C715" t="s">
+        <v>12</v>
+      </c>
+      <c r="D715" t="s">
+        <v>13</v>
+      </c>
+      <c r="E715" t="s">
+        <v>11</v>
+      </c>
+      <c r="F715">
+        <v>16086</v>
+      </c>
+      <c r="G715">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A716" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B716">
+        <v>5</v>
+      </c>
+      <c r="C716" t="s">
+        <v>14</v>
+      </c>
+      <c r="D716" t="s">
+        <v>14</v>
+      </c>
+      <c r="E716" t="s">
+        <v>15</v>
+      </c>
+      <c r="F716">
+        <v>77771</v>
+      </c>
+      <c r="G716">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A717" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B717">
+        <v>64</v>
+      </c>
+      <c r="C717" t="s">
+        <v>16</v>
+      </c>
+      <c r="D717" t="s">
+        <v>17</v>
+      </c>
+      <c r="E717" t="s">
+        <v>18</v>
+      </c>
+      <c r="F717">
+        <v>41095</v>
+      </c>
+      <c r="G717">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A718" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B718">
+        <v>68</v>
+      </c>
+      <c r="C718" t="s">
+        <v>19</v>
+      </c>
+      <c r="D718" t="s">
+        <v>17</v>
+      </c>
+      <c r="E718" t="s">
+        <v>18</v>
+      </c>
+      <c r="F718">
+        <v>115653</v>
+      </c>
+      <c r="G718">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A719" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B719">
+        <v>67</v>
+      </c>
+      <c r="C719" t="s">
+        <v>20</v>
+      </c>
+      <c r="D719" t="s">
+        <v>17</v>
+      </c>
+      <c r="E719" t="s">
+        <v>18</v>
+      </c>
+      <c r="F719">
+        <v>67913</v>
+      </c>
+      <c r="G719">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A720" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B720">
+        <v>66</v>
+      </c>
+      <c r="C720" t="s">
+        <v>21</v>
+      </c>
+      <c r="D720" t="s">
+        <v>17</v>
+      </c>
+      <c r="E720" t="s">
+        <v>18</v>
+      </c>
+      <c r="F720">
+        <v>97261</v>
+      </c>
+      <c r="G720">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A721" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B721">
+        <v>65</v>
+      </c>
+      <c r="C721" t="s">
+        <v>22</v>
+      </c>
+      <c r="D721" t="s">
+        <v>17</v>
+      </c>
+      <c r="E721" t="s">
+        <v>18</v>
+      </c>
+      <c r="F721">
+        <v>110942</v>
+      </c>
+      <c r="G721">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A722" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B722">
+        <v>28</v>
+      </c>
+      <c r="C722" t="s">
+        <v>23</v>
+      </c>
+      <c r="D722" t="s">
+        <v>10</v>
+      </c>
+      <c r="E722" t="s">
+        <v>11</v>
+      </c>
+      <c r="F722">
+        <v>61450</v>
+      </c>
+      <c r="G722">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A723" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B723">
+        <v>25</v>
+      </c>
+      <c r="C723" t="s">
+        <v>24</v>
+      </c>
+      <c r="D723" t="s">
+        <v>25</v>
+      </c>
+      <c r="E723" t="s">
+        <v>26</v>
+      </c>
+      <c r="F723">
+        <v>30917</v>
+      </c>
+      <c r="G723">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A724" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B724">
+        <v>59</v>
+      </c>
+      <c r="C724" t="s">
+        <v>27</v>
+      </c>
+      <c r="D724" t="s">
+        <v>27</v>
+      </c>
+      <c r="E724" t="s">
+        <v>26</v>
+      </c>
+      <c r="F724">
+        <v>90080</v>
+      </c>
+      <c r="G724">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A725" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B725">
+        <v>69</v>
+      </c>
+      <c r="C725" t="s">
+        <v>28</v>
+      </c>
+      <c r="D725" t="s">
+        <v>29</v>
+      </c>
+      <c r="E725" t="s">
+        <v>11</v>
+      </c>
+      <c r="F725">
+        <v>32051</v>
+      </c>
+      <c r="G725">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A726" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B726">
+        <v>55</v>
+      </c>
+      <c r="C726" t="s">
+        <v>30</v>
+      </c>
+      <c r="D726" t="s">
+        <v>30</v>
+      </c>
+      <c r="E726" t="s">
+        <v>26</v>
+      </c>
+      <c r="F726">
+        <v>39457</v>
+      </c>
+      <c r="G726">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A727" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B727">
+        <v>13</v>
+      </c>
+      <c r="C727" t="s">
+        <v>31</v>
+      </c>
+      <c r="D727" t="s">
+        <v>31</v>
+      </c>
+      <c r="E727" t="s">
+        <v>32</v>
+      </c>
+      <c r="F727">
+        <v>122358</v>
+      </c>
+      <c r="G727">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A728" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B728">
+        <v>3</v>
+      </c>
+      <c r="C728" t="s">
+        <v>33</v>
+      </c>
+      <c r="D728" t="s">
+        <v>33</v>
+      </c>
+      <c r="E728" t="s">
+        <v>32</v>
+      </c>
+      <c r="F728">
+        <v>94076</v>
+      </c>
+      <c r="G728">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A729" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B729">
+        <v>74</v>
+      </c>
+      <c r="C729" t="s">
+        <v>34</v>
+      </c>
+      <c r="D729" t="s">
+        <v>35</v>
+      </c>
+      <c r="E729" t="s">
+        <v>36</v>
+      </c>
+      <c r="F729">
+        <v>31868</v>
+      </c>
+      <c r="G729">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A730" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B730">
+        <v>61</v>
+      </c>
+      <c r="C730" t="s">
+        <v>37</v>
+      </c>
+      <c r="D730" t="s">
+        <v>38</v>
+      </c>
+      <c r="E730" t="s">
+        <v>32</v>
+      </c>
+      <c r="F730">
+        <v>45013</v>
+      </c>
+      <c r="G730">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A731" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B731">
+        <v>9</v>
+      </c>
+      <c r="C731" t="s">
+        <v>39</v>
+      </c>
+      <c r="D731" t="s">
+        <v>39</v>
+      </c>
+      <c r="E731" t="s">
+        <v>15</v>
+      </c>
+      <c r="F731">
+        <v>61986</v>
+      </c>
+      <c r="G731">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A732" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B732">
+        <v>60</v>
+      </c>
+      <c r="C732" t="s">
+        <v>40</v>
+      </c>
+      <c r="D732" t="s">
+        <v>41</v>
+      </c>
+      <c r="E732" t="s">
+        <v>9</v>
+      </c>
+      <c r="F732">
+        <v>59188</v>
+      </c>
+      <c r="G732">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A733" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B733">
+        <v>4</v>
+      </c>
+      <c r="C733" t="s">
+        <v>42</v>
+      </c>
+      <c r="D733" t="s">
+        <v>43</v>
+      </c>
+      <c r="E733" t="s">
+        <v>15</v>
+      </c>
+      <c r="F733">
+        <v>75235</v>
+      </c>
+      <c r="G733">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A734" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B734">
+        <v>14</v>
+      </c>
+      <c r="C734" t="s">
+        <v>44</v>
+      </c>
+      <c r="D734" t="s">
+        <v>44</v>
+      </c>
+      <c r="E734" t="s">
+        <v>45</v>
+      </c>
+      <c r="F734">
+        <v>101712</v>
+      </c>
+      <c r="G734">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A735" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B735">
+        <v>76</v>
+      </c>
+      <c r="C735" t="s">
+        <v>46</v>
+      </c>
+      <c r="D735" t="s">
+        <v>47</v>
+      </c>
+      <c r="E735" t="s">
+        <v>36</v>
+      </c>
+      <c r="F735">
+        <v>67513</v>
+      </c>
+      <c r="G735">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A736" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B736">
+        <v>79</v>
+      </c>
+      <c r="C736" t="s">
+        <v>48</v>
+      </c>
+      <c r="D736" t="s">
+        <v>47</v>
+      </c>
+      <c r="E736" t="s">
+        <v>36</v>
+      </c>
+      <c r="F736">
+        <v>82288</v>
+      </c>
+      <c r="G736">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A737" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B737">
+        <v>78</v>
+      </c>
+      <c r="C737" t="s">
+        <v>49</v>
+      </c>
+      <c r="D737" t="s">
+        <v>47</v>
+      </c>
+      <c r="E737" t="s">
+        <v>36</v>
+      </c>
+      <c r="F737">
+        <v>28749</v>
+      </c>
+      <c r="G737">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A738" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B738">
+        <v>77</v>
+      </c>
+      <c r="C738" t="s">
+        <v>50</v>
+      </c>
+      <c r="D738" t="s">
+        <v>47</v>
+      </c>
+      <c r="E738" t="s">
+        <v>36</v>
+      </c>
+      <c r="F738">
+        <v>60126</v>
+      </c>
+      <c r="G738">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A739" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B739">
+        <v>29</v>
+      </c>
+      <c r="C739" t="s">
+        <v>51</v>
+      </c>
+      <c r="D739" t="s">
+        <v>47</v>
+      </c>
+      <c r="E739" t="s">
+        <v>36</v>
+      </c>
+      <c r="F739">
+        <v>129544</v>
+      </c>
+      <c r="G739">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A740" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B740">
+        <v>30</v>
+      </c>
+      <c r="C740" t="s">
+        <v>52</v>
+      </c>
+      <c r="D740" t="s">
+        <v>29</v>
+      </c>
+      <c r="E740" t="s">
+        <v>11</v>
+      </c>
+      <c r="F740">
+        <v>22182</v>
+      </c>
+      <c r="G740">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A741" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B741">
+        <v>73</v>
+      </c>
+      <c r="C741" t="s">
+        <v>53</v>
+      </c>
+      <c r="D741" t="s">
+        <v>27</v>
+      </c>
+      <c r="E741" t="s">
+        <v>26</v>
+      </c>
+      <c r="F741">
+        <v>32914</v>
+      </c>
+      <c r="G741">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A742" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B742">
+        <v>20</v>
+      </c>
+      <c r="C742" t="s">
+        <v>54</v>
+      </c>
+      <c r="D742" t="s">
+        <v>54</v>
+      </c>
+      <c r="E742" t="s">
+        <v>45</v>
+      </c>
+      <c r="F742">
+        <v>110824</v>
+      </c>
+      <c r="G742">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A743" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B743">
+        <v>36</v>
+      </c>
+      <c r="C743" t="s">
+        <v>55</v>
+      </c>
+      <c r="D743" t="s">
+        <v>43</v>
+      </c>
+      <c r="E743" t="s">
+        <v>15</v>
+      </c>
+      <c r="F743">
+        <v>33702</v>
+      </c>
+      <c r="G743">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A744" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B744">
+        <v>15</v>
+      </c>
+      <c r="C744" t="s">
+        <v>56</v>
+      </c>
+      <c r="D744" t="s">
+        <v>56</v>
+      </c>
+      <c r="E744" t="s">
+        <v>26</v>
+      </c>
+      <c r="F744">
+        <v>72261</v>
+      </c>
+      <c r="G744">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A745" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B745">
+        <v>1</v>
+      </c>
+      <c r="C745" t="s">
+        <v>57</v>
+      </c>
+      <c r="D745" t="s">
+        <v>57</v>
+      </c>
+      <c r="E745" t="s">
+        <v>11</v>
+      </c>
+      <c r="F745">
+        <v>73466</v>
+      </c>
+      <c r="G745">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A746" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B746">
+        <v>62</v>
+      </c>
+      <c r="C746" t="s">
+        <v>58</v>
+      </c>
+      <c r="D746" t="s">
+        <v>17</v>
+      </c>
+      <c r="E746" t="s">
+        <v>18</v>
+      </c>
+      <c r="F746">
+        <v>74323</v>
+      </c>
+      <c r="G746">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A747" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B747">
+        <v>49</v>
+      </c>
+      <c r="C747" t="s">
+        <v>59</v>
+      </c>
+      <c r="D747" t="s">
+        <v>59</v>
+      </c>
+      <c r="E747" t="s">
+        <v>26</v>
+      </c>
+      <c r="F747">
+        <v>96338</v>
+      </c>
+      <c r="G747">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A748" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B748">
+        <v>63</v>
+      </c>
+      <c r="C748" t="s">
+        <v>60</v>
+      </c>
+      <c r="D748" t="s">
+        <v>39</v>
+      </c>
+      <c r="E748" t="s">
+        <v>15</v>
+      </c>
+      <c r="F748">
+        <v>11842</v>
+      </c>
+      <c r="G748">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A749" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B749">
+        <v>34</v>
+      </c>
+      <c r="C749" t="s">
+        <v>61</v>
+      </c>
+      <c r="D749" t="s">
+        <v>61</v>
+      </c>
+      <c r="E749" t="s">
+        <v>36</v>
+      </c>
+      <c r="F749">
+        <v>110705</v>
+      </c>
+      <c r="G749">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A750" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B750">
+        <v>27</v>
+      </c>
+      <c r="C750" t="s">
+        <v>62</v>
+      </c>
+      <c r="D750" t="s">
+        <v>8</v>
+      </c>
+      <c r="E750" t="s">
+        <v>9</v>
+      </c>
+      <c r="F750">
+        <v>26356</v>
+      </c>
+      <c r="G750">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A751" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B751">
+        <v>23</v>
+      </c>
+      <c r="C751" t="s">
+        <v>63</v>
+      </c>
+      <c r="D751" t="s">
+        <v>30</v>
+      </c>
+      <c r="E751" t="s">
+        <v>26</v>
+      </c>
+      <c r="F751">
+        <v>62664</v>
+      </c>
+      <c r="G751">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A752" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B752">
+        <v>11</v>
+      </c>
+      <c r="C752" t="s">
+        <v>64</v>
+      </c>
+      <c r="D752" t="s">
+        <v>64</v>
+      </c>
+      <c r="E752" t="s">
+        <v>45</v>
+      </c>
+      <c r="F752">
+        <v>161560</v>
+      </c>
+      <c r="G752">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A753" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B753">
+        <v>47</v>
+      </c>
+      <c r="C753" t="s">
+        <v>65</v>
+      </c>
+      <c r="D753" t="s">
+        <v>8</v>
+      </c>
+      <c r="E753" t="s">
+        <v>9</v>
+      </c>
+      <c r="F753">
+        <v>62554</v>
+      </c>
+      <c r="G753">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A754" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B754">
+        <v>16</v>
+      </c>
+      <c r="C754" t="s">
+        <v>66</v>
+      </c>
+      <c r="D754" t="s">
+        <v>66</v>
+      </c>
+      <c r="E754" t="s">
+        <v>45</v>
+      </c>
+      <c r="F754">
+        <v>139005</v>
+      </c>
+      <c r="G754">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A755" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B755">
+        <v>45</v>
+      </c>
+      <c r="C755" t="s">
+        <v>67</v>
+      </c>
+      <c r="D755" t="s">
+        <v>68</v>
+      </c>
+      <c r="E755" t="s">
+        <v>9</v>
+      </c>
+      <c r="F755">
+        <v>45597</v>
+      </c>
+      <c r="G755">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A756" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B756">
+        <v>33</v>
+      </c>
+      <c r="C756" t="s">
+        <v>69</v>
+      </c>
+      <c r="D756" t="s">
+        <v>17</v>
+      </c>
+      <c r="E756" t="s">
+        <v>18</v>
+      </c>
+      <c r="F756">
+        <v>65145</v>
+      </c>
+      <c r="G756">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A757" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B757">
+        <v>39</v>
+      </c>
+      <c r="C757" t="s">
+        <v>70</v>
+      </c>
+      <c r="D757" t="s">
+        <v>38</v>
+      </c>
+      <c r="E757" t="s">
+        <v>32</v>
+      </c>
+      <c r="F757">
+        <v>62803</v>
+      </c>
+      <c r="G757">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A758" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B758">
+        <v>70</v>
+      </c>
+      <c r="C758" t="s">
+        <v>71</v>
+      </c>
+      <c r="D758" t="s">
+        <v>57</v>
+      </c>
+      <c r="E758" t="s">
+        <v>11</v>
+      </c>
+      <c r="F758">
+        <v>21471</v>
+      </c>
+      <c r="G758">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A759" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B759">
+        <v>46</v>
+      </c>
+      <c r="C759" t="s">
+        <v>43</v>
+      </c>
+      <c r="D759" t="s">
+        <v>43</v>
+      </c>
+      <c r="E759" t="s">
+        <v>15</v>
+      </c>
+      <c r="F759">
+        <v>104914</v>
+      </c>
+      <c r="G759">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A760" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B760">
+        <v>52</v>
+      </c>
+      <c r="C760" t="s">
+        <v>41</v>
+      </c>
+      <c r="D760" t="s">
+        <v>41</v>
+      </c>
+      <c r="E760" t="s">
+        <v>9</v>
+      </c>
+      <c r="F760">
+        <v>62439</v>
+      </c>
+      <c r="G760">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A761" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B761">
+        <v>7</v>
+      </c>
+      <c r="C761" t="s">
+        <v>72</v>
+      </c>
+      <c r="D761" t="s">
+        <v>72</v>
+      </c>
+      <c r="E761" t="s">
+        <v>15</v>
+      </c>
+      <c r="F761">
+        <v>175610</v>
+      </c>
+      <c r="G761">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A762" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B762">
+        <v>40</v>
+      </c>
+      <c r="C762" t="s">
+        <v>73</v>
+      </c>
+      <c r="D762" t="s">
+        <v>68</v>
+      </c>
+      <c r="E762" t="s">
+        <v>9</v>
+      </c>
+      <c r="F762">
+        <v>133980</v>
+      </c>
+      <c r="G762">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A763" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B763">
+        <v>54</v>
+      </c>
+      <c r="C763" t="s">
+        <v>74</v>
+      </c>
+      <c r="D763" t="s">
+        <v>41</v>
+      </c>
+      <c r="E763" t="s">
+        <v>9</v>
+      </c>
+      <c r="F763">
+        <v>44310</v>
+      </c>
+      <c r="G763">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A764" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B764">
+        <v>48</v>
+      </c>
+      <c r="C764" t="s">
+        <v>75</v>
+      </c>
+      <c r="D764" t="s">
+        <v>76</v>
+      </c>
+      <c r="E764" t="s">
+        <v>11</v>
+      </c>
+      <c r="F764">
+        <v>39637</v>
+      </c>
+      <c r="G764">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A765" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B765">
+        <v>2</v>
+      </c>
+      <c r="C765" t="s">
+        <v>76</v>
+      </c>
+      <c r="D765" t="s">
+        <v>76</v>
+      </c>
+      <c r="E765" t="s">
+        <v>11</v>
+      </c>
+      <c r="F765">
+        <v>84159</v>
+      </c>
+      <c r="G765">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A766" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B766">
+        <v>19</v>
+      </c>
+      <c r="C766" t="s">
+        <v>77</v>
+      </c>
+      <c r="D766" t="s">
+        <v>77</v>
+      </c>
+      <c r="E766" t="s">
+        <v>36</v>
+      </c>
+      <c r="F766">
+        <v>62209</v>
+      </c>
+      <c r="G766">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="767" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A767" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B767">
+        <v>56</v>
+      </c>
+      <c r="C767" t="s">
+        <v>78</v>
+      </c>
+      <c r="D767" t="s">
+        <v>56</v>
+      </c>
+      <c r="E767" t="s">
+        <v>26</v>
+      </c>
+      <c r="F767">
+        <v>56702</v>
+      </c>
+      <c r="G767">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A768" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B768">
+        <v>35</v>
+      </c>
+      <c r="C768" t="s">
+        <v>79</v>
+      </c>
+      <c r="D768" t="s">
+        <v>72</v>
+      </c>
+      <c r="E768" t="s">
+        <v>15</v>
+      </c>
+      <c r="F768">
+        <v>60519</v>
+      </c>
+      <c r="G768">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="769" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A769" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B769">
+        <v>75</v>
+      </c>
+      <c r="C769" t="s">
+        <v>80</v>
+      </c>
+      <c r="D769" t="s">
+        <v>64</v>
+      </c>
+      <c r="E769" t="s">
+        <v>45</v>
+      </c>
+      <c r="F769">
+        <v>51685</v>
+      </c>
+      <c r="G769">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="770" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A770" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B770">
+        <v>12</v>
+      </c>
+      <c r="C770" t="s">
+        <v>81</v>
+      </c>
+      <c r="D770" t="s">
+        <v>17</v>
+      </c>
+      <c r="E770" t="s">
+        <v>18</v>
+      </c>
+      <c r="F770">
+        <v>89832</v>
+      </c>
+      <c r="G770">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="771" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A771" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B771">
+        <v>58</v>
+      </c>
+      <c r="C771" t="s">
+        <v>82</v>
+      </c>
+      <c r="D771" t="s">
+        <v>82</v>
+      </c>
+      <c r="E771" t="s">
+        <v>32</v>
+      </c>
+      <c r="F771">
+        <v>60446</v>
+      </c>
+      <c r="G771">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="772" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A772" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B772">
+        <v>72</v>
+      </c>
+      <c r="C772" t="s">
+        <v>83</v>
+      </c>
+      <c r="D772" t="s">
+        <v>82</v>
+      </c>
+      <c r="E772" t="s">
+        <v>32</v>
+      </c>
+      <c r="F772">
+        <v>47105</v>
+      </c>
+      <c r="G772">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="773" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A773" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B773">
+        <v>50</v>
+      </c>
+      <c r="C773" t="s">
+        <v>84</v>
+      </c>
+      <c r="D773" t="s">
+        <v>39</v>
+      </c>
+      <c r="E773" t="s">
+        <v>15</v>
+      </c>
+      <c r="F773">
+        <v>36241</v>
+      </c>
+      <c r="G773">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="774" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A774" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B774">
+        <v>44</v>
+      </c>
+      <c r="C774" t="s">
+        <v>85</v>
+      </c>
+      <c r="D774" t="s">
+        <v>61</v>
+      </c>
+      <c r="E774" t="s">
+        <v>36</v>
+      </c>
+      <c r="F774">
+        <v>22819</v>
+      </c>
+      <c r="G774">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="775" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A775" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B775">
+        <v>21</v>
+      </c>
+      <c r="C775" t="s">
+        <v>35</v>
+      </c>
+      <c r="D775" t="s">
+        <v>35</v>
+      </c>
+      <c r="E775" t="s">
+        <v>36</v>
+      </c>
+      <c r="F775">
+        <v>99765</v>
+      </c>
+      <c r="G775">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="776" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A776" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B776">
+        <v>17</v>
+      </c>
+      <c r="C776" t="s">
+        <v>86</v>
+      </c>
+      <c r="D776" t="s">
+        <v>86</v>
+      </c>
+      <c r="E776" t="s">
+        <v>15</v>
+      </c>
+      <c r="F776">
+        <v>53954</v>
+      </c>
+      <c r="G776">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="777" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A777" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B777">
+        <v>38</v>
+      </c>
+      <c r="C777" t="s">
+        <v>87</v>
+      </c>
+      <c r="D777" t="s">
+        <v>88</v>
+      </c>
+      <c r="E777" t="s">
+        <v>15</v>
+      </c>
+      <c r="F777">
+        <v>20532</v>
+      </c>
+      <c r="G777">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="778" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A778" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B778">
+        <v>53</v>
+      </c>
+      <c r="C778" t="s">
+        <v>88</v>
+      </c>
+      <c r="D778" t="s">
+        <v>88</v>
+      </c>
+      <c r="E778" t="s">
+        <v>15</v>
+      </c>
+      <c r="F778">
+        <v>32564</v>
+      </c>
+      <c r="G778">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="779" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A779" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B779">
+        <v>18</v>
+      </c>
+      <c r="C779" t="s">
+        <v>89</v>
+      </c>
+      <c r="D779" t="s">
+        <v>89</v>
+      </c>
+      <c r="E779" t="s">
+        <v>45</v>
+      </c>
+      <c r="F779">
+        <v>70132</v>
+      </c>
+      <c r="G779">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="780" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A780" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B780">
+        <v>10</v>
+      </c>
+      <c r="C780" t="s">
+        <v>90</v>
+      </c>
+      <c r="D780" t="s">
+        <v>90</v>
+      </c>
+      <c r="E780" t="s">
+        <v>36</v>
+      </c>
+      <c r="F780">
+        <v>105353</v>
+      </c>
+      <c r="G780">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="781" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A781" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B781">
+        <v>8</v>
+      </c>
+      <c r="C781" t="s">
+        <v>8</v>
+      </c>
+      <c r="D781" t="s">
+        <v>8</v>
+      </c>
+      <c r="E781" t="s">
+        <v>9</v>
+      </c>
+      <c r="F781">
+        <v>114523</v>
+      </c>
+      <c r="G781">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="782" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A782" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B782">
+        <v>57</v>
+      </c>
+      <c r="C782" t="s">
+        <v>38</v>
+      </c>
+      <c r="D782" t="s">
+        <v>38</v>
+      </c>
+      <c r="E782" t="s">
+        <v>32</v>
+      </c>
+      <c r="F782">
+        <v>132455</v>
+      </c>
+      <c r="G782">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="783" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A783" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B783">
+        <v>6</v>
+      </c>
+      <c r="C783" t="s">
+        <v>91</v>
+      </c>
+      <c r="D783" t="s">
+        <v>59</v>
+      </c>
+      <c r="E783" t="s">
+        <v>26</v>
+      </c>
+      <c r="F783">
+        <v>15884</v>
+      </c>
+      <c r="G783">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="784" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A784" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B784">
+        <v>71</v>
+      </c>
+      <c r="C784" t="s">
+        <v>92</v>
+      </c>
+      <c r="D784" t="s">
+        <v>30</v>
+      </c>
+      <c r="E784" t="s">
+        <v>26</v>
+      </c>
+      <c r="F784">
+        <v>36180</v>
+      </c>
+      <c r="G784">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="785" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A785" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B785">
+        <v>37</v>
+      </c>
+      <c r="C785" t="s">
+        <v>93</v>
+      </c>
+      <c r="D785" t="s">
+        <v>93</v>
+      </c>
+      <c r="E785" t="s">
+        <v>11</v>
+      </c>
+      <c r="F785">
+        <v>43473</v>
+      </c>
+      <c r="G785">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="786" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A786" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B786">
+        <v>22</v>
+      </c>
+      <c r="C786" t="s">
+        <v>94</v>
+      </c>
+      <c r="D786" t="s">
+        <v>94</v>
+      </c>
+      <c r="E786" t="s">
+        <v>15</v>
+      </c>
+      <c r="F786">
+        <v>80767</v>
+      </c>
+      <c r="G786">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="787" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A787" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B787">
+        <v>42</v>
+      </c>
+      <c r="C787" t="s">
+        <v>95</v>
+      </c>
+      <c r="D787" t="s">
+        <v>13</v>
+      </c>
+      <c r="E787" t="s">
+        <v>11</v>
+      </c>
+      <c r="F787">
+        <v>26153</v>
+      </c>
+      <c r="G787">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A788" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B788">
+        <v>43</v>
+      </c>
+      <c r="C788" t="s">
+        <v>13</v>
+      </c>
+      <c r="D788" t="s">
+        <v>13</v>
+      </c>
+      <c r="E788" t="s">
+        <v>11</v>
+      </c>
+      <c r="F788">
+        <v>46862</v>
+      </c>
+      <c r="G788">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="789" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A789" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B789">
+        <v>26</v>
+      </c>
+      <c r="C789" t="s">
+        <v>25</v>
+      </c>
+      <c r="D789" t="s">
+        <v>25</v>
+      </c>
+      <c r="E789" t="s">
+        <v>26</v>
+      </c>
+      <c r="F789">
+        <v>158043</v>
+      </c>
+      <c r="G789">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A790" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B790">
+        <v>51</v>
+      </c>
+      <c r="C790" t="s">
+        <v>96</v>
+      </c>
+      <c r="D790" t="s">
+        <v>64</v>
+      </c>
+      <c r="E790" t="s">
+        <v>45</v>
+      </c>
+      <c r="F790">
+        <v>40573</v>
+      </c>
+      <c r="G790">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="791" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A791" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B791">
+        <v>24</v>
+      </c>
+      <c r="C791" t="s">
+        <v>29</v>
+      </c>
+      <c r="D791" t="s">
+        <v>29</v>
+      </c>
+      <c r="E791" t="s">
+        <v>11</v>
+      </c>
+      <c r="F791">
+        <v>68759</v>
+      </c>
+      <c r="G791">
         <v>1</v>
       </c>
     </row>
@@ -17287,6 +19106,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -17295,20 +19120,38 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD54013B-80FE-42D8-8BC5-D14482016D9E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD54013B-80FE-42D8-8BC5-D14482016D9E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
+    <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C841AB4-9F11-4453-8762-85942E875817}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4606366C-CC67-4067-BB57-10E9258263A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4606366C-CC67-4067-BB57-10E9258263A1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C841AB4-9F11-4453-8762-85942E875817}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/OpenData_Slovakia_CovidAutomat_History.xlsx
+++ b/OpenData_Slovakia_CovidAutomat_History.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{DF98854D-4A74-4BEA-8949-A754D409E20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A4A6CFB-7536-403B-92BF-7DD1EC648E1A}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{DF98854D-4A74-4BEA-8949-A754D409E20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{470C2DFF-3A16-4FD8-8565-B0A3D0866058}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{817111DC-07F4-49D8-B88A-F51DD2C39FFE}"/>
+    <workbookView xWindow="960" yWindow="-110" windowWidth="18350" windowHeight="11020" xr2:uid="{817111DC-07F4-49D8-B88A-F51DD2C39FFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2377" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2614" uniqueCount="97">
   <si>
     <t>Platne od</t>
   </si>
@@ -680,15 +680,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3118A9E1-7AB7-4959-BB1E-0523D5A0DF60}">
-  <dimension ref="A1:G791"/>
+  <dimension ref="A1:G870"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A702" workbookViewId="0">
-      <selection activeCell="A713" sqref="A713:G791"/>
+    <sheetView tabSelected="1" topLeftCell="A769" workbookViewId="0">
+      <selection activeCell="A790" sqref="A790"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="8.8984375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -18881,6 +18881,1823 @@
         <v>68759</v>
       </c>
       <c r="G791">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="792" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A792" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B792">
+        <v>41</v>
+      </c>
+      <c r="C792" t="s">
+        <v>7</v>
+      </c>
+      <c r="D792" t="s">
+        <v>8</v>
+      </c>
+      <c r="E792" t="s">
+        <v>9</v>
+      </c>
+      <c r="F792">
+        <v>36282</v>
+      </c>
+      <c r="G792">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="793" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A793" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B793">
+        <v>32</v>
+      </c>
+      <c r="C793" t="s">
+        <v>10</v>
+      </c>
+      <c r="D793" t="s">
+        <v>10</v>
+      </c>
+      <c r="E793" t="s">
+        <v>11</v>
+      </c>
+      <c r="F793">
+        <v>110829</v>
+      </c>
+      <c r="G793">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A794" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B794">
+        <v>31</v>
+      </c>
+      <c r="C794" t="s">
+        <v>12</v>
+      </c>
+      <c r="D794" t="s">
+        <v>13</v>
+      </c>
+      <c r="E794" t="s">
+        <v>11</v>
+      </c>
+      <c r="F794">
+        <v>16086</v>
+      </c>
+      <c r="G794">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="795" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A795" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B795">
+        <v>5</v>
+      </c>
+      <c r="C795" t="s">
+        <v>14</v>
+      </c>
+      <c r="D795" t="s">
+        <v>14</v>
+      </c>
+      <c r="E795" t="s">
+        <v>15</v>
+      </c>
+      <c r="F795">
+        <v>77771</v>
+      </c>
+      <c r="G795">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A796" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B796">
+        <v>64</v>
+      </c>
+      <c r="C796" t="s">
+        <v>16</v>
+      </c>
+      <c r="D796" t="s">
+        <v>17</v>
+      </c>
+      <c r="E796" t="s">
+        <v>18</v>
+      </c>
+      <c r="F796">
+        <v>41095</v>
+      </c>
+      <c r="G796">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="797" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A797" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B797">
+        <v>68</v>
+      </c>
+      <c r="C797" t="s">
+        <v>19</v>
+      </c>
+      <c r="D797" t="s">
+        <v>17</v>
+      </c>
+      <c r="E797" t="s">
+        <v>18</v>
+      </c>
+      <c r="F797">
+        <v>115653</v>
+      </c>
+      <c r="G797">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="798" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A798" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B798">
+        <v>67</v>
+      </c>
+      <c r="C798" t="s">
+        <v>20</v>
+      </c>
+      <c r="D798" t="s">
+        <v>17</v>
+      </c>
+      <c r="E798" t="s">
+        <v>18</v>
+      </c>
+      <c r="F798">
+        <v>67913</v>
+      </c>
+      <c r="G798">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="799" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A799" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B799">
+        <v>66</v>
+      </c>
+      <c r="C799" t="s">
+        <v>21</v>
+      </c>
+      <c r="D799" t="s">
+        <v>17</v>
+      </c>
+      <c r="E799" t="s">
+        <v>18</v>
+      </c>
+      <c r="F799">
+        <v>97261</v>
+      </c>
+      <c r="G799">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A800" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B800">
+        <v>65</v>
+      </c>
+      <c r="C800" t="s">
+        <v>22</v>
+      </c>
+      <c r="D800" t="s">
+        <v>17</v>
+      </c>
+      <c r="E800" t="s">
+        <v>18</v>
+      </c>
+      <c r="F800">
+        <v>110942</v>
+      </c>
+      <c r="G800">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="801" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A801" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B801">
+        <v>28</v>
+      </c>
+      <c r="C801" t="s">
+        <v>23</v>
+      </c>
+      <c r="D801" t="s">
+        <v>10</v>
+      </c>
+      <c r="E801" t="s">
+        <v>11</v>
+      </c>
+      <c r="F801">
+        <v>61450</v>
+      </c>
+      <c r="G801">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="802" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A802" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B802">
+        <v>25</v>
+      </c>
+      <c r="C802" t="s">
+        <v>24</v>
+      </c>
+      <c r="D802" t="s">
+        <v>25</v>
+      </c>
+      <c r="E802" t="s">
+        <v>26</v>
+      </c>
+      <c r="F802">
+        <v>30917</v>
+      </c>
+      <c r="G802">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="803" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A803" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B803">
+        <v>59</v>
+      </c>
+      <c r="C803" t="s">
+        <v>27</v>
+      </c>
+      <c r="D803" t="s">
+        <v>27</v>
+      </c>
+      <c r="E803" t="s">
+        <v>26</v>
+      </c>
+      <c r="F803">
+        <v>90080</v>
+      </c>
+      <c r="G803">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="804" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A804" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B804">
+        <v>69</v>
+      </c>
+      <c r="C804" t="s">
+        <v>28</v>
+      </c>
+      <c r="D804" t="s">
+        <v>29</v>
+      </c>
+      <c r="E804" t="s">
+        <v>11</v>
+      </c>
+      <c r="F804">
+        <v>32051</v>
+      </c>
+      <c r="G804">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="805" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A805" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B805">
+        <v>55</v>
+      </c>
+      <c r="C805" t="s">
+        <v>30</v>
+      </c>
+      <c r="D805" t="s">
+        <v>30</v>
+      </c>
+      <c r="E805" t="s">
+        <v>26</v>
+      </c>
+      <c r="F805">
+        <v>39457</v>
+      </c>
+      <c r="G805">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="806" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A806" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B806">
+        <v>13</v>
+      </c>
+      <c r="C806" t="s">
+        <v>31</v>
+      </c>
+      <c r="D806" t="s">
+        <v>31</v>
+      </c>
+      <c r="E806" t="s">
+        <v>32</v>
+      </c>
+      <c r="F806">
+        <v>122358</v>
+      </c>
+      <c r="G806">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="807" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A807" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B807">
+        <v>3</v>
+      </c>
+      <c r="C807" t="s">
+        <v>33</v>
+      </c>
+      <c r="D807" t="s">
+        <v>33</v>
+      </c>
+      <c r="E807" t="s">
+        <v>32</v>
+      </c>
+      <c r="F807">
+        <v>94076</v>
+      </c>
+      <c r="G807">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="808" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A808" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B808">
+        <v>74</v>
+      </c>
+      <c r="C808" t="s">
+        <v>34</v>
+      </c>
+      <c r="D808" t="s">
+        <v>35</v>
+      </c>
+      <c r="E808" t="s">
+        <v>36</v>
+      </c>
+      <c r="F808">
+        <v>31868</v>
+      </c>
+      <c r="G808">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="809" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A809" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B809">
+        <v>61</v>
+      </c>
+      <c r="C809" t="s">
+        <v>37</v>
+      </c>
+      <c r="D809" t="s">
+        <v>38</v>
+      </c>
+      <c r="E809" t="s">
+        <v>32</v>
+      </c>
+      <c r="F809">
+        <v>45013</v>
+      </c>
+      <c r="G809">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="810" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A810" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B810">
+        <v>9</v>
+      </c>
+      <c r="C810" t="s">
+        <v>39</v>
+      </c>
+      <c r="D810" t="s">
+        <v>39</v>
+      </c>
+      <c r="E810" t="s">
+        <v>15</v>
+      </c>
+      <c r="F810">
+        <v>61986</v>
+      </c>
+      <c r="G810">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="811" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A811" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B811">
+        <v>60</v>
+      </c>
+      <c r="C811" t="s">
+        <v>40</v>
+      </c>
+      <c r="D811" t="s">
+        <v>41</v>
+      </c>
+      <c r="E811" t="s">
+        <v>9</v>
+      </c>
+      <c r="F811">
+        <v>59188</v>
+      </c>
+      <c r="G811">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="812" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A812" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B812">
+        <v>4</v>
+      </c>
+      <c r="C812" t="s">
+        <v>42</v>
+      </c>
+      <c r="D812" t="s">
+        <v>43</v>
+      </c>
+      <c r="E812" t="s">
+        <v>15</v>
+      </c>
+      <c r="F812">
+        <v>75235</v>
+      </c>
+      <c r="G812">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="813" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A813" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B813">
+        <v>14</v>
+      </c>
+      <c r="C813" t="s">
+        <v>44</v>
+      </c>
+      <c r="D813" t="s">
+        <v>44</v>
+      </c>
+      <c r="E813" t="s">
+        <v>45</v>
+      </c>
+      <c r="F813">
+        <v>101712</v>
+      </c>
+      <c r="G813">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="814" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A814" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B814">
+        <v>76</v>
+      </c>
+      <c r="C814" t="s">
+        <v>46</v>
+      </c>
+      <c r="D814" t="s">
+        <v>47</v>
+      </c>
+      <c r="E814" t="s">
+        <v>36</v>
+      </c>
+      <c r="F814">
+        <v>67513</v>
+      </c>
+      <c r="G814">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="815" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A815" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B815">
+        <v>79</v>
+      </c>
+      <c r="C815" t="s">
+        <v>48</v>
+      </c>
+      <c r="D815" t="s">
+        <v>47</v>
+      </c>
+      <c r="E815" t="s">
+        <v>36</v>
+      </c>
+      <c r="F815">
+        <v>82288</v>
+      </c>
+      <c r="G815">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="816" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A816" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B816">
+        <v>78</v>
+      </c>
+      <c r="C816" t="s">
+        <v>49</v>
+      </c>
+      <c r="D816" t="s">
+        <v>47</v>
+      </c>
+      <c r="E816" t="s">
+        <v>36</v>
+      </c>
+      <c r="F816">
+        <v>28749</v>
+      </c>
+      <c r="G816">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="817" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A817" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B817">
+        <v>77</v>
+      </c>
+      <c r="C817" t="s">
+        <v>50</v>
+      </c>
+      <c r="D817" t="s">
+        <v>47</v>
+      </c>
+      <c r="E817" t="s">
+        <v>36</v>
+      </c>
+      <c r="F817">
+        <v>60126</v>
+      </c>
+      <c r="G817">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="818" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A818" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B818">
+        <v>29</v>
+      </c>
+      <c r="C818" t="s">
+        <v>51</v>
+      </c>
+      <c r="D818" t="s">
+        <v>47</v>
+      </c>
+      <c r="E818" t="s">
+        <v>36</v>
+      </c>
+      <c r="F818">
+        <v>129544</v>
+      </c>
+      <c r="G818">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="819" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A819" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B819">
+        <v>30</v>
+      </c>
+      <c r="C819" t="s">
+        <v>52</v>
+      </c>
+      <c r="D819" t="s">
+        <v>29</v>
+      </c>
+      <c r="E819" t="s">
+        <v>11</v>
+      </c>
+      <c r="F819">
+        <v>22182</v>
+      </c>
+      <c r="G819">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="820" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A820" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B820">
+        <v>73</v>
+      </c>
+      <c r="C820" t="s">
+        <v>53</v>
+      </c>
+      <c r="D820" t="s">
+        <v>27</v>
+      </c>
+      <c r="E820" t="s">
+        <v>26</v>
+      </c>
+      <c r="F820">
+        <v>32914</v>
+      </c>
+      <c r="G820">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="821" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A821" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B821">
+        <v>20</v>
+      </c>
+      <c r="C821" t="s">
+        <v>54</v>
+      </c>
+      <c r="D821" t="s">
+        <v>54</v>
+      </c>
+      <c r="E821" t="s">
+        <v>45</v>
+      </c>
+      <c r="F821">
+        <v>110824</v>
+      </c>
+      <c r="G821">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="822" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A822" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B822">
+        <v>36</v>
+      </c>
+      <c r="C822" t="s">
+        <v>55</v>
+      </c>
+      <c r="D822" t="s">
+        <v>43</v>
+      </c>
+      <c r="E822" t="s">
+        <v>15</v>
+      </c>
+      <c r="F822">
+        <v>33702</v>
+      </c>
+      <c r="G822">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="823" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A823" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B823">
+        <v>15</v>
+      </c>
+      <c r="C823" t="s">
+        <v>56</v>
+      </c>
+      <c r="D823" t="s">
+        <v>56</v>
+      </c>
+      <c r="E823" t="s">
+        <v>26</v>
+      </c>
+      <c r="F823">
+        <v>72261</v>
+      </c>
+      <c r="G823">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="824" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A824" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B824">
+        <v>1</v>
+      </c>
+      <c r="C824" t="s">
+        <v>57</v>
+      </c>
+      <c r="D824" t="s">
+        <v>57</v>
+      </c>
+      <c r="E824" t="s">
+        <v>11</v>
+      </c>
+      <c r="F824">
+        <v>73466</v>
+      </c>
+      <c r="G824">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="825" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A825" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B825">
+        <v>62</v>
+      </c>
+      <c r="C825" t="s">
+        <v>58</v>
+      </c>
+      <c r="D825" t="s">
+        <v>17</v>
+      </c>
+      <c r="E825" t="s">
+        <v>18</v>
+      </c>
+      <c r="F825">
+        <v>74323</v>
+      </c>
+      <c r="G825">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="826" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A826" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B826">
+        <v>49</v>
+      </c>
+      <c r="C826" t="s">
+        <v>59</v>
+      </c>
+      <c r="D826" t="s">
+        <v>59</v>
+      </c>
+      <c r="E826" t="s">
+        <v>26</v>
+      </c>
+      <c r="F826">
+        <v>96338</v>
+      </c>
+      <c r="G826">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="827" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A827" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B827">
+        <v>63</v>
+      </c>
+      <c r="C827" t="s">
+        <v>60</v>
+      </c>
+      <c r="D827" t="s">
+        <v>39</v>
+      </c>
+      <c r="E827" t="s">
+        <v>15</v>
+      </c>
+      <c r="F827">
+        <v>11842</v>
+      </c>
+      <c r="G827">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="828" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A828" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B828">
+        <v>34</v>
+      </c>
+      <c r="C828" t="s">
+        <v>61</v>
+      </c>
+      <c r="D828" t="s">
+        <v>61</v>
+      </c>
+      <c r="E828" t="s">
+        <v>36</v>
+      </c>
+      <c r="F828">
+        <v>110705</v>
+      </c>
+      <c r="G828">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="829" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A829" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B829">
+        <v>27</v>
+      </c>
+      <c r="C829" t="s">
+        <v>62</v>
+      </c>
+      <c r="D829" t="s">
+        <v>8</v>
+      </c>
+      <c r="E829" t="s">
+        <v>9</v>
+      </c>
+      <c r="F829">
+        <v>26356</v>
+      </c>
+      <c r="G829">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="830" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A830" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B830">
+        <v>23</v>
+      </c>
+      <c r="C830" t="s">
+        <v>63</v>
+      </c>
+      <c r="D830" t="s">
+        <v>30</v>
+      </c>
+      <c r="E830" t="s">
+        <v>26</v>
+      </c>
+      <c r="F830">
+        <v>62664</v>
+      </c>
+      <c r="G830">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="831" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A831" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B831">
+        <v>11</v>
+      </c>
+      <c r="C831" t="s">
+        <v>64</v>
+      </c>
+      <c r="D831" t="s">
+        <v>64</v>
+      </c>
+      <c r="E831" t="s">
+        <v>45</v>
+      </c>
+      <c r="F831">
+        <v>161560</v>
+      </c>
+      <c r="G831">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="832" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A832" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B832">
+        <v>47</v>
+      </c>
+      <c r="C832" t="s">
+        <v>65</v>
+      </c>
+      <c r="D832" t="s">
+        <v>8</v>
+      </c>
+      <c r="E832" t="s">
+        <v>9</v>
+      </c>
+      <c r="F832">
+        <v>62554</v>
+      </c>
+      <c r="G832">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="833" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A833" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B833">
+        <v>16</v>
+      </c>
+      <c r="C833" t="s">
+        <v>66</v>
+      </c>
+      <c r="D833" t="s">
+        <v>66</v>
+      </c>
+      <c r="E833" t="s">
+        <v>45</v>
+      </c>
+      <c r="F833">
+        <v>139005</v>
+      </c>
+      <c r="G833">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="834" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A834" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B834">
+        <v>45</v>
+      </c>
+      <c r="C834" t="s">
+        <v>67</v>
+      </c>
+      <c r="D834" t="s">
+        <v>68</v>
+      </c>
+      <c r="E834" t="s">
+        <v>9</v>
+      </c>
+      <c r="F834">
+        <v>45597</v>
+      </c>
+      <c r="G834">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="835" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A835" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B835">
+        <v>33</v>
+      </c>
+      <c r="C835" t="s">
+        <v>69</v>
+      </c>
+      <c r="D835" t="s">
+        <v>17</v>
+      </c>
+      <c r="E835" t="s">
+        <v>18</v>
+      </c>
+      <c r="F835">
+        <v>65145</v>
+      </c>
+      <c r="G835">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="836" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A836" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B836">
+        <v>39</v>
+      </c>
+      <c r="C836" t="s">
+        <v>70</v>
+      </c>
+      <c r="D836" t="s">
+        <v>38</v>
+      </c>
+      <c r="E836" t="s">
+        <v>32</v>
+      </c>
+      <c r="F836">
+        <v>62803</v>
+      </c>
+      <c r="G836">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="837" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A837" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B837">
+        <v>70</v>
+      </c>
+      <c r="C837" t="s">
+        <v>71</v>
+      </c>
+      <c r="D837" t="s">
+        <v>57</v>
+      </c>
+      <c r="E837" t="s">
+        <v>11</v>
+      </c>
+      <c r="F837">
+        <v>21471</v>
+      </c>
+      <c r="G837">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="838" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A838" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B838">
+        <v>46</v>
+      </c>
+      <c r="C838" t="s">
+        <v>43</v>
+      </c>
+      <c r="D838" t="s">
+        <v>43</v>
+      </c>
+      <c r="E838" t="s">
+        <v>15</v>
+      </c>
+      <c r="F838">
+        <v>104914</v>
+      </c>
+      <c r="G838">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="839" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A839" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B839">
+        <v>52</v>
+      </c>
+      <c r="C839" t="s">
+        <v>41</v>
+      </c>
+      <c r="D839" t="s">
+        <v>41</v>
+      </c>
+      <c r="E839" t="s">
+        <v>9</v>
+      </c>
+      <c r="F839">
+        <v>62439</v>
+      </c>
+      <c r="G839">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="840" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A840" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B840">
+        <v>7</v>
+      </c>
+      <c r="C840" t="s">
+        <v>72</v>
+      </c>
+      <c r="D840" t="s">
+        <v>72</v>
+      </c>
+      <c r="E840" t="s">
+        <v>15</v>
+      </c>
+      <c r="F840">
+        <v>175610</v>
+      </c>
+      <c r="G840">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="841" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A841" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B841">
+        <v>40</v>
+      </c>
+      <c r="C841" t="s">
+        <v>73</v>
+      </c>
+      <c r="D841" t="s">
+        <v>68</v>
+      </c>
+      <c r="E841" t="s">
+        <v>9</v>
+      </c>
+      <c r="F841">
+        <v>133980</v>
+      </c>
+      <c r="G841">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="842" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A842" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B842">
+        <v>54</v>
+      </c>
+      <c r="C842" t="s">
+        <v>74</v>
+      </c>
+      <c r="D842" t="s">
+        <v>41</v>
+      </c>
+      <c r="E842" t="s">
+        <v>9</v>
+      </c>
+      <c r="F842">
+        <v>44310</v>
+      </c>
+      <c r="G842">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="843" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A843" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B843">
+        <v>48</v>
+      </c>
+      <c r="C843" t="s">
+        <v>75</v>
+      </c>
+      <c r="D843" t="s">
+        <v>76</v>
+      </c>
+      <c r="E843" t="s">
+        <v>11</v>
+      </c>
+      <c r="F843">
+        <v>39637</v>
+      </c>
+      <c r="G843">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="844" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A844" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B844">
+        <v>2</v>
+      </c>
+      <c r="C844" t="s">
+        <v>76</v>
+      </c>
+      <c r="D844" t="s">
+        <v>76</v>
+      </c>
+      <c r="E844" t="s">
+        <v>11</v>
+      </c>
+      <c r="F844">
+        <v>84159</v>
+      </c>
+      <c r="G844">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="845" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A845" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B845">
+        <v>19</v>
+      </c>
+      <c r="C845" t="s">
+        <v>77</v>
+      </c>
+      <c r="D845" t="s">
+        <v>77</v>
+      </c>
+      <c r="E845" t="s">
+        <v>36</v>
+      </c>
+      <c r="F845">
+        <v>62209</v>
+      </c>
+      <c r="G845">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="846" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A846" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B846">
+        <v>56</v>
+      </c>
+      <c r="C846" t="s">
+        <v>78</v>
+      </c>
+      <c r="D846" t="s">
+        <v>56</v>
+      </c>
+      <c r="E846" t="s">
+        <v>26</v>
+      </c>
+      <c r="F846">
+        <v>56702</v>
+      </c>
+      <c r="G846">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="847" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A847" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B847">
+        <v>35</v>
+      </c>
+      <c r="C847" t="s">
+        <v>79</v>
+      </c>
+      <c r="D847" t="s">
+        <v>72</v>
+      </c>
+      <c r="E847" t="s">
+        <v>15</v>
+      </c>
+      <c r="F847">
+        <v>60519</v>
+      </c>
+      <c r="G847">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="848" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A848" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B848">
+        <v>75</v>
+      </c>
+      <c r="C848" t="s">
+        <v>80</v>
+      </c>
+      <c r="D848" t="s">
+        <v>64</v>
+      </c>
+      <c r="E848" t="s">
+        <v>45</v>
+      </c>
+      <c r="F848">
+        <v>51685</v>
+      </c>
+      <c r="G848">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="849" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A849" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B849">
+        <v>12</v>
+      </c>
+      <c r="C849" t="s">
+        <v>81</v>
+      </c>
+      <c r="D849" t="s">
+        <v>17</v>
+      </c>
+      <c r="E849" t="s">
+        <v>18</v>
+      </c>
+      <c r="F849">
+        <v>89832</v>
+      </c>
+      <c r="G849">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="850" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A850" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B850">
+        <v>58</v>
+      </c>
+      <c r="C850" t="s">
+        <v>82</v>
+      </c>
+      <c r="D850" t="s">
+        <v>82</v>
+      </c>
+      <c r="E850" t="s">
+        <v>32</v>
+      </c>
+      <c r="F850">
+        <v>60446</v>
+      </c>
+      <c r="G850">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="851" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A851" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B851">
+        <v>72</v>
+      </c>
+      <c r="C851" t="s">
+        <v>83</v>
+      </c>
+      <c r="D851" t="s">
+        <v>82</v>
+      </c>
+      <c r="E851" t="s">
+        <v>32</v>
+      </c>
+      <c r="F851">
+        <v>47105</v>
+      </c>
+      <c r="G851">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="852" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A852" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B852">
+        <v>50</v>
+      </c>
+      <c r="C852" t="s">
+        <v>84</v>
+      </c>
+      <c r="D852" t="s">
+        <v>39</v>
+      </c>
+      <c r="E852" t="s">
+        <v>15</v>
+      </c>
+      <c r="F852">
+        <v>36241</v>
+      </c>
+      <c r="G852">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="853" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A853" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B853">
+        <v>44</v>
+      </c>
+      <c r="C853" t="s">
+        <v>85</v>
+      </c>
+      <c r="D853" t="s">
+        <v>61</v>
+      </c>
+      <c r="E853" t="s">
+        <v>36</v>
+      </c>
+      <c r="F853">
+        <v>22819</v>
+      </c>
+      <c r="G853">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="854" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A854" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B854">
+        <v>21</v>
+      </c>
+      <c r="C854" t="s">
+        <v>35</v>
+      </c>
+      <c r="D854" t="s">
+        <v>35</v>
+      </c>
+      <c r="E854" t="s">
+        <v>36</v>
+      </c>
+      <c r="F854">
+        <v>99765</v>
+      </c>
+      <c r="G854">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="855" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A855" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B855">
+        <v>17</v>
+      </c>
+      <c r="C855" t="s">
+        <v>86</v>
+      </c>
+      <c r="D855" t="s">
+        <v>86</v>
+      </c>
+      <c r="E855" t="s">
+        <v>15</v>
+      </c>
+      <c r="F855">
+        <v>53954</v>
+      </c>
+      <c r="G855">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="856" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A856" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B856">
+        <v>38</v>
+      </c>
+      <c r="C856" t="s">
+        <v>87</v>
+      </c>
+      <c r="D856" t="s">
+        <v>88</v>
+      </c>
+      <c r="E856" t="s">
+        <v>15</v>
+      </c>
+      <c r="F856">
+        <v>20532</v>
+      </c>
+      <c r="G856">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="857" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A857" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B857">
+        <v>53</v>
+      </c>
+      <c r="C857" t="s">
+        <v>88</v>
+      </c>
+      <c r="D857" t="s">
+        <v>88</v>
+      </c>
+      <c r="E857" t="s">
+        <v>15</v>
+      </c>
+      <c r="F857">
+        <v>32564</v>
+      </c>
+      <c r="G857">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="858" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A858" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B858">
+        <v>18</v>
+      </c>
+      <c r="C858" t="s">
+        <v>89</v>
+      </c>
+      <c r="D858" t="s">
+        <v>89</v>
+      </c>
+      <c r="E858" t="s">
+        <v>45</v>
+      </c>
+      <c r="F858">
+        <v>70132</v>
+      </c>
+      <c r="G858">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="859" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A859" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B859">
+        <v>10</v>
+      </c>
+      <c r="C859" t="s">
+        <v>90</v>
+      </c>
+      <c r="D859" t="s">
+        <v>90</v>
+      </c>
+      <c r="E859" t="s">
+        <v>36</v>
+      </c>
+      <c r="F859">
+        <v>105353</v>
+      </c>
+      <c r="G859">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="860" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A860" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B860">
+        <v>8</v>
+      </c>
+      <c r="C860" t="s">
+        <v>8</v>
+      </c>
+      <c r="D860" t="s">
+        <v>8</v>
+      </c>
+      <c r="E860" t="s">
+        <v>9</v>
+      </c>
+      <c r="F860">
+        <v>114523</v>
+      </c>
+      <c r="G860">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="861" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A861" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B861">
+        <v>57</v>
+      </c>
+      <c r="C861" t="s">
+        <v>38</v>
+      </c>
+      <c r="D861" t="s">
+        <v>38</v>
+      </c>
+      <c r="E861" t="s">
+        <v>32</v>
+      </c>
+      <c r="F861">
+        <v>132455</v>
+      </c>
+      <c r="G861">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="862" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A862" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B862">
+        <v>6</v>
+      </c>
+      <c r="C862" t="s">
+        <v>91</v>
+      </c>
+      <c r="D862" t="s">
+        <v>59</v>
+      </c>
+      <c r="E862" t="s">
+        <v>26</v>
+      </c>
+      <c r="F862">
+        <v>15884</v>
+      </c>
+      <c r="G862">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="863" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A863" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B863">
+        <v>71</v>
+      </c>
+      <c r="C863" t="s">
+        <v>92</v>
+      </c>
+      <c r="D863" t="s">
+        <v>30</v>
+      </c>
+      <c r="E863" t="s">
+        <v>26</v>
+      </c>
+      <c r="F863">
+        <v>36180</v>
+      </c>
+      <c r="G863">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="864" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A864" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B864">
+        <v>37</v>
+      </c>
+      <c r="C864" t="s">
+        <v>93</v>
+      </c>
+      <c r="D864" t="s">
+        <v>93</v>
+      </c>
+      <c r="E864" t="s">
+        <v>11</v>
+      </c>
+      <c r="F864">
+        <v>43473</v>
+      </c>
+      <c r="G864">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="865" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A865" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B865">
+        <v>22</v>
+      </c>
+      <c r="C865" t="s">
+        <v>94</v>
+      </c>
+      <c r="D865" t="s">
+        <v>94</v>
+      </c>
+      <c r="E865" t="s">
+        <v>15</v>
+      </c>
+      <c r="F865">
+        <v>80767</v>
+      </c>
+      <c r="G865">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="866" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A866" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B866">
+        <v>42</v>
+      </c>
+      <c r="C866" t="s">
+        <v>95</v>
+      </c>
+      <c r="D866" t="s">
+        <v>13</v>
+      </c>
+      <c r="E866" t="s">
+        <v>11</v>
+      </c>
+      <c r="F866">
+        <v>26153</v>
+      </c>
+      <c r="G866">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="867" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A867" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B867">
+        <v>43</v>
+      </c>
+      <c r="C867" t="s">
+        <v>13</v>
+      </c>
+      <c r="D867" t="s">
+        <v>13</v>
+      </c>
+      <c r="E867" t="s">
+        <v>11</v>
+      </c>
+      <c r="F867">
+        <v>46862</v>
+      </c>
+      <c r="G867">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="868" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A868" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B868">
+        <v>26</v>
+      </c>
+      <c r="C868" t="s">
+        <v>25</v>
+      </c>
+      <c r="D868" t="s">
+        <v>25</v>
+      </c>
+      <c r="E868" t="s">
+        <v>26</v>
+      </c>
+      <c r="F868">
+        <v>158043</v>
+      </c>
+      <c r="G868">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="869" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A869" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B869">
+        <v>51</v>
+      </c>
+      <c r="C869" t="s">
+        <v>96</v>
+      </c>
+      <c r="D869" t="s">
+        <v>64</v>
+      </c>
+      <c r="E869" t="s">
+        <v>45</v>
+      </c>
+      <c r="F869">
+        <v>40573</v>
+      </c>
+      <c r="G869">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="870" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A870" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B870">
+        <v>24</v>
+      </c>
+      <c r="C870" t="s">
+        <v>29</v>
+      </c>
+      <c r="D870" t="s">
+        <v>29</v>
+      </c>
+      <c r="E870" t="s">
+        <v>11</v>
+      </c>
+      <c r="F870">
+        <v>68759</v>
+      </c>
+      <c r="G870">
         <v>1</v>
       </c>
     </row>
@@ -18895,6 +20712,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -19105,12 +20928,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -19121,6 +20938,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4606366C-CC67-4067-BB57-10E9258263A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD54013B-80FE-42D8-8BC5-D14482016D9E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19139,15 +20965,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4606366C-CC67-4067-BB57-10E9258263A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C841AB4-9F11-4453-8762-85942E875817}">
   <ds:schemaRefs>

--- a/OpenData_Slovakia_CovidAutomat_History.xlsx
+++ b/OpenData_Slovakia_CovidAutomat_History.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{DF98854D-4A74-4BEA-8949-A754D409E20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{470C2DFF-3A16-4FD8-8565-B0A3D0866058}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{DF98854D-4A74-4BEA-8949-A754D409E20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1456F75C-330F-416E-95E5-37766C3EAA80}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="-110" windowWidth="18350" windowHeight="11020" xr2:uid="{817111DC-07F4-49D8-B88A-F51DD2C39FFE}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{817111DC-07F4-49D8-B88A-F51DD2C39FFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2614" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2851" uniqueCount="97">
   <si>
     <t>Platne od</t>
   </si>
@@ -680,15 +680,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3118A9E1-7AB7-4959-BB1E-0523D5A0DF60}">
-  <dimension ref="A1:G870"/>
+  <dimension ref="A1:G949"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A769" workbookViewId="0">
-      <selection activeCell="A790" sqref="A790"/>
+    <sheetView tabSelected="1" topLeftCell="A915" workbookViewId="0">
+      <selection activeCell="B949" sqref="B949"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.8984375" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -20698,6 +20698,1823 @@
         <v>68759</v>
       </c>
       <c r="G870">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="871" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A871" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B871">
+        <v>41</v>
+      </c>
+      <c r="C871" t="s">
+        <v>7</v>
+      </c>
+      <c r="D871" t="s">
+        <v>8</v>
+      </c>
+      <c r="E871" t="s">
+        <v>9</v>
+      </c>
+      <c r="F871">
+        <v>36282</v>
+      </c>
+      <c r="G871">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="872" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A872" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B872">
+        <v>32</v>
+      </c>
+      <c r="C872" t="s">
+        <v>10</v>
+      </c>
+      <c r="D872" t="s">
+        <v>10</v>
+      </c>
+      <c r="E872" t="s">
+        <v>11</v>
+      </c>
+      <c r="F872">
+        <v>110829</v>
+      </c>
+      <c r="G872">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="873" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A873" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B873">
+        <v>31</v>
+      </c>
+      <c r="C873" t="s">
+        <v>12</v>
+      </c>
+      <c r="D873" t="s">
+        <v>13</v>
+      </c>
+      <c r="E873" t="s">
+        <v>11</v>
+      </c>
+      <c r="F873">
+        <v>16086</v>
+      </c>
+      <c r="G873">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="874" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A874" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B874">
+        <v>5</v>
+      </c>
+      <c r="C874" t="s">
+        <v>14</v>
+      </c>
+      <c r="D874" t="s">
+        <v>14</v>
+      </c>
+      <c r="E874" t="s">
+        <v>15</v>
+      </c>
+      <c r="F874">
+        <v>77771</v>
+      </c>
+      <c r="G874">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="875" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A875" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B875">
+        <v>64</v>
+      </c>
+      <c r="C875" t="s">
+        <v>16</v>
+      </c>
+      <c r="D875" t="s">
+        <v>17</v>
+      </c>
+      <c r="E875" t="s">
+        <v>18</v>
+      </c>
+      <c r="F875">
+        <v>41095</v>
+      </c>
+      <c r="G875">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="876" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A876" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B876">
+        <v>68</v>
+      </c>
+      <c r="C876" t="s">
+        <v>19</v>
+      </c>
+      <c r="D876" t="s">
+        <v>17</v>
+      </c>
+      <c r="E876" t="s">
+        <v>18</v>
+      </c>
+      <c r="F876">
+        <v>115653</v>
+      </c>
+      <c r="G876">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="877" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A877" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B877">
+        <v>67</v>
+      </c>
+      <c r="C877" t="s">
+        <v>20</v>
+      </c>
+      <c r="D877" t="s">
+        <v>17</v>
+      </c>
+      <c r="E877" t="s">
+        <v>18</v>
+      </c>
+      <c r="F877">
+        <v>67913</v>
+      </c>
+      <c r="G877">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="878" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A878" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B878">
+        <v>66</v>
+      </c>
+      <c r="C878" t="s">
+        <v>21</v>
+      </c>
+      <c r="D878" t="s">
+        <v>17</v>
+      </c>
+      <c r="E878" t="s">
+        <v>18</v>
+      </c>
+      <c r="F878">
+        <v>97261</v>
+      </c>
+      <c r="G878">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="879" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A879" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B879">
+        <v>65</v>
+      </c>
+      <c r="C879" t="s">
+        <v>22</v>
+      </c>
+      <c r="D879" t="s">
+        <v>17</v>
+      </c>
+      <c r="E879" t="s">
+        <v>18</v>
+      </c>
+      <c r="F879">
+        <v>110942</v>
+      </c>
+      <c r="G879">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="880" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A880" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B880">
+        <v>28</v>
+      </c>
+      <c r="C880" t="s">
+        <v>23</v>
+      </c>
+      <c r="D880" t="s">
+        <v>10</v>
+      </c>
+      <c r="E880" t="s">
+        <v>11</v>
+      </c>
+      <c r="F880">
+        <v>61450</v>
+      </c>
+      <c r="G880">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="881" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A881" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B881">
+        <v>25</v>
+      </c>
+      <c r="C881" t="s">
+        <v>24</v>
+      </c>
+      <c r="D881" t="s">
+        <v>25</v>
+      </c>
+      <c r="E881" t="s">
+        <v>26</v>
+      </c>
+      <c r="F881">
+        <v>30917</v>
+      </c>
+      <c r="G881">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="882" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A882" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B882">
+        <v>59</v>
+      </c>
+      <c r="C882" t="s">
+        <v>27</v>
+      </c>
+      <c r="D882" t="s">
+        <v>27</v>
+      </c>
+      <c r="E882" t="s">
+        <v>26</v>
+      </c>
+      <c r="F882">
+        <v>90080</v>
+      </c>
+      <c r="G882">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="883" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A883" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B883">
+        <v>69</v>
+      </c>
+      <c r="C883" t="s">
+        <v>28</v>
+      </c>
+      <c r="D883" t="s">
+        <v>29</v>
+      </c>
+      <c r="E883" t="s">
+        <v>11</v>
+      </c>
+      <c r="F883">
+        <v>32051</v>
+      </c>
+      <c r="G883">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="884" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A884" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B884">
+        <v>55</v>
+      </c>
+      <c r="C884" t="s">
+        <v>30</v>
+      </c>
+      <c r="D884" t="s">
+        <v>30</v>
+      </c>
+      <c r="E884" t="s">
+        <v>26</v>
+      </c>
+      <c r="F884">
+        <v>39457</v>
+      </c>
+      <c r="G884">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="885" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A885" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B885">
+        <v>13</v>
+      </c>
+      <c r="C885" t="s">
+        <v>31</v>
+      </c>
+      <c r="D885" t="s">
+        <v>31</v>
+      </c>
+      <c r="E885" t="s">
+        <v>32</v>
+      </c>
+      <c r="F885">
+        <v>122358</v>
+      </c>
+      <c r="G885">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="886" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A886" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B886">
+        <v>3</v>
+      </c>
+      <c r="C886" t="s">
+        <v>33</v>
+      </c>
+      <c r="D886" t="s">
+        <v>33</v>
+      </c>
+      <c r="E886" t="s">
+        <v>32</v>
+      </c>
+      <c r="F886">
+        <v>94076</v>
+      </c>
+      <c r="G886">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="887" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A887" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B887">
+        <v>74</v>
+      </c>
+      <c r="C887" t="s">
+        <v>34</v>
+      </c>
+      <c r="D887" t="s">
+        <v>35</v>
+      </c>
+      <c r="E887" t="s">
+        <v>36</v>
+      </c>
+      <c r="F887">
+        <v>31868</v>
+      </c>
+      <c r="G887">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="888" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A888" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B888">
+        <v>61</v>
+      </c>
+      <c r="C888" t="s">
+        <v>37</v>
+      </c>
+      <c r="D888" t="s">
+        <v>38</v>
+      </c>
+      <c r="E888" t="s">
+        <v>32</v>
+      </c>
+      <c r="F888">
+        <v>45013</v>
+      </c>
+      <c r="G888">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="889" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A889" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B889">
+        <v>9</v>
+      </c>
+      <c r="C889" t="s">
+        <v>39</v>
+      </c>
+      <c r="D889" t="s">
+        <v>39</v>
+      </c>
+      <c r="E889" t="s">
+        <v>15</v>
+      </c>
+      <c r="F889">
+        <v>61986</v>
+      </c>
+      <c r="G889">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="890" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A890" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B890">
+        <v>60</v>
+      </c>
+      <c r="C890" t="s">
+        <v>40</v>
+      </c>
+      <c r="D890" t="s">
+        <v>41</v>
+      </c>
+      <c r="E890" t="s">
+        <v>9</v>
+      </c>
+      <c r="F890">
+        <v>59188</v>
+      </c>
+      <c r="G890">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="891" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A891" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B891">
+        <v>4</v>
+      </c>
+      <c r="C891" t="s">
+        <v>42</v>
+      </c>
+      <c r="D891" t="s">
+        <v>43</v>
+      </c>
+      <c r="E891" t="s">
+        <v>15</v>
+      </c>
+      <c r="F891">
+        <v>75235</v>
+      </c>
+      <c r="G891">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="892" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A892" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B892">
+        <v>14</v>
+      </c>
+      <c r="C892" t="s">
+        <v>44</v>
+      </c>
+      <c r="D892" t="s">
+        <v>44</v>
+      </c>
+      <c r="E892" t="s">
+        <v>45</v>
+      </c>
+      <c r="F892">
+        <v>101712</v>
+      </c>
+      <c r="G892">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="893" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A893" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B893">
+        <v>76</v>
+      </c>
+      <c r="C893" t="s">
+        <v>46</v>
+      </c>
+      <c r="D893" t="s">
+        <v>47</v>
+      </c>
+      <c r="E893" t="s">
+        <v>36</v>
+      </c>
+      <c r="F893">
+        <v>67513</v>
+      </c>
+      <c r="G893">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="894" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A894" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B894">
+        <v>79</v>
+      </c>
+      <c r="C894" t="s">
+        <v>48</v>
+      </c>
+      <c r="D894" t="s">
+        <v>47</v>
+      </c>
+      <c r="E894" t="s">
+        <v>36</v>
+      </c>
+      <c r="F894">
+        <v>82288</v>
+      </c>
+      <c r="G894">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="895" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A895" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B895">
+        <v>78</v>
+      </c>
+      <c r="C895" t="s">
+        <v>49</v>
+      </c>
+      <c r="D895" t="s">
+        <v>47</v>
+      </c>
+      <c r="E895" t="s">
+        <v>36</v>
+      </c>
+      <c r="F895">
+        <v>28749</v>
+      </c>
+      <c r="G895">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="896" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A896" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B896">
+        <v>77</v>
+      </c>
+      <c r="C896" t="s">
+        <v>50</v>
+      </c>
+      <c r="D896" t="s">
+        <v>47</v>
+      </c>
+      <c r="E896" t="s">
+        <v>36</v>
+      </c>
+      <c r="F896">
+        <v>60126</v>
+      </c>
+      <c r="G896">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="897" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A897" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B897">
+        <v>29</v>
+      </c>
+      <c r="C897" t="s">
+        <v>51</v>
+      </c>
+      <c r="D897" t="s">
+        <v>47</v>
+      </c>
+      <c r="E897" t="s">
+        <v>36</v>
+      </c>
+      <c r="F897">
+        <v>129544</v>
+      </c>
+      <c r="G897">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="898" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A898" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B898">
+        <v>30</v>
+      </c>
+      <c r="C898" t="s">
+        <v>52</v>
+      </c>
+      <c r="D898" t="s">
+        <v>29</v>
+      </c>
+      <c r="E898" t="s">
+        <v>11</v>
+      </c>
+      <c r="F898">
+        <v>22182</v>
+      </c>
+      <c r="G898">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="899" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A899" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B899">
+        <v>73</v>
+      </c>
+      <c r="C899" t="s">
+        <v>53</v>
+      </c>
+      <c r="D899" t="s">
+        <v>27</v>
+      </c>
+      <c r="E899" t="s">
+        <v>26</v>
+      </c>
+      <c r="F899">
+        <v>32914</v>
+      </c>
+      <c r="G899">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="900" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A900" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B900">
+        <v>20</v>
+      </c>
+      <c r="C900" t="s">
+        <v>54</v>
+      </c>
+      <c r="D900" t="s">
+        <v>54</v>
+      </c>
+      <c r="E900" t="s">
+        <v>45</v>
+      </c>
+      <c r="F900">
+        <v>110824</v>
+      </c>
+      <c r="G900">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="901" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A901" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B901">
+        <v>36</v>
+      </c>
+      <c r="C901" t="s">
+        <v>55</v>
+      </c>
+      <c r="D901" t="s">
+        <v>43</v>
+      </c>
+      <c r="E901" t="s">
+        <v>15</v>
+      </c>
+      <c r="F901">
+        <v>33702</v>
+      </c>
+      <c r="G901">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="902" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A902" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B902">
+        <v>15</v>
+      </c>
+      <c r="C902" t="s">
+        <v>56</v>
+      </c>
+      <c r="D902" t="s">
+        <v>56</v>
+      </c>
+      <c r="E902" t="s">
+        <v>26</v>
+      </c>
+      <c r="F902">
+        <v>72261</v>
+      </c>
+      <c r="G902">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="903" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A903" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B903">
+        <v>1</v>
+      </c>
+      <c r="C903" t="s">
+        <v>57</v>
+      </c>
+      <c r="D903" t="s">
+        <v>57</v>
+      </c>
+      <c r="E903" t="s">
+        <v>11</v>
+      </c>
+      <c r="F903">
+        <v>73466</v>
+      </c>
+      <c r="G903">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="904" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A904" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B904">
+        <v>62</v>
+      </c>
+      <c r="C904" t="s">
+        <v>58</v>
+      </c>
+      <c r="D904" t="s">
+        <v>17</v>
+      </c>
+      <c r="E904" t="s">
+        <v>18</v>
+      </c>
+      <c r="F904">
+        <v>74323</v>
+      </c>
+      <c r="G904">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="905" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A905" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B905">
+        <v>49</v>
+      </c>
+      <c r="C905" t="s">
+        <v>59</v>
+      </c>
+      <c r="D905" t="s">
+        <v>59</v>
+      </c>
+      <c r="E905" t="s">
+        <v>26</v>
+      </c>
+      <c r="F905">
+        <v>96338</v>
+      </c>
+      <c r="G905">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="906" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A906" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B906">
+        <v>63</v>
+      </c>
+      <c r="C906" t="s">
+        <v>60</v>
+      </c>
+      <c r="D906" t="s">
+        <v>39</v>
+      </c>
+      <c r="E906" t="s">
+        <v>15</v>
+      </c>
+      <c r="F906">
+        <v>11842</v>
+      </c>
+      <c r="G906">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="907" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A907" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B907">
+        <v>34</v>
+      </c>
+      <c r="C907" t="s">
+        <v>61</v>
+      </c>
+      <c r="D907" t="s">
+        <v>61</v>
+      </c>
+      <c r="E907" t="s">
+        <v>36</v>
+      </c>
+      <c r="F907">
+        <v>110705</v>
+      </c>
+      <c r="G907">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="908" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A908" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B908">
+        <v>27</v>
+      </c>
+      <c r="C908" t="s">
+        <v>62</v>
+      </c>
+      <c r="D908" t="s">
+        <v>8</v>
+      </c>
+      <c r="E908" t="s">
+        <v>9</v>
+      </c>
+      <c r="F908">
+        <v>26356</v>
+      </c>
+      <c r="G908">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="909" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A909" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B909">
+        <v>23</v>
+      </c>
+      <c r="C909" t="s">
+        <v>63</v>
+      </c>
+      <c r="D909" t="s">
+        <v>30</v>
+      </c>
+      <c r="E909" t="s">
+        <v>26</v>
+      </c>
+      <c r="F909">
+        <v>62664</v>
+      </c>
+      <c r="G909">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="910" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A910" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B910">
+        <v>11</v>
+      </c>
+      <c r="C910" t="s">
+        <v>64</v>
+      </c>
+      <c r="D910" t="s">
+        <v>64</v>
+      </c>
+      <c r="E910" t="s">
+        <v>45</v>
+      </c>
+      <c r="F910">
+        <v>161560</v>
+      </c>
+      <c r="G910">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="911" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A911" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B911">
+        <v>47</v>
+      </c>
+      <c r="C911" t="s">
+        <v>65</v>
+      </c>
+      <c r="D911" t="s">
+        <v>8</v>
+      </c>
+      <c r="E911" t="s">
+        <v>9</v>
+      </c>
+      <c r="F911">
+        <v>62554</v>
+      </c>
+      <c r="G911">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="912" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A912" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B912">
+        <v>16</v>
+      </c>
+      <c r="C912" t="s">
+        <v>66</v>
+      </c>
+      <c r="D912" t="s">
+        <v>66</v>
+      </c>
+      <c r="E912" t="s">
+        <v>45</v>
+      </c>
+      <c r="F912">
+        <v>139005</v>
+      </c>
+      <c r="G912">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="913" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A913" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B913">
+        <v>45</v>
+      </c>
+      <c r="C913" t="s">
+        <v>67</v>
+      </c>
+      <c r="D913" t="s">
+        <v>68</v>
+      </c>
+      <c r="E913" t="s">
+        <v>9</v>
+      </c>
+      <c r="F913">
+        <v>45597</v>
+      </c>
+      <c r="G913">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="914" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A914" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B914">
+        <v>33</v>
+      </c>
+      <c r="C914" t="s">
+        <v>69</v>
+      </c>
+      <c r="D914" t="s">
+        <v>17</v>
+      </c>
+      <c r="E914" t="s">
+        <v>18</v>
+      </c>
+      <c r="F914">
+        <v>65145</v>
+      </c>
+      <c r="G914">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="915" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A915" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B915">
+        <v>39</v>
+      </c>
+      <c r="C915" t="s">
+        <v>70</v>
+      </c>
+      <c r="D915" t="s">
+        <v>38</v>
+      </c>
+      <c r="E915" t="s">
+        <v>32</v>
+      </c>
+      <c r="F915">
+        <v>62803</v>
+      </c>
+      <c r="G915">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="916" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A916" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B916">
+        <v>70</v>
+      </c>
+      <c r="C916" t="s">
+        <v>71</v>
+      </c>
+      <c r="D916" t="s">
+        <v>57</v>
+      </c>
+      <c r="E916" t="s">
+        <v>11</v>
+      </c>
+      <c r="F916">
+        <v>21471</v>
+      </c>
+      <c r="G916">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="917" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A917" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B917">
+        <v>46</v>
+      </c>
+      <c r="C917" t="s">
+        <v>43</v>
+      </c>
+      <c r="D917" t="s">
+        <v>43</v>
+      </c>
+      <c r="E917" t="s">
+        <v>15</v>
+      </c>
+      <c r="F917">
+        <v>104914</v>
+      </c>
+      <c r="G917">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="918" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A918" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B918">
+        <v>52</v>
+      </c>
+      <c r="C918" t="s">
+        <v>41</v>
+      </c>
+      <c r="D918" t="s">
+        <v>41</v>
+      </c>
+      <c r="E918" t="s">
+        <v>9</v>
+      </c>
+      <c r="F918">
+        <v>62439</v>
+      </c>
+      <c r="G918">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="919" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A919" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B919">
+        <v>7</v>
+      </c>
+      <c r="C919" t="s">
+        <v>72</v>
+      </c>
+      <c r="D919" t="s">
+        <v>72</v>
+      </c>
+      <c r="E919" t="s">
+        <v>15</v>
+      </c>
+      <c r="F919">
+        <v>175610</v>
+      </c>
+      <c r="G919">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="920" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A920" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B920">
+        <v>40</v>
+      </c>
+      <c r="C920" t="s">
+        <v>73</v>
+      </c>
+      <c r="D920" t="s">
+        <v>68</v>
+      </c>
+      <c r="E920" t="s">
+        <v>9</v>
+      </c>
+      <c r="F920">
+        <v>133980</v>
+      </c>
+      <c r="G920">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="921" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A921" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B921">
+        <v>54</v>
+      </c>
+      <c r="C921" t="s">
+        <v>74</v>
+      </c>
+      <c r="D921" t="s">
+        <v>41</v>
+      </c>
+      <c r="E921" t="s">
+        <v>9</v>
+      </c>
+      <c r="F921">
+        <v>44310</v>
+      </c>
+      <c r="G921">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="922" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A922" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B922">
+        <v>48</v>
+      </c>
+      <c r="C922" t="s">
+        <v>75</v>
+      </c>
+      <c r="D922" t="s">
+        <v>76</v>
+      </c>
+      <c r="E922" t="s">
+        <v>11</v>
+      </c>
+      <c r="F922">
+        <v>39637</v>
+      </c>
+      <c r="G922">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="923" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A923" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B923">
+        <v>2</v>
+      </c>
+      <c r="C923" t="s">
+        <v>76</v>
+      </c>
+      <c r="D923" t="s">
+        <v>76</v>
+      </c>
+      <c r="E923" t="s">
+        <v>11</v>
+      </c>
+      <c r="F923">
+        <v>84159</v>
+      </c>
+      <c r="G923">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="924" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A924" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B924">
+        <v>19</v>
+      </c>
+      <c r="C924" t="s">
+        <v>77</v>
+      </c>
+      <c r="D924" t="s">
+        <v>77</v>
+      </c>
+      <c r="E924" t="s">
+        <v>36</v>
+      </c>
+      <c r="F924">
+        <v>62209</v>
+      </c>
+      <c r="G924">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="925" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A925" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B925">
+        <v>56</v>
+      </c>
+      <c r="C925" t="s">
+        <v>78</v>
+      </c>
+      <c r="D925" t="s">
+        <v>56</v>
+      </c>
+      <c r="E925" t="s">
+        <v>26</v>
+      </c>
+      <c r="F925">
+        <v>56702</v>
+      </c>
+      <c r="G925">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="926" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A926" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B926">
+        <v>35</v>
+      </c>
+      <c r="C926" t="s">
+        <v>79</v>
+      </c>
+      <c r="D926" t="s">
+        <v>72</v>
+      </c>
+      <c r="E926" t="s">
+        <v>15</v>
+      </c>
+      <c r="F926">
+        <v>60519</v>
+      </c>
+      <c r="G926">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="927" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A927" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B927">
+        <v>75</v>
+      </c>
+      <c r="C927" t="s">
+        <v>80</v>
+      </c>
+      <c r="D927" t="s">
+        <v>64</v>
+      </c>
+      <c r="E927" t="s">
+        <v>45</v>
+      </c>
+      <c r="F927">
+        <v>51685</v>
+      </c>
+      <c r="G927">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="928" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A928" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B928">
+        <v>12</v>
+      </c>
+      <c r="C928" t="s">
+        <v>81</v>
+      </c>
+      <c r="D928" t="s">
+        <v>17</v>
+      </c>
+      <c r="E928" t="s">
+        <v>18</v>
+      </c>
+      <c r="F928">
+        <v>89832</v>
+      </c>
+      <c r="G928">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="929" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A929" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B929">
+        <v>58</v>
+      </c>
+      <c r="C929" t="s">
+        <v>82</v>
+      </c>
+      <c r="D929" t="s">
+        <v>82</v>
+      </c>
+      <c r="E929" t="s">
+        <v>32</v>
+      </c>
+      <c r="F929">
+        <v>60446</v>
+      </c>
+      <c r="G929">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="930" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A930" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B930">
+        <v>72</v>
+      </c>
+      <c r="C930" t="s">
+        <v>83</v>
+      </c>
+      <c r="D930" t="s">
+        <v>82</v>
+      </c>
+      <c r="E930" t="s">
+        <v>32</v>
+      </c>
+      <c r="F930">
+        <v>47105</v>
+      </c>
+      <c r="G930">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="931" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A931" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B931">
+        <v>50</v>
+      </c>
+      <c r="C931" t="s">
+        <v>84</v>
+      </c>
+      <c r="D931" t="s">
+        <v>39</v>
+      </c>
+      <c r="E931" t="s">
+        <v>15</v>
+      </c>
+      <c r="F931">
+        <v>36241</v>
+      </c>
+      <c r="G931">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="932" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A932" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B932">
+        <v>44</v>
+      </c>
+      <c r="C932" t="s">
+        <v>85</v>
+      </c>
+      <c r="D932" t="s">
+        <v>61</v>
+      </c>
+      <c r="E932" t="s">
+        <v>36</v>
+      </c>
+      <c r="F932">
+        <v>22819</v>
+      </c>
+      <c r="G932">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="933" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A933" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B933">
+        <v>21</v>
+      </c>
+      <c r="C933" t="s">
+        <v>35</v>
+      </c>
+      <c r="D933" t="s">
+        <v>35</v>
+      </c>
+      <c r="E933" t="s">
+        <v>36</v>
+      </c>
+      <c r="F933">
+        <v>99765</v>
+      </c>
+      <c r="G933">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="934" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A934" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B934">
+        <v>17</v>
+      </c>
+      <c r="C934" t="s">
+        <v>86</v>
+      </c>
+      <c r="D934" t="s">
+        <v>86</v>
+      </c>
+      <c r="E934" t="s">
+        <v>15</v>
+      </c>
+      <c r="F934">
+        <v>53954</v>
+      </c>
+      <c r="G934">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="935" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A935" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B935">
+        <v>38</v>
+      </c>
+      <c r="C935" t="s">
+        <v>87</v>
+      </c>
+      <c r="D935" t="s">
+        <v>88</v>
+      </c>
+      <c r="E935" t="s">
+        <v>15</v>
+      </c>
+      <c r="F935">
+        <v>20532</v>
+      </c>
+      <c r="G935">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="936" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A936" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B936">
+        <v>53</v>
+      </c>
+      <c r="C936" t="s">
+        <v>88</v>
+      </c>
+      <c r="D936" t="s">
+        <v>88</v>
+      </c>
+      <c r="E936" t="s">
+        <v>15</v>
+      </c>
+      <c r="F936">
+        <v>32564</v>
+      </c>
+      <c r="G936">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="937" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A937" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B937">
+        <v>18</v>
+      </c>
+      <c r="C937" t="s">
+        <v>89</v>
+      </c>
+      <c r="D937" t="s">
+        <v>89</v>
+      </c>
+      <c r="E937" t="s">
+        <v>45</v>
+      </c>
+      <c r="F937">
+        <v>70132</v>
+      </c>
+      <c r="G937">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="938" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A938" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B938">
+        <v>10</v>
+      </c>
+      <c r="C938" t="s">
+        <v>90</v>
+      </c>
+      <c r="D938" t="s">
+        <v>90</v>
+      </c>
+      <c r="E938" t="s">
+        <v>36</v>
+      </c>
+      <c r="F938">
+        <v>105353</v>
+      </c>
+      <c r="G938">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="939" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A939" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B939">
+        <v>8</v>
+      </c>
+      <c r="C939" t="s">
+        <v>8</v>
+      </c>
+      <c r="D939" t="s">
+        <v>8</v>
+      </c>
+      <c r="E939" t="s">
+        <v>9</v>
+      </c>
+      <c r="F939">
+        <v>114523</v>
+      </c>
+      <c r="G939">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="940" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A940" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B940">
+        <v>57</v>
+      </c>
+      <c r="C940" t="s">
+        <v>38</v>
+      </c>
+      <c r="D940" t="s">
+        <v>38</v>
+      </c>
+      <c r="E940" t="s">
+        <v>32</v>
+      </c>
+      <c r="F940">
+        <v>132455</v>
+      </c>
+      <c r="G940">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="941" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A941" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B941">
+        <v>6</v>
+      </c>
+      <c r="C941" t="s">
+        <v>91</v>
+      </c>
+      <c r="D941" t="s">
+        <v>59</v>
+      </c>
+      <c r="E941" t="s">
+        <v>26</v>
+      </c>
+      <c r="F941">
+        <v>15884</v>
+      </c>
+      <c r="G941">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="942" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A942" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B942">
+        <v>71</v>
+      </c>
+      <c r="C942" t="s">
+        <v>92</v>
+      </c>
+      <c r="D942" t="s">
+        <v>30</v>
+      </c>
+      <c r="E942" t="s">
+        <v>26</v>
+      </c>
+      <c r="F942">
+        <v>36180</v>
+      </c>
+      <c r="G942">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="943" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A943" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B943">
+        <v>37</v>
+      </c>
+      <c r="C943" t="s">
+        <v>93</v>
+      </c>
+      <c r="D943" t="s">
+        <v>93</v>
+      </c>
+      <c r="E943" t="s">
+        <v>11</v>
+      </c>
+      <c r="F943">
+        <v>43473</v>
+      </c>
+      <c r="G943">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="944" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A944" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B944">
+        <v>22</v>
+      </c>
+      <c r="C944" t="s">
+        <v>94</v>
+      </c>
+      <c r="D944" t="s">
+        <v>94</v>
+      </c>
+      <c r="E944" t="s">
+        <v>15</v>
+      </c>
+      <c r="F944">
+        <v>80767</v>
+      </c>
+      <c r="G944">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="945" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A945" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B945">
+        <v>42</v>
+      </c>
+      <c r="C945" t="s">
+        <v>95</v>
+      </c>
+      <c r="D945" t="s">
+        <v>13</v>
+      </c>
+      <c r="E945" t="s">
+        <v>11</v>
+      </c>
+      <c r="F945">
+        <v>26153</v>
+      </c>
+      <c r="G945">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="946" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A946" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B946">
+        <v>43</v>
+      </c>
+      <c r="C946" t="s">
+        <v>13</v>
+      </c>
+      <c r="D946" t="s">
+        <v>13</v>
+      </c>
+      <c r="E946" t="s">
+        <v>11</v>
+      </c>
+      <c r="F946">
+        <v>46862</v>
+      </c>
+      <c r="G946">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="947" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A947" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B947">
+        <v>26</v>
+      </c>
+      <c r="C947" t="s">
+        <v>25</v>
+      </c>
+      <c r="D947" t="s">
+        <v>25</v>
+      </c>
+      <c r="E947" t="s">
+        <v>26</v>
+      </c>
+      <c r="F947">
+        <v>158043</v>
+      </c>
+      <c r="G947">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="948" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A948" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B948">
+        <v>51</v>
+      </c>
+      <c r="C948" t="s">
+        <v>96</v>
+      </c>
+      <c r="D948" t="s">
+        <v>64</v>
+      </c>
+      <c r="E948" t="s">
+        <v>45</v>
+      </c>
+      <c r="F948">
+        <v>40573</v>
+      </c>
+      <c r="G948">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="949" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A949" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B949">
+        <v>24</v>
+      </c>
+      <c r="C949" t="s">
+        <v>29</v>
+      </c>
+      <c r="D949" t="s">
+        <v>29</v>
+      </c>
+      <c r="E949" t="s">
+        <v>11</v>
+      </c>
+      <c r="F949">
+        <v>68759</v>
+      </c>
+      <c r="G949">
         <v>1</v>
       </c>
     </row>
@@ -20712,12 +22529,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -20928,7 +22739,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -20937,17 +22748,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4606366C-CC67-4067-BB57-10E9258263A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD54013B-80FE-42D8-8BC5-D14482016D9E}">
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5280295C-2A2C-48C4-AC9E-9766062C4F31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -20965,10 +22773,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C841AB4-9F11-4453-8762-85942E875817}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4606366C-CC67-4067-BB57-10E9258263A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/OpenData_Slovakia_CovidAutomat_History.xlsx
+++ b/OpenData_Slovakia_CovidAutomat_History.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{DF98854D-4A74-4BEA-8949-A754D409E20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2D9C3B3-DE20-40AB-90E1-D3A5ECE62D56}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{DF98854D-4A74-4BEA-8949-A754D409E20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF146613-C053-4092-95C7-726D5A483212}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{817111DC-07F4-49D8-B88A-F51DD2C39FFE}"/>
+    <workbookView xWindow="960" yWindow="-110" windowWidth="18350" windowHeight="11020" xr2:uid="{817111DC-07F4-49D8-B88A-F51DD2C39FFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4116" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4432" uniqueCount="100">
   <si>
     <t>Platne od</t>
   </si>
@@ -689,15 +689,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3118A9E1-7AB7-4959-BB1E-0523D5A0DF60}">
-  <dimension ref="A1:H1028"/>
+  <dimension ref="A1:H1107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A930" workbookViewId="0">
-      <selection activeCell="G952" sqref="G952"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="8.8984375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -27425,6 +27425,2060 @@
         <v>1</v>
       </c>
       <c r="H1028" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1029" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1029">
+        <v>41</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1029" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1029">
+        <v>36282</v>
+      </c>
+      <c r="G1029">
+        <v>1</v>
+      </c>
+      <c r="H1029" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1030" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1030">
+        <v>32</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1030">
+        <v>110829</v>
+      </c>
+      <c r="G1030">
+        <v>1</v>
+      </c>
+      <c r="H1030" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1031" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1031">
+        <v>31</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1031" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1031" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1031">
+        <v>16086</v>
+      </c>
+      <c r="G1031">
+        <v>2</v>
+      </c>
+      <c r="H1031" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1032" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1032">
+        <v>5</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1032" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1032">
+        <v>77771</v>
+      </c>
+      <c r="G1032">
+        <v>1</v>
+      </c>
+      <c r="H1032" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1033" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1033">
+        <v>64</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1033" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1033" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1033">
+        <v>41095</v>
+      </c>
+      <c r="G1033">
+        <v>1</v>
+      </c>
+      <c r="H1033" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1034" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1034">
+        <v>68</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1034" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1034">
+        <v>115653</v>
+      </c>
+      <c r="G1034">
+        <v>1</v>
+      </c>
+      <c r="H1034" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1035" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1035">
+        <v>67</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1035" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1035">
+        <v>67913</v>
+      </c>
+      <c r="G1035">
+        <v>1</v>
+      </c>
+      <c r="H1035" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1036" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1036">
+        <v>66</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1036" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1036">
+        <v>97261</v>
+      </c>
+      <c r="G1036">
+        <v>1</v>
+      </c>
+      <c r="H1036" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1037" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1037">
+        <v>65</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1037" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1037">
+        <v>110942</v>
+      </c>
+      <c r="G1037">
+        <v>1</v>
+      </c>
+      <c r="H1037" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1038" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1038">
+        <v>28</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1038" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1038">
+        <v>61450</v>
+      </c>
+      <c r="G1038">
+        <v>1</v>
+      </c>
+      <c r="H1038" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1039" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1039">
+        <v>25</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1039" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1039">
+        <v>30917</v>
+      </c>
+      <c r="G1039">
+        <v>1</v>
+      </c>
+      <c r="H1039" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1040" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1040">
+        <v>59</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1040">
+        <v>90080</v>
+      </c>
+      <c r="G1040">
+        <v>1</v>
+      </c>
+      <c r="H1040" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1041" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1041">
+        <v>69</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1041" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1041">
+        <v>32051</v>
+      </c>
+      <c r="G1041">
+        <v>1</v>
+      </c>
+      <c r="H1041" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1042" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1042">
+        <v>55</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1042" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1042">
+        <v>39457</v>
+      </c>
+      <c r="G1042">
+        <v>1</v>
+      </c>
+      <c r="H1042" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1043" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1043">
+        <v>13</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1043" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1043">
+        <v>122358</v>
+      </c>
+      <c r="G1043">
+        <v>1</v>
+      </c>
+      <c r="H1043" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1044" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1044">
+        <v>3</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1044" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1044">
+        <v>94076</v>
+      </c>
+      <c r="G1044">
+        <v>1</v>
+      </c>
+      <c r="H1044" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1045" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1045">
+        <v>74</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1045" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1045">
+        <v>31868</v>
+      </c>
+      <c r="G1045">
+        <v>2</v>
+      </c>
+      <c r="H1045" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1046" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1046">
+        <v>61</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1046" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1046">
+        <v>45013</v>
+      </c>
+      <c r="G1046">
+        <v>1</v>
+      </c>
+      <c r="H1046" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1047" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1047">
+        <v>9</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1047" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1047" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1047">
+        <v>61986</v>
+      </c>
+      <c r="G1047">
+        <v>1</v>
+      </c>
+      <c r="H1047" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1048" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1048">
+        <v>60</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1048" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1048">
+        <v>59188</v>
+      </c>
+      <c r="G1048">
+        <v>1</v>
+      </c>
+      <c r="H1048" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1049" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1049">
+        <v>4</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1049" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1049">
+        <v>75235</v>
+      </c>
+      <c r="G1049">
+        <v>2</v>
+      </c>
+      <c r="H1049" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1050" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1050">
+        <v>14</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1050" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1050">
+        <v>101712</v>
+      </c>
+      <c r="G1050">
+        <v>1</v>
+      </c>
+      <c r="H1050" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1051" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1051">
+        <v>76</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1051" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1051">
+        <v>67513</v>
+      </c>
+      <c r="G1051">
+        <v>2</v>
+      </c>
+      <c r="H1051" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1052" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1052">
+        <v>79</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1052" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1052">
+        <v>82288</v>
+      </c>
+      <c r="G1052">
+        <v>2</v>
+      </c>
+      <c r="H1052" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1053" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1053">
+        <v>78</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1053" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1053">
+        <v>28749</v>
+      </c>
+      <c r="G1053">
+        <v>2</v>
+      </c>
+      <c r="H1053" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1054" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1054">
+        <v>77</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1054" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1054">
+        <v>60126</v>
+      </c>
+      <c r="G1054">
+        <v>2</v>
+      </c>
+      <c r="H1054" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1055" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1055">
+        <v>29</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1055" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1055">
+        <v>129544</v>
+      </c>
+      <c r="G1055">
+        <v>1</v>
+      </c>
+      <c r="H1055" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1056" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1056">
+        <v>30</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1056" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1056">
+        <v>22182</v>
+      </c>
+      <c r="G1056">
+        <v>1</v>
+      </c>
+      <c r="H1056" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1057" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1057">
+        <v>73</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1057" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1057">
+        <v>32914</v>
+      </c>
+      <c r="G1057">
+        <v>1</v>
+      </c>
+      <c r="H1057" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1058" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1058">
+        <v>20</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1058" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1058" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1058">
+        <v>110824</v>
+      </c>
+      <c r="G1058">
+        <v>1</v>
+      </c>
+      <c r="H1058" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1059" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1059">
+        <v>36</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1059" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1059">
+        <v>33702</v>
+      </c>
+      <c r="G1059">
+        <v>2</v>
+      </c>
+      <c r="H1059" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1060" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1060">
+        <v>15</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1060" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1060" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1060">
+        <v>72261</v>
+      </c>
+      <c r="G1060">
+        <v>1</v>
+      </c>
+      <c r="H1060" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1061" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1061">
+        <v>1</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1061" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1061" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1061">
+        <v>73466</v>
+      </c>
+      <c r="G1061">
+        <v>1</v>
+      </c>
+      <c r="H1061" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1062" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1062">
+        <v>62</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1062" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1062">
+        <v>74323</v>
+      </c>
+      <c r="G1062">
+        <v>1</v>
+      </c>
+      <c r="H1062" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1063" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1063">
+        <v>49</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1063" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1063" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1063">
+        <v>96338</v>
+      </c>
+      <c r="G1063">
+        <v>1</v>
+      </c>
+      <c r="H1063" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1064" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1064">
+        <v>63</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1064" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1064" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1064">
+        <v>11842</v>
+      </c>
+      <c r="G1064">
+        <v>1</v>
+      </c>
+      <c r="H1064" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1065" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1065">
+        <v>34</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1065" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1065" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1065">
+        <v>110705</v>
+      </c>
+      <c r="G1065">
+        <v>1</v>
+      </c>
+      <c r="H1065" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1066" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1066">
+        <v>27</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1066" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1066" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1066">
+        <v>26356</v>
+      </c>
+      <c r="G1066">
+        <v>1</v>
+      </c>
+      <c r="H1066" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1067" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1067">
+        <v>23</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1067" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1067" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1067">
+        <v>62664</v>
+      </c>
+      <c r="G1067">
+        <v>1</v>
+      </c>
+      <c r="H1067" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1068" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1068">
+        <v>11</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1068" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1068" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1068">
+        <v>161560</v>
+      </c>
+      <c r="G1068">
+        <v>1</v>
+      </c>
+      <c r="H1068" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1069" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1069">
+        <v>47</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1069" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1069" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1069">
+        <v>62554</v>
+      </c>
+      <c r="G1069">
+        <v>1</v>
+      </c>
+      <c r="H1069" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1070" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1070">
+        <v>16</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1070" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1070">
+        <v>139005</v>
+      </c>
+      <c r="G1070">
+        <v>1</v>
+      </c>
+      <c r="H1070" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1071" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1071">
+        <v>45</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1071" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1071">
+        <v>45597</v>
+      </c>
+      <c r="G1071">
+        <v>1</v>
+      </c>
+      <c r="H1071" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1072" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1072">
+        <v>33</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1072" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1072" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1072">
+        <v>65145</v>
+      </c>
+      <c r="G1072">
+        <v>1</v>
+      </c>
+      <c r="H1072" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1073" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1073">
+        <v>39</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1073" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1073" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1073">
+        <v>62803</v>
+      </c>
+      <c r="G1073">
+        <v>1</v>
+      </c>
+      <c r="H1073" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1074" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1074">
+        <v>70</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1074" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1074">
+        <v>21471</v>
+      </c>
+      <c r="G1074">
+        <v>1</v>
+      </c>
+      <c r="H1074" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1075" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1075">
+        <v>46</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1075" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1075" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1075">
+        <v>104914</v>
+      </c>
+      <c r="G1075">
+        <v>2</v>
+      </c>
+      <c r="H1075" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1076" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1076">
+        <v>52</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1076" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1076" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1076">
+        <v>62439</v>
+      </c>
+      <c r="G1076">
+        <v>1</v>
+      </c>
+      <c r="H1076" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1077" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1077">
+        <v>7</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1077" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1077" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1077">
+        <v>175610</v>
+      </c>
+      <c r="G1077">
+        <v>1</v>
+      </c>
+      <c r="H1077" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1078" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1078">
+        <v>40</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1078" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1078" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1078">
+        <v>133980</v>
+      </c>
+      <c r="G1078">
+        <v>1</v>
+      </c>
+      <c r="H1078" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1079" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1079">
+        <v>54</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1079" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1079" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1079">
+        <v>44310</v>
+      </c>
+      <c r="G1079">
+        <v>1</v>
+      </c>
+      <c r="H1079" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1080" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1080">
+        <v>48</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1080" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1080" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1080">
+        <v>39637</v>
+      </c>
+      <c r="G1080">
+        <v>1</v>
+      </c>
+      <c r="H1080" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1081" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1081">
+        <v>2</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1081" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1081" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1081">
+        <v>84159</v>
+      </c>
+      <c r="G1081">
+        <v>1</v>
+      </c>
+      <c r="H1081" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1082" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1082">
+        <v>19</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1082" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1082" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1082">
+        <v>62209</v>
+      </c>
+      <c r="G1082">
+        <v>1</v>
+      </c>
+      <c r="H1082" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1083" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1083">
+        <v>56</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1083" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1083" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1083">
+        <v>56702</v>
+      </c>
+      <c r="G1083">
+        <v>1</v>
+      </c>
+      <c r="H1083" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1084" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1084">
+        <v>35</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1084" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1084" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1084">
+        <v>60519</v>
+      </c>
+      <c r="G1084">
+        <v>1</v>
+      </c>
+      <c r="H1084" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1085" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1085">
+        <v>75</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1085" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1085">
+        <v>51685</v>
+      </c>
+      <c r="G1085">
+        <v>1</v>
+      </c>
+      <c r="H1085" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1086" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1086">
+        <v>12</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1086" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1086" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1086">
+        <v>89832</v>
+      </c>
+      <c r="G1086">
+        <v>1</v>
+      </c>
+      <c r="H1086" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1087" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1087">
+        <v>58</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1087" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1087" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1087">
+        <v>60446</v>
+      </c>
+      <c r="G1087">
+        <v>1</v>
+      </c>
+      <c r="H1087" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1088" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1088">
+        <v>72</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1088" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1088">
+        <v>47105</v>
+      </c>
+      <c r="G1088">
+        <v>1</v>
+      </c>
+      <c r="H1088" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1089" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1089">
+        <v>50</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1089" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1089" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1089">
+        <v>36241</v>
+      </c>
+      <c r="G1089">
+        <v>1</v>
+      </c>
+      <c r="H1089" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1090" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1090">
+        <v>44</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1090" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1090" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1090">
+        <v>22819</v>
+      </c>
+      <c r="G1090">
+        <v>1</v>
+      </c>
+      <c r="H1090" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1091" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1091">
+        <v>21</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1091" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1091">
+        <v>99765</v>
+      </c>
+      <c r="G1091">
+        <v>2</v>
+      </c>
+      <c r="H1091" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1092" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1092">
+        <v>17</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1092" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1092" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1092">
+        <v>53954</v>
+      </c>
+      <c r="G1092">
+        <v>1</v>
+      </c>
+      <c r="H1092" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1093" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1093">
+        <v>38</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1093" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1093" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1093">
+        <v>20532</v>
+      </c>
+      <c r="G1093">
+        <v>2</v>
+      </c>
+      <c r="H1093" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1094" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1094">
+        <v>53</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1094" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1094" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1094">
+        <v>32564</v>
+      </c>
+      <c r="G1094">
+        <v>1</v>
+      </c>
+      <c r="H1094" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1095" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1095">
+        <v>18</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1095" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1095" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1095">
+        <v>70132</v>
+      </c>
+      <c r="G1095">
+        <v>1</v>
+      </c>
+      <c r="H1095" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1096" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1096">
+        <v>10</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1096" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1096" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1096">
+        <v>105353</v>
+      </c>
+      <c r="G1096">
+        <v>1</v>
+      </c>
+      <c r="H1096" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1097" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1097">
+        <v>8</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1097" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1097" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1097">
+        <v>114523</v>
+      </c>
+      <c r="G1097">
+        <v>1</v>
+      </c>
+      <c r="H1097" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1098" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1098">
+        <v>57</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1098" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1098" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1098">
+        <v>132455</v>
+      </c>
+      <c r="G1098">
+        <v>1</v>
+      </c>
+      <c r="H1098" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1099" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1099">
+        <v>6</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1099" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1099">
+        <v>15884</v>
+      </c>
+      <c r="G1099">
+        <v>1</v>
+      </c>
+      <c r="H1099" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1100" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1100">
+        <v>71</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1100" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1100">
+        <v>36180</v>
+      </c>
+      <c r="G1100">
+        <v>1</v>
+      </c>
+      <c r="H1100" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1101" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1101">
+        <v>37</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1101">
+        <v>43473</v>
+      </c>
+      <c r="G1101">
+        <v>1</v>
+      </c>
+      <c r="H1101" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1102" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1102">
+        <v>22</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1102" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1102" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1102">
+        <v>80767</v>
+      </c>
+      <c r="G1102">
+        <v>2</v>
+      </c>
+      <c r="H1102" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1103" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1103">
+        <v>42</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1103" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1103">
+        <v>26153</v>
+      </c>
+      <c r="G1103">
+        <v>1</v>
+      </c>
+      <c r="H1103" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1104" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1104">
+        <v>43</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1104" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1104">
+        <v>46862</v>
+      </c>
+      <c r="G1104">
+        <v>1</v>
+      </c>
+      <c r="H1104" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1105" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1105">
+        <v>26</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1105" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1105" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1105">
+        <v>158043</v>
+      </c>
+      <c r="G1105">
+        <v>1</v>
+      </c>
+      <c r="H1105" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1106" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1106">
+        <v>51</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1106" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1106" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1106">
+        <v>40573</v>
+      </c>
+      <c r="G1106">
+        <v>1</v>
+      </c>
+      <c r="H1106" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1107" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B1107">
+        <v>24</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1107" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1107">
+        <v>68759</v>
+      </c>
+      <c r="G1107">
+        <v>1</v>
+      </c>
+      <c r="H1107" t="s">
         <v>98</v>
       </c>
     </row>
@@ -27439,9 +29493,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27656,19 +29713,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4606366C-CC67-4067-BB57-10E9258263A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C841AB4-9F11-4453-8762-85942E875817}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -27693,9 +29746,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C841AB4-9F11-4453-8762-85942E875817}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4606366C-CC67-4067-BB57-10E9258263A1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/OpenData_Slovakia_CovidAutomat_History.xlsx
+++ b/OpenData_Slovakia_CovidAutomat_History.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{DF98854D-4A74-4BEA-8949-A754D409E20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF146613-C053-4092-95C7-726D5A483212}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{DF98854D-4A74-4BEA-8949-A754D409E20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FF22737-3775-45E8-A2C6-9E4F3E445EBB}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="-110" windowWidth="18350" windowHeight="11020" xr2:uid="{817111DC-07F4-49D8-B88A-F51DD2C39FFE}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{817111DC-07F4-49D8-B88A-F51DD2C39FFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4432" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4748" uniqueCount="100">
   <si>
     <t>Platne od</t>
   </si>
@@ -689,15 +689,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3118A9E1-7AB7-4959-BB1E-0523D5A0DF60}">
-  <dimension ref="A1:H1107"/>
+  <dimension ref="A1:H1186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A1151" workbookViewId="0">
+      <selection activeCell="A1186" sqref="A1186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.8984375" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -29479,6 +29479,2060 @@
         <v>1</v>
       </c>
       <c r="H1107" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1108" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1108">
+        <v>41</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1108">
+        <v>36282</v>
+      </c>
+      <c r="G1108">
+        <v>1</v>
+      </c>
+      <c r="H1108" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1109" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1109">
+        <v>32</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1109" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1109">
+        <v>110829</v>
+      </c>
+      <c r="G1109">
+        <v>1</v>
+      </c>
+      <c r="H1109" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1110" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1110">
+        <v>31</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1110" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1110">
+        <v>16086</v>
+      </c>
+      <c r="G1110">
+        <v>2</v>
+      </c>
+      <c r="H1110" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1111" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1111">
+        <v>5</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1111" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1111" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1111">
+        <v>77771</v>
+      </c>
+      <c r="G1111">
+        <v>2</v>
+      </c>
+      <c r="H1111" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1112" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1112">
+        <v>64</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1112" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1112" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1112">
+        <v>41095</v>
+      </c>
+      <c r="G1112">
+        <v>1</v>
+      </c>
+      <c r="H1112" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1113" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1113">
+        <v>68</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1113" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1113" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1113">
+        <v>115653</v>
+      </c>
+      <c r="G1113">
+        <v>1</v>
+      </c>
+      <c r="H1113" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1114" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1114">
+        <v>67</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1114" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1114">
+        <v>67913</v>
+      </c>
+      <c r="G1114">
+        <v>1</v>
+      </c>
+      <c r="H1114" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1115" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1115">
+        <v>66</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1115" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1115" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1115">
+        <v>97261</v>
+      </c>
+      <c r="G1115">
+        <v>1</v>
+      </c>
+      <c r="H1115" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1116" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1116">
+        <v>65</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1116" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1116" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1116">
+        <v>110942</v>
+      </c>
+      <c r="G1116">
+        <v>1</v>
+      </c>
+      <c r="H1116" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1117" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1117">
+        <v>28</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1117" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1117">
+        <v>61450</v>
+      </c>
+      <c r="G1117">
+        <v>1</v>
+      </c>
+      <c r="H1117" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1118" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1118">
+        <v>25</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1118" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1118" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1118">
+        <v>30917</v>
+      </c>
+      <c r="G1118">
+        <v>1</v>
+      </c>
+      <c r="H1118" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1119" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1119">
+        <v>59</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1119" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1119" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1119">
+        <v>90080</v>
+      </c>
+      <c r="G1119">
+        <v>1</v>
+      </c>
+      <c r="H1119" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1120" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1120">
+        <v>69</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1120" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1120" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1120">
+        <v>32051</v>
+      </c>
+      <c r="G1120">
+        <v>1</v>
+      </c>
+      <c r="H1120" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1121" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1121">
+        <v>55</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1121" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1121" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1121">
+        <v>39457</v>
+      </c>
+      <c r="G1121">
+        <v>1</v>
+      </c>
+      <c r="H1121" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1122" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1122">
+        <v>13</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1122" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1122" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1122">
+        <v>122358</v>
+      </c>
+      <c r="G1122">
+        <v>1</v>
+      </c>
+      <c r="H1122" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1123" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1123">
+        <v>3</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1123" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1123" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1123">
+        <v>94076</v>
+      </c>
+      <c r="G1123">
+        <v>1</v>
+      </c>
+      <c r="H1123" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1124" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1124">
+        <v>74</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1124" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1124" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1124">
+        <v>31868</v>
+      </c>
+      <c r="G1124">
+        <v>2</v>
+      </c>
+      <c r="H1124" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1125" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1125">
+        <v>61</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1125" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1125" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1125">
+        <v>45013</v>
+      </c>
+      <c r="G1125">
+        <v>1</v>
+      </c>
+      <c r="H1125" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1126" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1126">
+        <v>9</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1126" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1126" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1126">
+        <v>61986</v>
+      </c>
+      <c r="G1126">
+        <v>1</v>
+      </c>
+      <c r="H1126" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1127" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1127">
+        <v>60</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1127" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1127">
+        <v>59188</v>
+      </c>
+      <c r="G1127">
+        <v>1</v>
+      </c>
+      <c r="H1127" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1128" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1128">
+        <v>4</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1128" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1128" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1128">
+        <v>75235</v>
+      </c>
+      <c r="G1128">
+        <v>2</v>
+      </c>
+      <c r="H1128" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1129" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1129">
+        <v>14</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1129" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1129" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1129">
+        <v>101712</v>
+      </c>
+      <c r="G1129">
+        <v>1</v>
+      </c>
+      <c r="H1129" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1130" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1130">
+        <v>76</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1130" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1130" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1130">
+        <v>67513</v>
+      </c>
+      <c r="G1130">
+        <v>2</v>
+      </c>
+      <c r="H1130" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1131" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1131">
+        <v>79</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1131" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1131" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1131">
+        <v>82288</v>
+      </c>
+      <c r="G1131">
+        <v>2</v>
+      </c>
+      <c r="H1131" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1132" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1132">
+        <v>78</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1132" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1132" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1132">
+        <v>28749</v>
+      </c>
+      <c r="G1132">
+        <v>2</v>
+      </c>
+      <c r="H1132" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1133" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1133">
+        <v>77</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1133" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1133" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1133">
+        <v>60126</v>
+      </c>
+      <c r="G1133">
+        <v>2</v>
+      </c>
+      <c r="H1133" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1134" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1134">
+        <v>29</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1134" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1134" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1134">
+        <v>129544</v>
+      </c>
+      <c r="G1134">
+        <v>2</v>
+      </c>
+      <c r="H1134" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1135" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1135">
+        <v>30</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1135" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1135" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1135">
+        <v>22182</v>
+      </c>
+      <c r="G1135">
+        <v>1</v>
+      </c>
+      <c r="H1135" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1136" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1136">
+        <v>73</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1136" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1136" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1136">
+        <v>32914</v>
+      </c>
+      <c r="G1136">
+        <v>1</v>
+      </c>
+      <c r="H1136" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1137" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1137">
+        <v>20</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1137" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1137" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1137">
+        <v>110824</v>
+      </c>
+      <c r="G1137">
+        <v>1</v>
+      </c>
+      <c r="H1137" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1138" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1138">
+        <v>36</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1138" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1138" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1138">
+        <v>33702</v>
+      </c>
+      <c r="G1138">
+        <v>2</v>
+      </c>
+      <c r="H1138" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1139" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1139">
+        <v>15</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1139" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1139" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1139">
+        <v>72261</v>
+      </c>
+      <c r="G1139">
+        <v>1</v>
+      </c>
+      <c r="H1139" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1140" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1140">
+        <v>1</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1140" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1140" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1140">
+        <v>73466</v>
+      </c>
+      <c r="G1140">
+        <v>1</v>
+      </c>
+      <c r="H1140" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1141" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1141">
+        <v>62</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1141" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1141" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1141">
+        <v>74323</v>
+      </c>
+      <c r="G1141">
+        <v>1</v>
+      </c>
+      <c r="H1141" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1142" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1142">
+        <v>49</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1142" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1142" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1142">
+        <v>96338</v>
+      </c>
+      <c r="G1142">
+        <v>1</v>
+      </c>
+      <c r="H1142" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1143" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1143">
+        <v>63</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1143" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1143" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1143">
+        <v>11842</v>
+      </c>
+      <c r="G1143">
+        <v>1</v>
+      </c>
+      <c r="H1143" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1144" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1144">
+        <v>34</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1144" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1144" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1144">
+        <v>110705</v>
+      </c>
+      <c r="G1144">
+        <v>1</v>
+      </c>
+      <c r="H1144" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1145" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1145">
+        <v>27</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1145" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1145" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1145">
+        <v>26356</v>
+      </c>
+      <c r="G1145">
+        <v>1</v>
+      </c>
+      <c r="H1145" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1146" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1146">
+        <v>23</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1146" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1146" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1146">
+        <v>62664</v>
+      </c>
+      <c r="G1146">
+        <v>1</v>
+      </c>
+      <c r="H1146" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1147" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1147">
+        <v>11</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1147" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1147" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1147">
+        <v>161560</v>
+      </c>
+      <c r="G1147">
+        <v>1</v>
+      </c>
+      <c r="H1147" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1148" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1148">
+        <v>47</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1148" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1148" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1148">
+        <v>62554</v>
+      </c>
+      <c r="G1148">
+        <v>1</v>
+      </c>
+      <c r="H1148" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1149" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1149">
+        <v>16</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1149" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1149" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1149">
+        <v>139005</v>
+      </c>
+      <c r="G1149">
+        <v>2</v>
+      </c>
+      <c r="H1149" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1150" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1150">
+        <v>45</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1150" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1150" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1150">
+        <v>45597</v>
+      </c>
+      <c r="G1150">
+        <v>1</v>
+      </c>
+      <c r="H1150" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1151" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1151">
+        <v>33</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1151" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1151" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1151">
+        <v>65145</v>
+      </c>
+      <c r="G1151">
+        <v>1</v>
+      </c>
+      <c r="H1151" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1152" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1152">
+        <v>39</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1152" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1152" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1152">
+        <v>62803</v>
+      </c>
+      <c r="G1152">
+        <v>1</v>
+      </c>
+      <c r="H1152" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1153" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1153">
+        <v>70</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1153" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1153" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1153">
+        <v>21471</v>
+      </c>
+      <c r="G1153">
+        <v>1</v>
+      </c>
+      <c r="H1153" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1154" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1154">
+        <v>46</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1154" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1154" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1154">
+        <v>104914</v>
+      </c>
+      <c r="G1154">
+        <v>2</v>
+      </c>
+      <c r="H1154" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1155" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1155">
+        <v>52</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1155" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1155" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1155">
+        <v>62439</v>
+      </c>
+      <c r="G1155">
+        <v>1</v>
+      </c>
+      <c r="H1155" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1156" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1156">
+        <v>7</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1156" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1156" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1156">
+        <v>175610</v>
+      </c>
+      <c r="G1156">
+        <v>1</v>
+      </c>
+      <c r="H1156" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1157" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1157">
+        <v>40</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1157" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1157" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1157">
+        <v>133980</v>
+      </c>
+      <c r="G1157">
+        <v>1</v>
+      </c>
+      <c r="H1157" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1158" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1158">
+        <v>54</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1158" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1158" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1158">
+        <v>44310</v>
+      </c>
+      <c r="G1158">
+        <v>1</v>
+      </c>
+      <c r="H1158" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1159" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1159">
+        <v>48</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1159" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1159" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1159">
+        <v>39637</v>
+      </c>
+      <c r="G1159">
+        <v>1</v>
+      </c>
+      <c r="H1159" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1160" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1160">
+        <v>2</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1160" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1160" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1160">
+        <v>84159</v>
+      </c>
+      <c r="G1160">
+        <v>1</v>
+      </c>
+      <c r="H1160" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1161" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1161">
+        <v>19</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1161" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1161" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1161">
+        <v>62209</v>
+      </c>
+      <c r="G1161">
+        <v>1</v>
+      </c>
+      <c r="H1161" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1162" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1162">
+        <v>56</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1162" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1162" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1162">
+        <v>56702</v>
+      </c>
+      <c r="G1162">
+        <v>1</v>
+      </c>
+      <c r="H1162" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1163" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1163">
+        <v>35</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1163" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1163" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1163">
+        <v>60519</v>
+      </c>
+      <c r="G1163">
+        <v>1</v>
+      </c>
+      <c r="H1163" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1164" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1164">
+        <v>75</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1164" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1164" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1164">
+        <v>51685</v>
+      </c>
+      <c r="G1164">
+        <v>1</v>
+      </c>
+      <c r="H1164" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1165" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1165">
+        <v>12</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1165" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1165">
+        <v>89832</v>
+      </c>
+      <c r="G1165">
+        <v>1</v>
+      </c>
+      <c r="H1165" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1166" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1166">
+        <v>58</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1166" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1166" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1166">
+        <v>60446</v>
+      </c>
+      <c r="G1166">
+        <v>1</v>
+      </c>
+      <c r="H1166" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1167" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1167">
+        <v>72</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1167" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1167" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1167">
+        <v>47105</v>
+      </c>
+      <c r="G1167">
+        <v>1</v>
+      </c>
+      <c r="H1167" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1168" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1168">
+        <v>50</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1168" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1168" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1168">
+        <v>36241</v>
+      </c>
+      <c r="G1168">
+        <v>1</v>
+      </c>
+      <c r="H1168" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1169" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1169">
+        <v>44</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1169" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1169" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1169">
+        <v>22819</v>
+      </c>
+      <c r="G1169">
+        <v>1</v>
+      </c>
+      <c r="H1169" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1170" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1170">
+        <v>21</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1170" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1170" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1170">
+        <v>99765</v>
+      </c>
+      <c r="G1170">
+        <v>1</v>
+      </c>
+      <c r="H1170" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1171" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1171">
+        <v>17</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1171" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1171" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1171">
+        <v>53954</v>
+      </c>
+      <c r="G1171">
+        <v>1</v>
+      </c>
+      <c r="H1171" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1172" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1172">
+        <v>38</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1172" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1172" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1172">
+        <v>20532</v>
+      </c>
+      <c r="G1172">
+        <v>1</v>
+      </c>
+      <c r="H1172" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1173" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1173">
+        <v>53</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1173" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1173" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1173">
+        <v>32564</v>
+      </c>
+      <c r="G1173">
+        <v>1</v>
+      </c>
+      <c r="H1173" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1174" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1174">
+        <v>18</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1174" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1174" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1174">
+        <v>70132</v>
+      </c>
+      <c r="G1174">
+        <v>1</v>
+      </c>
+      <c r="H1174" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1175" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1175">
+        <v>10</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1175" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1175" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1175">
+        <v>105353</v>
+      </c>
+      <c r="G1175">
+        <v>1</v>
+      </c>
+      <c r="H1175" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1176" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1176">
+        <v>8</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1176" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1176" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1176">
+        <v>114523</v>
+      </c>
+      <c r="G1176">
+        <v>1</v>
+      </c>
+      <c r="H1176" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1177" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1177">
+        <v>57</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1177" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1177" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1177">
+        <v>132455</v>
+      </c>
+      <c r="G1177">
+        <v>1</v>
+      </c>
+      <c r="H1177" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1178" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1178">
+        <v>6</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1178" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1178" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1178">
+        <v>15884</v>
+      </c>
+      <c r="G1178">
+        <v>1</v>
+      </c>
+      <c r="H1178" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1179" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1179">
+        <v>71</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1179" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1179" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1179">
+        <v>36180</v>
+      </c>
+      <c r="G1179">
+        <v>1</v>
+      </c>
+      <c r="H1179" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1180" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1180">
+        <v>37</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1180" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1180" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1180">
+        <v>43473</v>
+      </c>
+      <c r="G1180">
+        <v>1</v>
+      </c>
+      <c r="H1180" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1181" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1181">
+        <v>22</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1181" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1181" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1181">
+        <v>80767</v>
+      </c>
+      <c r="G1181">
+        <v>2</v>
+      </c>
+      <c r="H1181" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1182" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1182">
+        <v>42</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1182" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1182" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1182">
+        <v>26153</v>
+      </c>
+      <c r="G1182">
+        <v>1</v>
+      </c>
+      <c r="H1182" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1183" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1183">
+        <v>43</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1183" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1183" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1183">
+        <v>46862</v>
+      </c>
+      <c r="G1183">
+        <v>2</v>
+      </c>
+      <c r="H1183" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1184" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1184">
+        <v>26</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1184" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1184" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1184">
+        <v>158043</v>
+      </c>
+      <c r="G1184">
+        <v>1</v>
+      </c>
+      <c r="H1184" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1185" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1185">
+        <v>51</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1185" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1185" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1185">
+        <v>40573</v>
+      </c>
+      <c r="G1185">
+        <v>1</v>
+      </c>
+      <c r="H1185" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1186" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B1186">
+        <v>24</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1186" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1186" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1186">
+        <v>68759</v>
+      </c>
+      <c r="G1186">
+        <v>1</v>
+      </c>
+      <c r="H1186" t="s">
         <v>98</v>
       </c>
     </row>
@@ -29493,15 +31547,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -29712,6 +31757,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -29719,14 +31773,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C841AB4-9F11-4453-8762-85942E875817}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5280295C-2A2C-48C4-AC9E-9766062C4F31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29745,6 +31791,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C841AB4-9F11-4453-8762-85942E875817}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4606366C-CC67-4067-BB57-10E9258263A1}">
   <ds:schemaRefs>

--- a/OpenData_Slovakia_CovidAutomat_History.xlsx
+++ b/OpenData_Slovakia_CovidAutomat_History.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{DF98854D-4A74-4BEA-8949-A754D409E20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FF22737-3775-45E8-A2C6-9E4F3E445EBB}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{DF98854D-4A74-4BEA-8949-A754D409E20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7306F3E-2C03-4BDA-B136-027C4ED61C9D}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{817111DC-07F4-49D8-B88A-F51DD2C39FFE}"/>
+    <workbookView xWindow="960" yWindow="-110" windowWidth="18350" windowHeight="11020" xr2:uid="{817111DC-07F4-49D8-B88A-F51DD2C39FFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4748" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5064" uniqueCount="100">
   <si>
     <t>Platne od</t>
   </si>
@@ -689,15 +689,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3118A9E1-7AB7-4959-BB1E-0523D5A0DF60}">
-  <dimension ref="A1:H1186"/>
+  <dimension ref="A1:H1265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1151" workbookViewId="0">
-      <selection activeCell="A1186" sqref="A1186"/>
+    <sheetView tabSelected="1" topLeftCell="A1164" workbookViewId="0">
+      <selection activeCell="B1177" sqref="B1177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="8.8984375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -31533,6 +31533,2060 @@
         <v>1</v>
       </c>
       <c r="H1186" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1187" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1187">
+        <v>41</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1187" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1187" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1187">
+        <v>36282</v>
+      </c>
+      <c r="G1187">
+        <v>2</v>
+      </c>
+      <c r="H1187" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1188" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1188">
+        <v>32</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1188" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1188" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1188">
+        <v>110829</v>
+      </c>
+      <c r="G1188">
+        <v>1</v>
+      </c>
+      <c r="H1188" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1189" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1189">
+        <v>31</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1189" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1189" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1189">
+        <v>16086</v>
+      </c>
+      <c r="G1189">
+        <v>1</v>
+      </c>
+      <c r="H1189" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1190" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1190">
+        <v>5</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1190" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1190" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1190">
+        <v>77771</v>
+      </c>
+      <c r="G1190">
+        <v>2</v>
+      </c>
+      <c r="H1190" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1191" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1191">
+        <v>64</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1191" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1191" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1191">
+        <v>41095</v>
+      </c>
+      <c r="G1191">
+        <v>1</v>
+      </c>
+      <c r="H1191" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1192" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1192">
+        <v>68</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1192" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1192" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1192">
+        <v>115653</v>
+      </c>
+      <c r="G1192">
+        <v>1</v>
+      </c>
+      <c r="H1192" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1193" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1193">
+        <v>67</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1193" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1193" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1193">
+        <v>67913</v>
+      </c>
+      <c r="G1193">
+        <v>1</v>
+      </c>
+      <c r="H1193" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1194" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1194">
+        <v>66</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1194" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1194" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1194">
+        <v>97261</v>
+      </c>
+      <c r="G1194">
+        <v>1</v>
+      </c>
+      <c r="H1194" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1195" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1195">
+        <v>65</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1195" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1195" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1195">
+        <v>110942</v>
+      </c>
+      <c r="G1195">
+        <v>1</v>
+      </c>
+      <c r="H1195" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1196" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1196">
+        <v>28</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1196" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1196" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1196">
+        <v>61450</v>
+      </c>
+      <c r="G1196">
+        <v>2</v>
+      </c>
+      <c r="H1196" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1197" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1197">
+        <v>25</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1197" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1197" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1197">
+        <v>30917</v>
+      </c>
+      <c r="G1197">
+        <v>2</v>
+      </c>
+      <c r="H1197" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1198" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1198">
+        <v>59</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1198" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1198" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1198">
+        <v>90080</v>
+      </c>
+      <c r="G1198">
+        <v>1</v>
+      </c>
+      <c r="H1198" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1199" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1199">
+        <v>69</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1199" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1199" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1199">
+        <v>32051</v>
+      </c>
+      <c r="G1199">
+        <v>1</v>
+      </c>
+      <c r="H1199" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1200" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1200">
+        <v>55</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1200" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1200" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1200">
+        <v>39457</v>
+      </c>
+      <c r="G1200">
+        <v>2</v>
+      </c>
+      <c r="H1200" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1201" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1201">
+        <v>13</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1201" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1201" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1201">
+        <v>122358</v>
+      </c>
+      <c r="G1201">
+        <v>1</v>
+      </c>
+      <c r="H1201" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1202" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1202">
+        <v>3</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1202" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1202" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1202">
+        <v>94076</v>
+      </c>
+      <c r="G1202">
+        <v>1</v>
+      </c>
+      <c r="H1202" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1203" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1203">
+        <v>74</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1203" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1203" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1203">
+        <v>31868</v>
+      </c>
+      <c r="G1203">
+        <v>2</v>
+      </c>
+      <c r="H1203" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1204" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1204">
+        <v>61</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1204" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1204" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1204">
+        <v>45013</v>
+      </c>
+      <c r="G1204">
+        <v>1</v>
+      </c>
+      <c r="H1204" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1205" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1205">
+        <v>9</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1205" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1205" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1205">
+        <v>61986</v>
+      </c>
+      <c r="G1205">
+        <v>1</v>
+      </c>
+      <c r="H1205" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1206" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1206">
+        <v>60</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1206" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1206" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1206">
+        <v>59188</v>
+      </c>
+      <c r="G1206">
+        <v>2</v>
+      </c>
+      <c r="H1206" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1207" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1207">
+        <v>4</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1207" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1207" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1207">
+        <v>75235</v>
+      </c>
+      <c r="G1207">
+        <v>2</v>
+      </c>
+      <c r="H1207" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1208" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1208">
+        <v>14</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1208" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1208" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1208">
+        <v>101712</v>
+      </c>
+      <c r="G1208">
+        <v>1</v>
+      </c>
+      <c r="H1208" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1209" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1209">
+        <v>76</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1209" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1209" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1209">
+        <v>67513</v>
+      </c>
+      <c r="G1209">
+        <v>2</v>
+      </c>
+      <c r="H1209" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1210" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1210">
+        <v>79</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1210" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1210" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1210">
+        <v>82288</v>
+      </c>
+      <c r="G1210">
+        <v>2</v>
+      </c>
+      <c r="H1210" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1211" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1211">
+        <v>78</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1211" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1211" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1211">
+        <v>28749</v>
+      </c>
+      <c r="G1211">
+        <v>2</v>
+      </c>
+      <c r="H1211" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1212" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1212">
+        <v>77</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1212" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1212" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1212">
+        <v>60126</v>
+      </c>
+      <c r="G1212">
+        <v>2</v>
+      </c>
+      <c r="H1212" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1213" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1213">
+        <v>29</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1213" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1213" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1213">
+        <v>129544</v>
+      </c>
+      <c r="G1213">
+        <v>2</v>
+      </c>
+      <c r="H1213" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1214" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1214">
+        <v>30</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1214" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1214" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1214">
+        <v>22182</v>
+      </c>
+      <c r="G1214">
+        <v>1</v>
+      </c>
+      <c r="H1214" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1215" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1215">
+        <v>73</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1215" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1215" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1215">
+        <v>32914</v>
+      </c>
+      <c r="G1215">
+        <v>2</v>
+      </c>
+      <c r="H1215" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1216" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1216">
+        <v>20</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1216" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1216" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1216">
+        <v>110824</v>
+      </c>
+      <c r="G1216">
+        <v>1</v>
+      </c>
+      <c r="H1216" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1217" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1217">
+        <v>36</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1217" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1217" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1217">
+        <v>33702</v>
+      </c>
+      <c r="G1217">
+        <v>1</v>
+      </c>
+      <c r="H1217" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1218" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1218">
+        <v>15</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1218" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1218" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1218">
+        <v>72261</v>
+      </c>
+      <c r="G1218">
+        <v>1</v>
+      </c>
+      <c r="H1218" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1219" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1219">
+        <v>1</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1219" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1219" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1219">
+        <v>73466</v>
+      </c>
+      <c r="G1219">
+        <v>1</v>
+      </c>
+      <c r="H1219" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1220" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1220">
+        <v>62</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1220" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1220" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1220">
+        <v>74323</v>
+      </c>
+      <c r="G1220">
+        <v>1</v>
+      </c>
+      <c r="H1220" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1221" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1221">
+        <v>49</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1221" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1221" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1221">
+        <v>96338</v>
+      </c>
+      <c r="G1221">
+        <v>1</v>
+      </c>
+      <c r="H1221" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1222" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1222">
+        <v>63</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1222" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1222" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1222">
+        <v>11842</v>
+      </c>
+      <c r="G1222">
+        <v>1</v>
+      </c>
+      <c r="H1222" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1223" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1223">
+        <v>34</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1223" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1223" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1223">
+        <v>110705</v>
+      </c>
+      <c r="G1223">
+        <v>1</v>
+      </c>
+      <c r="H1223" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1224" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1224">
+        <v>27</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1224" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1224" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1224">
+        <v>26356</v>
+      </c>
+      <c r="G1224">
+        <v>1</v>
+      </c>
+      <c r="H1224" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1225" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1225">
+        <v>23</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1225" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1225" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1225">
+        <v>62664</v>
+      </c>
+      <c r="G1225">
+        <v>1</v>
+      </c>
+      <c r="H1225" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1226" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1226">
+        <v>11</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1226" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1226" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1226">
+        <v>161560</v>
+      </c>
+      <c r="G1226">
+        <v>1</v>
+      </c>
+      <c r="H1226" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1227" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1227">
+        <v>47</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1227" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1227" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1227">
+        <v>62554</v>
+      </c>
+      <c r="G1227">
+        <v>2</v>
+      </c>
+      <c r="H1227" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1228" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1228">
+        <v>16</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1228" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1228" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1228">
+        <v>139005</v>
+      </c>
+      <c r="G1228">
+        <v>2</v>
+      </c>
+      <c r="H1228" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1229" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1229">
+        <v>45</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1229" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1229" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1229">
+        <v>45597</v>
+      </c>
+      <c r="G1229">
+        <v>1</v>
+      </c>
+      <c r="H1229" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1230" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1230">
+        <v>33</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1230" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1230" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1230">
+        <v>65145</v>
+      </c>
+      <c r="G1230">
+        <v>1</v>
+      </c>
+      <c r="H1230" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1231" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1231">
+        <v>39</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1231" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1231" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1231">
+        <v>62803</v>
+      </c>
+      <c r="G1231">
+        <v>1</v>
+      </c>
+      <c r="H1231" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1232" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1232">
+        <v>70</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1232" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1232" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1232">
+        <v>21471</v>
+      </c>
+      <c r="G1232">
+        <v>1</v>
+      </c>
+      <c r="H1232" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1233" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1233">
+        <v>46</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1233" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1233" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1233">
+        <v>104914</v>
+      </c>
+      <c r="G1233">
+        <v>2</v>
+      </c>
+      <c r="H1233" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1234" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1234">
+        <v>52</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1234" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1234" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1234">
+        <v>62439</v>
+      </c>
+      <c r="G1234">
+        <v>1</v>
+      </c>
+      <c r="H1234" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1235" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1235">
+        <v>7</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1235" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1235" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1235">
+        <v>175610</v>
+      </c>
+      <c r="G1235">
+        <v>1</v>
+      </c>
+      <c r="H1235" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1236" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1236">
+        <v>40</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1236" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1236" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1236">
+        <v>133980</v>
+      </c>
+      <c r="G1236">
+        <v>1</v>
+      </c>
+      <c r="H1236" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1237" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1237">
+        <v>54</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1237" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1237" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1237">
+        <v>44310</v>
+      </c>
+      <c r="G1237">
+        <v>1</v>
+      </c>
+      <c r="H1237" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1238" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1238">
+        <v>48</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1238" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1238" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1238">
+        <v>39637</v>
+      </c>
+      <c r="G1238">
+        <v>1</v>
+      </c>
+      <c r="H1238" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1239" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1239">
+        <v>2</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1239" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1239" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1239">
+        <v>84159</v>
+      </c>
+      <c r="G1239">
+        <v>1</v>
+      </c>
+      <c r="H1239" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1240" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1240">
+        <v>19</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1240" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1240" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1240">
+        <v>62209</v>
+      </c>
+      <c r="G1240">
+        <v>2</v>
+      </c>
+      <c r="H1240" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1241" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1241">
+        <v>56</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1241" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1241" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1241">
+        <v>56702</v>
+      </c>
+      <c r="G1241">
+        <v>1</v>
+      </c>
+      <c r="H1241" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1242" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1242">
+        <v>35</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1242" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1242" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1242">
+        <v>60519</v>
+      </c>
+      <c r="G1242">
+        <v>1</v>
+      </c>
+      <c r="H1242" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1243" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1243">
+        <v>75</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1243" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1243" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1243">
+        <v>51685</v>
+      </c>
+      <c r="G1243">
+        <v>1</v>
+      </c>
+      <c r="H1243" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1244" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1244">
+        <v>12</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1244" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1244" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1244">
+        <v>89832</v>
+      </c>
+      <c r="G1244">
+        <v>1</v>
+      </c>
+      <c r="H1244" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1245" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1245">
+        <v>58</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1245" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1245" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1245">
+        <v>60446</v>
+      </c>
+      <c r="G1245">
+        <v>1</v>
+      </c>
+      <c r="H1245" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1246" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1246">
+        <v>72</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1246" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1246" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1246">
+        <v>47105</v>
+      </c>
+      <c r="G1246">
+        <v>1</v>
+      </c>
+      <c r="H1246" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1247" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1247">
+        <v>50</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1247" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1247" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1247">
+        <v>36241</v>
+      </c>
+      <c r="G1247">
+        <v>1</v>
+      </c>
+      <c r="H1247" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1248" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1248">
+        <v>44</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1248" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1248" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1248">
+        <v>22819</v>
+      </c>
+      <c r="G1248">
+        <v>1</v>
+      </c>
+      <c r="H1248" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1249" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1249">
+        <v>21</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1249" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1249" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1249">
+        <v>99765</v>
+      </c>
+      <c r="G1249">
+        <v>1</v>
+      </c>
+      <c r="H1249" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1250" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1250">
+        <v>17</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1250" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1250" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1250">
+        <v>53954</v>
+      </c>
+      <c r="G1250">
+        <v>1</v>
+      </c>
+      <c r="H1250" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1251" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1251">
+        <v>38</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1251" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1251" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1251">
+        <v>20532</v>
+      </c>
+      <c r="G1251">
+        <v>1</v>
+      </c>
+      <c r="H1251" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1252" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1252">
+        <v>53</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1252" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1252" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1252">
+        <v>32564</v>
+      </c>
+      <c r="G1252">
+        <v>1</v>
+      </c>
+      <c r="H1252" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1253" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1253">
+        <v>18</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1253" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1253" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1253">
+        <v>70132</v>
+      </c>
+      <c r="G1253">
+        <v>1</v>
+      </c>
+      <c r="H1253" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1254" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1254">
+        <v>10</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1254" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1254" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1254">
+        <v>105353</v>
+      </c>
+      <c r="G1254">
+        <v>2</v>
+      </c>
+      <c r="H1254" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1255" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1255">
+        <v>8</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1255" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1255" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1255">
+        <v>114523</v>
+      </c>
+      <c r="G1255">
+        <v>2</v>
+      </c>
+      <c r="H1255" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1256" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1256">
+        <v>57</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1256" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1256" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1256">
+        <v>132455</v>
+      </c>
+      <c r="G1256">
+        <v>1</v>
+      </c>
+      <c r="H1256" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1257" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1257">
+        <v>6</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1257" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1257" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1257">
+        <v>15884</v>
+      </c>
+      <c r="G1257">
+        <v>1</v>
+      </c>
+      <c r="H1257" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1258" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1258">
+        <v>71</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1258" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1258" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1258">
+        <v>36180</v>
+      </c>
+      <c r="G1258">
+        <v>2</v>
+      </c>
+      <c r="H1258" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1259" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1259">
+        <v>37</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1259" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1259" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1259">
+        <v>43473</v>
+      </c>
+      <c r="G1259">
+        <v>1</v>
+      </c>
+      <c r="H1259" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1260" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1260">
+        <v>22</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1260" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1260" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1260">
+        <v>80767</v>
+      </c>
+      <c r="G1260">
+        <v>2</v>
+      </c>
+      <c r="H1260" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1261" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1261">
+        <v>42</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1261" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1261" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1261">
+        <v>26153</v>
+      </c>
+      <c r="G1261">
+        <v>1</v>
+      </c>
+      <c r="H1261" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1262" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1262">
+        <v>43</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1262" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1262" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1262">
+        <v>46862</v>
+      </c>
+      <c r="G1262">
+        <v>2</v>
+      </c>
+      <c r="H1262" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1263" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1263">
+        <v>26</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1263" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1263" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1263">
+        <v>158043</v>
+      </c>
+      <c r="G1263">
+        <v>1</v>
+      </c>
+      <c r="H1263" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1264" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1264">
+        <v>51</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1264" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1264" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1264">
+        <v>40573</v>
+      </c>
+      <c r="G1264">
+        <v>1</v>
+      </c>
+      <c r="H1264" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1265" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B1265">
+        <v>24</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1265" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1265" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1265">
+        <v>68759</v>
+      </c>
+      <c r="G1265">
+        <v>1</v>
+      </c>
+      <c r="H1265" t="s">
         <v>98</v>
       </c>
     </row>
@@ -31547,6 +33601,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -31757,22 +33826,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4606366C-CC67-4067-BB57-10E9258263A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C841AB4-9F11-4453-8762-85942E875817}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5280295C-2A2C-48C4-AC9E-9766062C4F31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31789,21 +33860,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C841AB4-9F11-4453-8762-85942E875817}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4606366C-CC67-4067-BB57-10E9258263A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/OpenData_Slovakia_CovidAutomat_History.xlsx
+++ b/OpenData_Slovakia_CovidAutomat_History.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{DF98854D-4A74-4BEA-8949-A754D409E20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7306F3E-2C03-4BDA-B136-027C4ED61C9D}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{DF98854D-4A74-4BEA-8949-A754D409E20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BEC373B-9FFE-46EF-8DDB-42B7AAB2C459}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="-110" windowWidth="18350" windowHeight="11020" xr2:uid="{817111DC-07F4-49D8-B88A-F51DD2C39FFE}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{817111DC-07F4-49D8-B88A-F51DD2C39FFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5064" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5380" uniqueCount="100">
   <si>
     <t>Platne od</t>
   </si>
@@ -689,15 +689,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3118A9E1-7AB7-4959-BB1E-0523D5A0DF60}">
-  <dimension ref="A1:H1265"/>
+  <dimension ref="A1:H1344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1164" workbookViewId="0">
-      <selection activeCell="B1177" sqref="B1177"/>
+    <sheetView tabSelected="1" topLeftCell="A1293" workbookViewId="0">
+      <selection activeCell="A1319" sqref="A1319"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.8984375" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -33587,6 +33587,2060 @@
         <v>1</v>
       </c>
       <c r="H1265" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1266" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1266">
+        <v>41</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1266" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1266" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1266">
+        <v>36282</v>
+      </c>
+      <c r="G1266">
+        <v>2</v>
+      </c>
+      <c r="H1266" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1267" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1267">
+        <v>32</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1267" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1267" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1267">
+        <v>110829</v>
+      </c>
+      <c r="G1267">
+        <v>2</v>
+      </c>
+      <c r="H1267" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1268" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1268">
+        <v>31</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1268" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1268" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1268">
+        <v>16086</v>
+      </c>
+      <c r="G1268">
+        <v>2</v>
+      </c>
+      <c r="H1268" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1269" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1269">
+        <v>5</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1269" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1269" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1269">
+        <v>77771</v>
+      </c>
+      <c r="G1269">
+        <v>2</v>
+      </c>
+      <c r="H1269" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1270" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1270">
+        <v>64</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1270" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1270" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1270">
+        <v>41095</v>
+      </c>
+      <c r="G1270">
+        <v>1</v>
+      </c>
+      <c r="H1270" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1271" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1271">
+        <v>68</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1271" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1271" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1271">
+        <v>115653</v>
+      </c>
+      <c r="G1271">
+        <v>1</v>
+      </c>
+      <c r="H1271" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1272" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1272">
+        <v>67</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1272" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1272" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1272">
+        <v>67913</v>
+      </c>
+      <c r="G1272">
+        <v>1</v>
+      </c>
+      <c r="H1272" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1273" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1273">
+        <v>66</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1273" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1273" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1273">
+        <v>97261</v>
+      </c>
+      <c r="G1273">
+        <v>1</v>
+      </c>
+      <c r="H1273" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1274" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1274">
+        <v>65</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1274" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1274" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1274">
+        <v>110942</v>
+      </c>
+      <c r="G1274">
+        <v>1</v>
+      </c>
+      <c r="H1274" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1275" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1275">
+        <v>28</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1275" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1275" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1275">
+        <v>61450</v>
+      </c>
+      <c r="G1275">
+        <v>2</v>
+      </c>
+      <c r="H1275" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1276" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1276">
+        <v>25</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1276" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1276" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1276">
+        <v>30917</v>
+      </c>
+      <c r="G1276">
+        <v>3</v>
+      </c>
+      <c r="H1276" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1277" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1277">
+        <v>59</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1277" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1277" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1277">
+        <v>90080</v>
+      </c>
+      <c r="G1277">
+        <v>2</v>
+      </c>
+      <c r="H1277" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1278" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1278">
+        <v>69</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1278" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1278" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1278">
+        <v>32051</v>
+      </c>
+      <c r="G1278">
+        <v>2</v>
+      </c>
+      <c r="H1278" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1279" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1279">
+        <v>55</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1279" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1279" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1279">
+        <v>39457</v>
+      </c>
+      <c r="G1279">
+        <v>2</v>
+      </c>
+      <c r="H1279" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1280" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1280">
+        <v>13</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1280" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1280" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1280">
+        <v>122358</v>
+      </c>
+      <c r="G1280">
+        <v>1</v>
+      </c>
+      <c r="H1280" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1281" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1281">
+        <v>3</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1281" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1281" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1281">
+        <v>94076</v>
+      </c>
+      <c r="G1281">
+        <v>1</v>
+      </c>
+      <c r="H1281" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1282" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1282">
+        <v>74</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1282" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1282" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1282">
+        <v>31868</v>
+      </c>
+      <c r="G1282">
+        <v>2</v>
+      </c>
+      <c r="H1282" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1283" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1283">
+        <v>61</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1283" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1283" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1283">
+        <v>45013</v>
+      </c>
+      <c r="G1283">
+        <v>1</v>
+      </c>
+      <c r="H1283" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1284" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1284">
+        <v>9</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1284" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1284" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1284">
+        <v>61986</v>
+      </c>
+      <c r="G1284">
+        <v>1</v>
+      </c>
+      <c r="H1284" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1285" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1285">
+        <v>60</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1285" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1285" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1285">
+        <v>59188</v>
+      </c>
+      <c r="G1285">
+        <v>2</v>
+      </c>
+      <c r="H1285" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1286" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1286">
+        <v>4</v>
+      </c>
+      <c r="C1286" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1286" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1286" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1286">
+        <v>75235</v>
+      </c>
+      <c r="G1286">
+        <v>2</v>
+      </c>
+      <c r="H1286" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1287" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1287">
+        <v>14</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1287" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1287" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1287">
+        <v>101712</v>
+      </c>
+      <c r="G1287">
+        <v>1</v>
+      </c>
+      <c r="H1287" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1288" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1288">
+        <v>76</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1288" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1288" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1288">
+        <v>67513</v>
+      </c>
+      <c r="G1288">
+        <v>3</v>
+      </c>
+      <c r="H1288" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1289" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1289">
+        <v>79</v>
+      </c>
+      <c r="C1289" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1289" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1289" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1289">
+        <v>82288</v>
+      </c>
+      <c r="G1289">
+        <v>3</v>
+      </c>
+      <c r="H1289" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1290" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1290">
+        <v>78</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1290" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1290" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1290">
+        <v>28749</v>
+      </c>
+      <c r="G1290">
+        <v>3</v>
+      </c>
+      <c r="H1290" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1291" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1291">
+        <v>77</v>
+      </c>
+      <c r="C1291" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1291" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1291" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1291">
+        <v>60126</v>
+      </c>
+      <c r="G1291">
+        <v>3</v>
+      </c>
+      <c r="H1291" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1292" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1292">
+        <v>29</v>
+      </c>
+      <c r="C1292" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1292" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1292" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1292">
+        <v>129544</v>
+      </c>
+      <c r="G1292">
+        <v>2</v>
+      </c>
+      <c r="H1292" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1293" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1293">
+        <v>30</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1293" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1293" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1293">
+        <v>22182</v>
+      </c>
+      <c r="G1293">
+        <v>3</v>
+      </c>
+      <c r="H1293" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1294" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1294">
+        <v>73</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1294" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1294" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1294">
+        <v>32914</v>
+      </c>
+      <c r="G1294">
+        <v>2</v>
+      </c>
+      <c r="H1294" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1295" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1295">
+        <v>20</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1295" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1295" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1295">
+        <v>110824</v>
+      </c>
+      <c r="G1295">
+        <v>2</v>
+      </c>
+      <c r="H1295" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1296" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1296">
+        <v>36</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1296" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1296" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1296">
+        <v>33702</v>
+      </c>
+      <c r="G1296">
+        <v>2</v>
+      </c>
+      <c r="H1296" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1297" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1297">
+        <v>15</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1297" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1297" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1297">
+        <v>72261</v>
+      </c>
+      <c r="G1297">
+        <v>2</v>
+      </c>
+      <c r="H1297" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1298" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1298">
+        <v>1</v>
+      </c>
+      <c r="C1298" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1298" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1298" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1298">
+        <v>73466</v>
+      </c>
+      <c r="G1298">
+        <v>2</v>
+      </c>
+      <c r="H1298" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1299" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1299">
+        <v>62</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1299" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1299" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1299">
+        <v>74323</v>
+      </c>
+      <c r="G1299">
+        <v>1</v>
+      </c>
+      <c r="H1299" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1300" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1300">
+        <v>49</v>
+      </c>
+      <c r="C1300" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1300" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1300" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1300">
+        <v>96338</v>
+      </c>
+      <c r="G1300">
+        <v>2</v>
+      </c>
+      <c r="H1300" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1301" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1301">
+        <v>63</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1301" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1301" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1301">
+        <v>11842</v>
+      </c>
+      <c r="G1301">
+        <v>1</v>
+      </c>
+      <c r="H1301" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1302" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1302">
+        <v>34</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1302" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1302" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1302">
+        <v>110705</v>
+      </c>
+      <c r="G1302">
+        <v>2</v>
+      </c>
+      <c r="H1302" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1303" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1303">
+        <v>27</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1303" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1303" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1303">
+        <v>26356</v>
+      </c>
+      <c r="G1303">
+        <v>2</v>
+      </c>
+      <c r="H1303" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1304" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1304">
+        <v>23</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1304" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1304" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1304">
+        <v>62664</v>
+      </c>
+      <c r="G1304">
+        <v>1</v>
+      </c>
+      <c r="H1304" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1305" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1305">
+        <v>11</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1305" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1305" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1305">
+        <v>161560</v>
+      </c>
+      <c r="G1305">
+        <v>2</v>
+      </c>
+      <c r="H1305" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1306" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1306">
+        <v>47</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1306" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1306" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1306">
+        <v>62554</v>
+      </c>
+      <c r="G1306">
+        <v>2</v>
+      </c>
+      <c r="H1306" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1307" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1307">
+        <v>16</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1307" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1307" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1307">
+        <v>139005</v>
+      </c>
+      <c r="G1307">
+        <v>1</v>
+      </c>
+      <c r="H1307" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1308" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1308">
+        <v>45</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1308" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1308" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1308">
+        <v>45597</v>
+      </c>
+      <c r="G1308">
+        <v>2</v>
+      </c>
+      <c r="H1308" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1309" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1309">
+        <v>33</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1309" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1309" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1309">
+        <v>65145</v>
+      </c>
+      <c r="G1309">
+        <v>1</v>
+      </c>
+      <c r="H1309" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1310" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1310">
+        <v>39</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1310" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1310" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1310">
+        <v>62803</v>
+      </c>
+      <c r="G1310">
+        <v>2</v>
+      </c>
+      <c r="H1310" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1311" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1311">
+        <v>70</v>
+      </c>
+      <c r="C1311" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1311" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1311" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1311">
+        <v>21471</v>
+      </c>
+      <c r="G1311">
+        <v>1</v>
+      </c>
+      <c r="H1311" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1312" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1312">
+        <v>46</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1312" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1312" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1312">
+        <v>104914</v>
+      </c>
+      <c r="G1312">
+        <v>3</v>
+      </c>
+      <c r="H1312" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1313" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1313">
+        <v>52</v>
+      </c>
+      <c r="C1313" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1313" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1313" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1313">
+        <v>62439</v>
+      </c>
+      <c r="G1313">
+        <v>2</v>
+      </c>
+      <c r="H1313" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1314" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1314">
+        <v>7</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1314" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1314" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1314">
+        <v>175610</v>
+      </c>
+      <c r="G1314">
+        <v>2</v>
+      </c>
+      <c r="H1314" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1315" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1315">
+        <v>40</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1315" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1315" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1315">
+        <v>133980</v>
+      </c>
+      <c r="G1315">
+        <v>2</v>
+      </c>
+      <c r="H1315" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1316" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1316">
+        <v>54</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1316" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1316" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1316">
+        <v>44310</v>
+      </c>
+      <c r="G1316">
+        <v>1</v>
+      </c>
+      <c r="H1316" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1317" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1317">
+        <v>48</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1317" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1317" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1317">
+        <v>39637</v>
+      </c>
+      <c r="G1317">
+        <v>2</v>
+      </c>
+      <c r="H1317" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1318" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1318">
+        <v>2</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1318" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1318" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1318">
+        <v>84159</v>
+      </c>
+      <c r="G1318">
+        <v>2</v>
+      </c>
+      <c r="H1318" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1319" s="1">
+        <v>44448</v>
+      </c>
+      <c r="B1319">
+        <v>19</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1319" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1319" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1319">
+        <v>62209</v>
+      </c>
+      <c r="G1319">
+        <v>3</v>
+      </c>
+      <c r="H1319" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1320" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1320">
+        <v>56</v>
+      </c>
+      <c r="C1320" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1320" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1320" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1320">
+        <v>56702</v>
+      </c>
+      <c r="G1320">
+        <v>1</v>
+      </c>
+      <c r="H1320" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1321" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1321">
+        <v>35</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1321" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1321" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1321">
+        <v>60519</v>
+      </c>
+      <c r="G1321">
+        <v>2</v>
+      </c>
+      <c r="H1321" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1322" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1322">
+        <v>75</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1322" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1322" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1322">
+        <v>51685</v>
+      </c>
+      <c r="G1322">
+        <v>2</v>
+      </c>
+      <c r="H1322" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1323" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1323">
+        <v>12</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1323" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1323" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1323">
+        <v>89832</v>
+      </c>
+      <c r="G1323">
+        <v>1</v>
+      </c>
+      <c r="H1323" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1324" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1324">
+        <v>58</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1324" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1324" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1324">
+        <v>60446</v>
+      </c>
+      <c r="G1324">
+        <v>2</v>
+      </c>
+      <c r="H1324" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1325" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1325">
+        <v>72</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1325" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1325" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1325">
+        <v>47105</v>
+      </c>
+      <c r="G1325">
+        <v>3</v>
+      </c>
+      <c r="H1325" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1326" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1326">
+        <v>50</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1326" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1326" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1326">
+        <v>36241</v>
+      </c>
+      <c r="G1326">
+        <v>2</v>
+      </c>
+      <c r="H1326" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1327" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1327">
+        <v>44</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1327" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1327" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1327">
+        <v>22819</v>
+      </c>
+      <c r="G1327">
+        <v>2</v>
+      </c>
+      <c r="H1327" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1328" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1328">
+        <v>21</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1328" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1328" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1328">
+        <v>99765</v>
+      </c>
+      <c r="G1328">
+        <v>2</v>
+      </c>
+      <c r="H1328" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1329" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1329">
+        <v>17</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1329" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1329" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1329">
+        <v>53954</v>
+      </c>
+      <c r="G1329">
+        <v>2</v>
+      </c>
+      <c r="H1329" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1330" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1330">
+        <v>38</v>
+      </c>
+      <c r="C1330" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1330" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1330" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1330">
+        <v>20532</v>
+      </c>
+      <c r="G1330">
+        <v>1</v>
+      </c>
+      <c r="H1330" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1331" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1331">
+        <v>53</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1331" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1331" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1331">
+        <v>32564</v>
+      </c>
+      <c r="G1331">
+        <v>2</v>
+      </c>
+      <c r="H1331" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1332" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1332">
+        <v>18</v>
+      </c>
+      <c r="C1332" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1332" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1332" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1332">
+        <v>70132</v>
+      </c>
+      <c r="G1332">
+        <v>2</v>
+      </c>
+      <c r="H1332" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1333" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1333">
+        <v>10</v>
+      </c>
+      <c r="C1333" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1333" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1333" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1333">
+        <v>105353</v>
+      </c>
+      <c r="G1333">
+        <v>2</v>
+      </c>
+      <c r="H1333" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1334" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1334">
+        <v>8</v>
+      </c>
+      <c r="C1334" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1334" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1334" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1334">
+        <v>114523</v>
+      </c>
+      <c r="G1334">
+        <v>3</v>
+      </c>
+      <c r="H1334" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1335" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1335">
+        <v>57</v>
+      </c>
+      <c r="C1335" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1335" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1335" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1335">
+        <v>132455</v>
+      </c>
+      <c r="G1335">
+        <v>1</v>
+      </c>
+      <c r="H1335" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1336" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1336">
+        <v>6</v>
+      </c>
+      <c r="C1336" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1336" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1336" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1336">
+        <v>15884</v>
+      </c>
+      <c r="G1336">
+        <v>2</v>
+      </c>
+      <c r="H1336" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1337" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1337">
+        <v>71</v>
+      </c>
+      <c r="C1337" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1337" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1337" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1337">
+        <v>36180</v>
+      </c>
+      <c r="G1337">
+        <v>2</v>
+      </c>
+      <c r="H1337" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1338" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1338">
+        <v>37</v>
+      </c>
+      <c r="C1338" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1338" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1338" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1338">
+        <v>43473</v>
+      </c>
+      <c r="G1338">
+        <v>2</v>
+      </c>
+      <c r="H1338" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1339" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1339">
+        <v>22</v>
+      </c>
+      <c r="C1339" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1339" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1339" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1339">
+        <v>80767</v>
+      </c>
+      <c r="G1339">
+        <v>2</v>
+      </c>
+      <c r="H1339" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1340" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1340">
+        <v>42</v>
+      </c>
+      <c r="C1340" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1340" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1340" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1340">
+        <v>26153</v>
+      </c>
+      <c r="G1340">
+        <v>2</v>
+      </c>
+      <c r="H1340" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1341" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1341">
+        <v>43</v>
+      </c>
+      <c r="C1341" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1341" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1341" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1341">
+        <v>46862</v>
+      </c>
+      <c r="G1341">
+        <v>2</v>
+      </c>
+      <c r="H1341" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1342" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1342">
+        <v>26</v>
+      </c>
+      <c r="C1342" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1342" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1342" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1342">
+        <v>158043</v>
+      </c>
+      <c r="G1342">
+        <v>2</v>
+      </c>
+      <c r="H1342" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1343" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1343">
+        <v>51</v>
+      </c>
+      <c r="C1343" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1343" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1343" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1343">
+        <v>40573</v>
+      </c>
+      <c r="G1343">
+        <v>1</v>
+      </c>
+      <c r="H1343" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1344" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B1344">
+        <v>24</v>
+      </c>
+      <c r="C1344" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1344" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1344" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1344">
+        <v>68759</v>
+      </c>
+      <c r="G1344">
+        <v>2</v>
+      </c>
+      <c r="H1344" t="s">
         <v>98</v>
       </c>
     </row>
@@ -33601,21 +35655,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -33826,24 +35865,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4606366C-CC67-4067-BB57-10E9258263A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C841AB4-9F11-4453-8762-85942E875817}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5280295C-2A2C-48C4-AC9E-9766062C4F31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33860,4 +35897,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C841AB4-9F11-4453-8762-85942E875817}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4606366C-CC67-4067-BB57-10E9258263A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/OpenData_Slovakia_CovidAutomat_History.xlsx
+++ b/OpenData_Slovakia_CovidAutomat_History.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{DF98854D-4A74-4BEA-8949-A754D409E20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BEC373B-9FFE-46EF-8DDB-42B7AAB2C459}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{DF98854D-4A74-4BEA-8949-A754D409E20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F635E55-6404-4015-968F-201A7FF2D697}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{817111DC-07F4-49D8-B88A-F51DD2C39FFE}"/>
+    <workbookView xWindow="960" yWindow="-110" windowWidth="18350" windowHeight="11020" xr2:uid="{817111DC-07F4-49D8-B88A-F51DD2C39FFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5380" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5696" uniqueCount="100">
   <si>
     <t>Platne od</t>
   </si>
@@ -689,15 +689,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3118A9E1-7AB7-4959-BB1E-0523D5A0DF60}">
-  <dimension ref="A1:H1344"/>
+  <dimension ref="A1:H1423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1293" workbookViewId="0">
-      <selection activeCell="A1319" sqref="A1319"/>
+    <sheetView tabSelected="1" topLeftCell="A1316" workbookViewId="0">
+      <selection activeCell="A1348" sqref="A1348"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="8.8984375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -35641,6 +35641,2060 @@
         <v>2</v>
       </c>
       <c r="H1344" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1345" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1345">
+        <v>41</v>
+      </c>
+      <c r="C1345" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1345" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1345" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1345">
+        <v>36282</v>
+      </c>
+      <c r="G1345">
+        <v>3</v>
+      </c>
+      <c r="H1345" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1346" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1346">
+        <v>32</v>
+      </c>
+      <c r="C1346" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1346" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1346" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1346">
+        <v>110829</v>
+      </c>
+      <c r="G1346">
+        <v>2</v>
+      </c>
+      <c r="H1346" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1347" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1347">
+        <v>31</v>
+      </c>
+      <c r="C1347" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1347" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1347" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1347">
+        <v>16086</v>
+      </c>
+      <c r="G1347">
+        <v>3</v>
+      </c>
+      <c r="H1347" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1348" s="1">
+        <v>44456</v>
+      </c>
+      <c r="B1348">
+        <v>5</v>
+      </c>
+      <c r="C1348" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1348" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1348" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1348">
+        <v>77771</v>
+      </c>
+      <c r="G1348">
+        <v>4</v>
+      </c>
+      <c r="H1348" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1349" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1349">
+        <v>64</v>
+      </c>
+      <c r="C1349" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1349" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1349" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1349">
+        <v>41095</v>
+      </c>
+      <c r="G1349">
+        <v>2</v>
+      </c>
+      <c r="H1349" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1350" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1350">
+        <v>68</v>
+      </c>
+      <c r="C1350" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1350" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1350" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1350">
+        <v>115653</v>
+      </c>
+      <c r="G1350">
+        <v>2</v>
+      </c>
+      <c r="H1350" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1351" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1351">
+        <v>67</v>
+      </c>
+      <c r="C1351" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1351" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1351" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1351">
+        <v>67913</v>
+      </c>
+      <c r="G1351">
+        <v>2</v>
+      </c>
+      <c r="H1351" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1352" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1352">
+        <v>66</v>
+      </c>
+      <c r="C1352" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1352" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1352" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1352">
+        <v>97261</v>
+      </c>
+      <c r="G1352">
+        <v>2</v>
+      </c>
+      <c r="H1352" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1353" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1353">
+        <v>65</v>
+      </c>
+      <c r="C1353" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1353" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1353" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1353">
+        <v>110942</v>
+      </c>
+      <c r="G1353">
+        <v>2</v>
+      </c>
+      <c r="H1353" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1354" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1354">
+        <v>28</v>
+      </c>
+      <c r="C1354" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1354" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1354" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1354">
+        <v>61450</v>
+      </c>
+      <c r="G1354">
+        <v>3</v>
+      </c>
+      <c r="H1354" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1355" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1355">
+        <v>25</v>
+      </c>
+      <c r="C1355" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1355" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1355" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1355">
+        <v>30917</v>
+      </c>
+      <c r="G1355">
+        <v>3</v>
+      </c>
+      <c r="H1355" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1356" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1356">
+        <v>59</v>
+      </c>
+      <c r="C1356" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1356" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1356" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1356">
+        <v>90080</v>
+      </c>
+      <c r="G1356">
+        <v>2</v>
+      </c>
+      <c r="H1356" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1357" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1357">
+        <v>69</v>
+      </c>
+      <c r="C1357" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1357" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1357" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1357">
+        <v>32051</v>
+      </c>
+      <c r="G1357">
+        <v>2</v>
+      </c>
+      <c r="H1357" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1358" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1358">
+        <v>55</v>
+      </c>
+      <c r="C1358" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1358" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1358" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1358">
+        <v>39457</v>
+      </c>
+      <c r="G1358">
+        <v>2</v>
+      </c>
+      <c r="H1358" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1359" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1359">
+        <v>13</v>
+      </c>
+      <c r="C1359" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1359" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1359" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1359">
+        <v>122358</v>
+      </c>
+      <c r="G1359">
+        <v>1</v>
+      </c>
+      <c r="H1359" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1360" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1360">
+        <v>3</v>
+      </c>
+      <c r="C1360" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1360" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1360" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1360">
+        <v>94076</v>
+      </c>
+      <c r="G1360">
+        <v>2</v>
+      </c>
+      <c r="H1360" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1361" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1361">
+        <v>74</v>
+      </c>
+      <c r="C1361" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1361" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1361" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1361">
+        <v>31868</v>
+      </c>
+      <c r="G1361">
+        <v>3</v>
+      </c>
+      <c r="H1361" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1362" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1362">
+        <v>61</v>
+      </c>
+      <c r="C1362" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1362" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1362" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1362">
+        <v>45013</v>
+      </c>
+      <c r="G1362">
+        <v>2</v>
+      </c>
+      <c r="H1362" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1363" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1363">
+        <v>9</v>
+      </c>
+      <c r="C1363" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1363" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1363" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1363">
+        <v>61986</v>
+      </c>
+      <c r="G1363">
+        <v>2</v>
+      </c>
+      <c r="H1363" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1364" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1364">
+        <v>60</v>
+      </c>
+      <c r="C1364" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1364" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1364" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1364">
+        <v>59188</v>
+      </c>
+      <c r="G1364">
+        <v>2</v>
+      </c>
+      <c r="H1364" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1365" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1365">
+        <v>4</v>
+      </c>
+      <c r="C1365" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1365" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1365" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1365">
+        <v>75235</v>
+      </c>
+      <c r="G1365">
+        <v>2</v>
+      </c>
+      <c r="H1365" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1366" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1366">
+        <v>14</v>
+      </c>
+      <c r="C1366" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1366" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1366" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1366">
+        <v>101712</v>
+      </c>
+      <c r="G1366">
+        <v>2</v>
+      </c>
+      <c r="H1366" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1367" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1367">
+        <v>76</v>
+      </c>
+      <c r="C1367" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1367" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1367" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1367">
+        <v>67513</v>
+      </c>
+      <c r="G1367">
+        <v>3</v>
+      </c>
+      <c r="H1367" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1368" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1368">
+        <v>79</v>
+      </c>
+      <c r="C1368" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1368" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1368" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1368">
+        <v>82288</v>
+      </c>
+      <c r="G1368">
+        <v>3</v>
+      </c>
+      <c r="H1368" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1369" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1369">
+        <v>78</v>
+      </c>
+      <c r="C1369" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1369" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1369" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1369">
+        <v>28749</v>
+      </c>
+      <c r="G1369">
+        <v>3</v>
+      </c>
+      <c r="H1369" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1370" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1370">
+        <v>77</v>
+      </c>
+      <c r="C1370" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1370" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1370" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1370">
+        <v>60126</v>
+      </c>
+      <c r="G1370">
+        <v>3</v>
+      </c>
+      <c r="H1370" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1371" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1371">
+        <v>29</v>
+      </c>
+      <c r="C1371" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1371" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1371" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1371">
+        <v>129544</v>
+      </c>
+      <c r="G1371">
+        <v>3</v>
+      </c>
+      <c r="H1371" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1372" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1372">
+        <v>30</v>
+      </c>
+      <c r="C1372" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1372" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1372" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1372">
+        <v>22182</v>
+      </c>
+      <c r="G1372">
+        <v>4</v>
+      </c>
+      <c r="H1372" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1373" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1373">
+        <v>73</v>
+      </c>
+      <c r="C1373" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1373" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1373" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1373">
+        <v>32914</v>
+      </c>
+      <c r="G1373">
+        <v>2</v>
+      </c>
+      <c r="H1373" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1374" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1374">
+        <v>20</v>
+      </c>
+      <c r="C1374" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1374" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1374" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1374">
+        <v>110824</v>
+      </c>
+      <c r="G1374">
+        <v>3</v>
+      </c>
+      <c r="H1374" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1375" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1375">
+        <v>36</v>
+      </c>
+      <c r="C1375" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1375" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1375" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1375">
+        <v>33702</v>
+      </c>
+      <c r="G1375">
+        <v>3</v>
+      </c>
+      <c r="H1375" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1376" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1376">
+        <v>15</v>
+      </c>
+      <c r="C1376" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1376" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1376" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1376">
+        <v>72261</v>
+      </c>
+      <c r="G1376">
+        <v>2</v>
+      </c>
+      <c r="H1376" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1377" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1377">
+        <v>1</v>
+      </c>
+      <c r="C1377" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1377" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1377" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1377">
+        <v>73466</v>
+      </c>
+      <c r="G1377">
+        <v>2</v>
+      </c>
+      <c r="H1377" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1378" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1378">
+        <v>62</v>
+      </c>
+      <c r="C1378" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1378" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1378" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1378">
+        <v>74323</v>
+      </c>
+      <c r="G1378">
+        <v>2</v>
+      </c>
+      <c r="H1378" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1379" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1379">
+        <v>49</v>
+      </c>
+      <c r="C1379" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1379" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1379" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1379">
+        <v>96338</v>
+      </c>
+      <c r="G1379">
+        <v>3</v>
+      </c>
+      <c r="H1379" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1380" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1380">
+        <v>63</v>
+      </c>
+      <c r="C1380" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1380" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1380" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1380">
+        <v>11842</v>
+      </c>
+      <c r="G1380">
+        <v>1</v>
+      </c>
+      <c r="H1380" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1381" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1381">
+        <v>34</v>
+      </c>
+      <c r="C1381" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1381" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1381" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1381">
+        <v>110705</v>
+      </c>
+      <c r="G1381">
+        <v>2</v>
+      </c>
+      <c r="H1381" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1382" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1382">
+        <v>27</v>
+      </c>
+      <c r="C1382" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1382" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1382" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1382">
+        <v>26356</v>
+      </c>
+      <c r="G1382">
+        <v>2</v>
+      </c>
+      <c r="H1382" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1383" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1383">
+        <v>23</v>
+      </c>
+      <c r="C1383" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1383" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1383" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1383">
+        <v>62664</v>
+      </c>
+      <c r="G1383">
+        <v>2</v>
+      </c>
+      <c r="H1383" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1384" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1384">
+        <v>11</v>
+      </c>
+      <c r="C1384" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1384" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1384" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1384">
+        <v>161560</v>
+      </c>
+      <c r="G1384">
+        <v>2</v>
+      </c>
+      <c r="H1384" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1385" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1385">
+        <v>47</v>
+      </c>
+      <c r="C1385" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1385" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1385" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1385">
+        <v>62554</v>
+      </c>
+      <c r="G1385">
+        <v>2</v>
+      </c>
+      <c r="H1385" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1386" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1386">
+        <v>16</v>
+      </c>
+      <c r="C1386" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1386" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1386" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1386">
+        <v>139005</v>
+      </c>
+      <c r="G1386">
+        <v>2</v>
+      </c>
+      <c r="H1386" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1387" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1387">
+        <v>45</v>
+      </c>
+      <c r="C1387" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1387" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1387" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1387">
+        <v>45597</v>
+      </c>
+      <c r="G1387">
+        <v>2</v>
+      </c>
+      <c r="H1387" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1388" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1388">
+        <v>33</v>
+      </c>
+      <c r="C1388" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1388" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1388" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1388">
+        <v>65145</v>
+      </c>
+      <c r="G1388">
+        <v>1</v>
+      </c>
+      <c r="H1388" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1389" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1389">
+        <v>39</v>
+      </c>
+      <c r="C1389" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1389" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1389" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1389">
+        <v>62803</v>
+      </c>
+      <c r="G1389">
+        <v>2</v>
+      </c>
+      <c r="H1389" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1390" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1390">
+        <v>70</v>
+      </c>
+      <c r="C1390" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1390" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1390" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1390">
+        <v>21471</v>
+      </c>
+      <c r="G1390">
+        <v>1</v>
+      </c>
+      <c r="H1390" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1391" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1391">
+        <v>46</v>
+      </c>
+      <c r="C1391" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1391" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1391" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1391">
+        <v>104914</v>
+      </c>
+      <c r="G1391">
+        <v>3</v>
+      </c>
+      <c r="H1391" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1392" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1392">
+        <v>52</v>
+      </c>
+      <c r="C1392" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1392" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1392" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1392">
+        <v>62439</v>
+      </c>
+      <c r="G1392">
+        <v>2</v>
+      </c>
+      <c r="H1392" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1393" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1393">
+        <v>7</v>
+      </c>
+      <c r="C1393" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1393" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1393" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1393">
+        <v>175610</v>
+      </c>
+      <c r="G1393">
+        <v>3</v>
+      </c>
+      <c r="H1393" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1394" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1394">
+        <v>40</v>
+      </c>
+      <c r="C1394" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1394" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1394" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1394">
+        <v>133980</v>
+      </c>
+      <c r="G1394">
+        <v>2</v>
+      </c>
+      <c r="H1394" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1395" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1395">
+        <v>54</v>
+      </c>
+      <c r="C1395" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1395" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1395" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1395">
+        <v>44310</v>
+      </c>
+      <c r="G1395">
+        <v>2</v>
+      </c>
+      <c r="H1395" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1396" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1396">
+        <v>48</v>
+      </c>
+      <c r="C1396" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1396" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1396" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1396">
+        <v>39637</v>
+      </c>
+      <c r="G1396">
+        <v>3</v>
+      </c>
+      <c r="H1396" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1397" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1397">
+        <v>2</v>
+      </c>
+      <c r="C1397" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1397" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1397" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1397">
+        <v>84159</v>
+      </c>
+      <c r="G1397">
+        <v>2</v>
+      </c>
+      <c r="H1397" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1398" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1398">
+        <v>19</v>
+      </c>
+      <c r="C1398" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1398" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1398" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1398">
+        <v>62209</v>
+      </c>
+      <c r="G1398">
+        <v>4</v>
+      </c>
+      <c r="H1398" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1399" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1399">
+        <v>56</v>
+      </c>
+      <c r="C1399" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1399" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1399" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1399">
+        <v>56702</v>
+      </c>
+      <c r="G1399">
+        <v>2</v>
+      </c>
+      <c r="H1399" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1400" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1400">
+        <v>35</v>
+      </c>
+      <c r="C1400" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1400" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1400" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1400">
+        <v>60519</v>
+      </c>
+      <c r="G1400">
+        <v>3</v>
+      </c>
+      <c r="H1400" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1401" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1401">
+        <v>75</v>
+      </c>
+      <c r="C1401" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1401" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1401" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1401">
+        <v>51685</v>
+      </c>
+      <c r="G1401">
+        <v>2</v>
+      </c>
+      <c r="H1401" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1402" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1402">
+        <v>12</v>
+      </c>
+      <c r="C1402" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1402" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1402" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1402">
+        <v>89832</v>
+      </c>
+      <c r="G1402">
+        <v>2</v>
+      </c>
+      <c r="H1402" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1403" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1403">
+        <v>58</v>
+      </c>
+      <c r="C1403" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1403" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1403" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1403">
+        <v>60446</v>
+      </c>
+      <c r="G1403">
+        <v>3</v>
+      </c>
+      <c r="H1403" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1404" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1404">
+        <v>72</v>
+      </c>
+      <c r="C1404" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1404" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1404" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1404">
+        <v>47105</v>
+      </c>
+      <c r="G1404">
+        <v>4</v>
+      </c>
+      <c r="H1404" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1405" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1405">
+        <v>50</v>
+      </c>
+      <c r="C1405" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1405" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1405" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1405">
+        <v>36241</v>
+      </c>
+      <c r="G1405">
+        <v>3</v>
+      </c>
+      <c r="H1405" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1406" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1406">
+        <v>44</v>
+      </c>
+      <c r="C1406" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1406" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1406" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1406">
+        <v>22819</v>
+      </c>
+      <c r="G1406">
+        <v>2</v>
+      </c>
+      <c r="H1406" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1407" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1407">
+        <v>21</v>
+      </c>
+      <c r="C1407" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1407" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1407" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1407">
+        <v>99765</v>
+      </c>
+      <c r="G1407">
+        <v>3</v>
+      </c>
+      <c r="H1407" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1408" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1408">
+        <v>17</v>
+      </c>
+      <c r="C1408" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1408" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1408" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1408">
+        <v>53954</v>
+      </c>
+      <c r="G1408">
+        <v>3</v>
+      </c>
+      <c r="H1408" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1409" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1409">
+        <v>38</v>
+      </c>
+      <c r="C1409" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1409" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1409" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1409">
+        <v>20532</v>
+      </c>
+      <c r="G1409">
+        <v>2</v>
+      </c>
+      <c r="H1409" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1410" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1410">
+        <v>53</v>
+      </c>
+      <c r="C1410" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1410" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1410" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1410">
+        <v>32564</v>
+      </c>
+      <c r="G1410">
+        <v>3</v>
+      </c>
+      <c r="H1410" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1411" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1411">
+        <v>18</v>
+      </c>
+      <c r="C1411" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1411" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1411" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1411">
+        <v>70132</v>
+      </c>
+      <c r="G1411">
+        <v>2</v>
+      </c>
+      <c r="H1411" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1412" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1412">
+        <v>10</v>
+      </c>
+      <c r="C1412" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1412" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1412" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1412">
+        <v>105353</v>
+      </c>
+      <c r="G1412">
+        <v>2</v>
+      </c>
+      <c r="H1412" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1413" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1413">
+        <v>8</v>
+      </c>
+      <c r="C1413" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1413" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1413" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1413">
+        <v>114523</v>
+      </c>
+      <c r="G1413">
+        <v>3</v>
+      </c>
+      <c r="H1413" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1414" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1414">
+        <v>57</v>
+      </c>
+      <c r="C1414" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1414" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1414" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1414">
+        <v>132455</v>
+      </c>
+      <c r="G1414">
+        <v>2</v>
+      </c>
+      <c r="H1414" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1415" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1415">
+        <v>6</v>
+      </c>
+      <c r="C1415" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1415" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1415" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1415">
+        <v>15884</v>
+      </c>
+      <c r="G1415">
+        <v>2</v>
+      </c>
+      <c r="H1415" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1416" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1416">
+        <v>71</v>
+      </c>
+      <c r="C1416" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1416" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1416" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1416">
+        <v>36180</v>
+      </c>
+      <c r="G1416">
+        <v>2</v>
+      </c>
+      <c r="H1416" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1417" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1417">
+        <v>37</v>
+      </c>
+      <c r="C1417" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1417" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1417" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1417">
+        <v>43473</v>
+      </c>
+      <c r="G1417">
+        <v>3</v>
+      </c>
+      <c r="H1417" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1418" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1418">
+        <v>22</v>
+      </c>
+      <c r="C1418" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1418" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1418" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1418">
+        <v>80767</v>
+      </c>
+      <c r="G1418">
+        <v>2</v>
+      </c>
+      <c r="H1418" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1419" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1419">
+        <v>42</v>
+      </c>
+      <c r="C1419" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1419" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1419" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1419">
+        <v>26153</v>
+      </c>
+      <c r="G1419">
+        <v>3</v>
+      </c>
+      <c r="H1419" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1420" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1420">
+        <v>43</v>
+      </c>
+      <c r="C1420" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1420" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1420" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1420">
+        <v>46862</v>
+      </c>
+      <c r="G1420">
+        <v>2</v>
+      </c>
+      <c r="H1420" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1421" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1421">
+        <v>26</v>
+      </c>
+      <c r="C1421" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1421" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1421" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1421">
+        <v>158043</v>
+      </c>
+      <c r="G1421">
+        <v>3</v>
+      </c>
+      <c r="H1421" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1422" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1422">
+        <v>51</v>
+      </c>
+      <c r="C1422" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1422" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1422" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1422">
+        <v>40573</v>
+      </c>
+      <c r="G1422">
+        <v>2</v>
+      </c>
+      <c r="H1422" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1423" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B1423">
+        <v>24</v>
+      </c>
+      <c r="C1423" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1423" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1423" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1423">
+        <v>68759</v>
+      </c>
+      <c r="G1423">
+        <v>3</v>
+      </c>
+      <c r="H1423" t="s">
         <v>98</v>
       </c>
     </row>
@@ -35655,6 +37709,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -35865,15 +37928,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -35881,6 +37935,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C841AB4-9F11-4453-8762-85942E875817}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5280295C-2A2C-48C4-AC9E-9766062C4F31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -35899,14 +37961,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C841AB4-9F11-4453-8762-85942E875817}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4606366C-CC67-4067-BB57-10E9258263A1}">
   <ds:schemaRefs>

--- a/OpenData_Slovakia_CovidAutomat_History.xlsx
+++ b/OpenData_Slovakia_CovidAutomat_History.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{DF98854D-4A74-4BEA-8949-A754D409E20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F635E55-6404-4015-968F-201A7FF2D697}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{DF98854D-4A74-4BEA-8949-A754D409E20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09E9B7DB-9B5A-4793-ABDE-089D401BB686}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="-110" windowWidth="18350" windowHeight="11020" xr2:uid="{817111DC-07F4-49D8-B88A-F51DD2C39FFE}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{817111DC-07F4-49D8-B88A-F51DD2C39FFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5696" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6012" uniqueCount="100">
   <si>
     <t>Platne od</t>
   </si>
@@ -689,15 +689,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3118A9E1-7AB7-4959-BB1E-0523D5A0DF60}">
-  <dimension ref="A1:H1423"/>
+  <dimension ref="A1:H1502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1316" workbookViewId="0">
-      <selection activeCell="A1348" sqref="A1348"/>
+    <sheetView tabSelected="1" topLeftCell="A1424" workbookViewId="0">
+      <selection activeCell="D1440" sqref="D1440"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.8984375" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -37695,6 +37695,2060 @@
         <v>3</v>
       </c>
       <c r="H1423" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1424" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1424">
+        <v>41</v>
+      </c>
+      <c r="C1424" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1424" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1424" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1424">
+        <v>36282</v>
+      </c>
+      <c r="G1424">
+        <v>3</v>
+      </c>
+      <c r="H1424" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1425" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1425">
+        <v>32</v>
+      </c>
+      <c r="C1425" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1425" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1425" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1425">
+        <v>110829</v>
+      </c>
+      <c r="G1425">
+        <v>2</v>
+      </c>
+      <c r="H1425" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1426" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1426">
+        <v>31</v>
+      </c>
+      <c r="C1426" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1426" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1426" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1426">
+        <v>16086</v>
+      </c>
+      <c r="G1426">
+        <v>2</v>
+      </c>
+      <c r="H1426" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1427" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1427">
+        <v>5</v>
+      </c>
+      <c r="C1427" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1427" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1427" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1427">
+        <v>77771</v>
+      </c>
+      <c r="G1427">
+        <v>4</v>
+      </c>
+      <c r="H1427" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1428" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1428">
+        <v>64</v>
+      </c>
+      <c r="C1428" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1428" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1428" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1428">
+        <v>41095</v>
+      </c>
+      <c r="G1428">
+        <v>2</v>
+      </c>
+      <c r="H1428" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1429" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1429">
+        <v>68</v>
+      </c>
+      <c r="C1429" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1429" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1429" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1429">
+        <v>115653</v>
+      </c>
+      <c r="G1429">
+        <v>2</v>
+      </c>
+      <c r="H1429" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1430" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1430">
+        <v>67</v>
+      </c>
+      <c r="C1430" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1430" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1430" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1430">
+        <v>67913</v>
+      </c>
+      <c r="G1430">
+        <v>2</v>
+      </c>
+      <c r="H1430" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1431" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1431">
+        <v>66</v>
+      </c>
+      <c r="C1431" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1431" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1431" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1431">
+        <v>97261</v>
+      </c>
+      <c r="G1431">
+        <v>2</v>
+      </c>
+      <c r="H1431" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1432" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1432">
+        <v>65</v>
+      </c>
+      <c r="C1432" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1432" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1432" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1432">
+        <v>110942</v>
+      </c>
+      <c r="G1432">
+        <v>2</v>
+      </c>
+      <c r="H1432" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1433" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1433">
+        <v>28</v>
+      </c>
+      <c r="C1433" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1433" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1433" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1433">
+        <v>61450</v>
+      </c>
+      <c r="G1433">
+        <v>3</v>
+      </c>
+      <c r="H1433" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1434" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1434">
+        <v>25</v>
+      </c>
+      <c r="C1434" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1434" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1434" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1434">
+        <v>30917</v>
+      </c>
+      <c r="G1434">
+        <v>3</v>
+      </c>
+      <c r="H1434" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1435" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1435">
+        <v>59</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1435" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1435" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1435">
+        <v>90080</v>
+      </c>
+      <c r="G1435">
+        <v>3</v>
+      </c>
+      <c r="H1435" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1436" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1436">
+        <v>69</v>
+      </c>
+      <c r="C1436" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1436" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1436" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1436">
+        <v>32051</v>
+      </c>
+      <c r="G1436">
+        <v>2</v>
+      </c>
+      <c r="H1436" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1437" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1437">
+        <v>55</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1437" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1437" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1437">
+        <v>39457</v>
+      </c>
+      <c r="G1437">
+        <v>3</v>
+      </c>
+      <c r="H1437" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1438" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1438">
+        <v>13</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1438" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1438" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1438">
+        <v>122358</v>
+      </c>
+      <c r="G1438">
+        <v>1</v>
+      </c>
+      <c r="H1438" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1439" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1439">
+        <v>3</v>
+      </c>
+      <c r="C1439" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1439" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1439" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1439">
+        <v>94076</v>
+      </c>
+      <c r="G1439">
+        <v>2</v>
+      </c>
+      <c r="H1439" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1440" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1440">
+        <v>74</v>
+      </c>
+      <c r="C1440" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1440" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1440" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1440">
+        <v>31868</v>
+      </c>
+      <c r="G1440">
+        <v>3</v>
+      </c>
+      <c r="H1440" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1441" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1441">
+        <v>61</v>
+      </c>
+      <c r="C1441" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1441" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1441" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1441">
+        <v>45013</v>
+      </c>
+      <c r="G1441">
+        <v>2</v>
+      </c>
+      <c r="H1441" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1442" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1442">
+        <v>9</v>
+      </c>
+      <c r="C1442" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1442" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1442" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1442">
+        <v>61986</v>
+      </c>
+      <c r="G1442">
+        <v>3</v>
+      </c>
+      <c r="H1442" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1443" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1443">
+        <v>60</v>
+      </c>
+      <c r="C1443" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1443" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1443" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1443">
+        <v>59188</v>
+      </c>
+      <c r="G1443">
+        <v>3</v>
+      </c>
+      <c r="H1443" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1444" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1444">
+        <v>4</v>
+      </c>
+      <c r="C1444" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1444" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1444" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1444">
+        <v>75235</v>
+      </c>
+      <c r="G1444">
+        <v>3</v>
+      </c>
+      <c r="H1444" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1445" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1445">
+        <v>14</v>
+      </c>
+      <c r="C1445" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1445" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1445" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1445">
+        <v>101712</v>
+      </c>
+      <c r="G1445">
+        <v>2</v>
+      </c>
+      <c r="H1445" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1446" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1446">
+        <v>76</v>
+      </c>
+      <c r="C1446" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1446" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1446" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1446">
+        <v>67513</v>
+      </c>
+      <c r="G1446">
+        <v>3</v>
+      </c>
+      <c r="H1446" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1447" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1447">
+        <v>79</v>
+      </c>
+      <c r="C1447" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1447" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1447" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1447">
+        <v>82288</v>
+      </c>
+      <c r="G1447">
+        <v>3</v>
+      </c>
+      <c r="H1447" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1448" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1448">
+        <v>78</v>
+      </c>
+      <c r="C1448" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1448" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1448" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1448">
+        <v>28749</v>
+      </c>
+      <c r="G1448">
+        <v>3</v>
+      </c>
+      <c r="H1448" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1449" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1449">
+        <v>77</v>
+      </c>
+      <c r="C1449" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1449" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1449" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1449">
+        <v>60126</v>
+      </c>
+      <c r="G1449">
+        <v>3</v>
+      </c>
+      <c r="H1449" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1450" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1450">
+        <v>29</v>
+      </c>
+      <c r="C1450" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1450" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1450" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1450">
+        <v>129544</v>
+      </c>
+      <c r="G1450">
+        <v>3</v>
+      </c>
+      <c r="H1450" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1451" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1451">
+        <v>30</v>
+      </c>
+      <c r="C1451" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1451" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1451" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1451">
+        <v>22182</v>
+      </c>
+      <c r="G1451">
+        <v>4</v>
+      </c>
+      <c r="H1451" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1452" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1452">
+        <v>73</v>
+      </c>
+      <c r="C1452" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1452" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1452" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1452">
+        <v>32914</v>
+      </c>
+      <c r="G1452">
+        <v>3</v>
+      </c>
+      <c r="H1452" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1453" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1453">
+        <v>20</v>
+      </c>
+      <c r="C1453" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1453" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1453" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1453">
+        <v>110824</v>
+      </c>
+      <c r="G1453">
+        <v>3</v>
+      </c>
+      <c r="H1453" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1454" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1454">
+        <v>36</v>
+      </c>
+      <c r="C1454" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1454" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1454" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1454">
+        <v>33702</v>
+      </c>
+      <c r="G1454">
+        <v>3</v>
+      </c>
+      <c r="H1454" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1455" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1455">
+        <v>15</v>
+      </c>
+      <c r="C1455" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1455" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1455" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1455">
+        <v>72261</v>
+      </c>
+      <c r="G1455">
+        <v>2</v>
+      </c>
+      <c r="H1455" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1456" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1456">
+        <v>1</v>
+      </c>
+      <c r="C1456" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1456" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1456" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1456">
+        <v>73466</v>
+      </c>
+      <c r="G1456">
+        <v>2</v>
+      </c>
+      <c r="H1456" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1457" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1457">
+        <v>62</v>
+      </c>
+      <c r="C1457" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1457" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1457" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1457">
+        <v>74323</v>
+      </c>
+      <c r="G1457">
+        <v>2</v>
+      </c>
+      <c r="H1457" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1458" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1458">
+        <v>49</v>
+      </c>
+      <c r="C1458" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1458" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1458" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1458">
+        <v>96338</v>
+      </c>
+      <c r="G1458">
+        <v>3</v>
+      </c>
+      <c r="H1458" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1459" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1459">
+        <v>63</v>
+      </c>
+      <c r="C1459" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1459" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1459" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1459">
+        <v>11842</v>
+      </c>
+      <c r="G1459">
+        <v>2</v>
+      </c>
+      <c r="H1459" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1460" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1460">
+        <v>34</v>
+      </c>
+      <c r="C1460" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1460" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1460" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1460">
+        <v>110705</v>
+      </c>
+      <c r="G1460">
+        <v>2</v>
+      </c>
+      <c r="H1460" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1461" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1461">
+        <v>27</v>
+      </c>
+      <c r="C1461" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1461" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1461" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1461">
+        <v>26356</v>
+      </c>
+      <c r="G1461">
+        <v>3</v>
+      </c>
+      <c r="H1461" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1462" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1462">
+        <v>23</v>
+      </c>
+      <c r="C1462" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1462" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1462" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1462">
+        <v>62664</v>
+      </c>
+      <c r="G1462">
+        <v>3</v>
+      </c>
+      <c r="H1462" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1463" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1463">
+        <v>11</v>
+      </c>
+      <c r="C1463" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1463" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1463" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1463">
+        <v>161560</v>
+      </c>
+      <c r="G1463">
+        <v>3</v>
+      </c>
+      <c r="H1463" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1464" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1464">
+        <v>47</v>
+      </c>
+      <c r="C1464" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1464" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1464" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1464">
+        <v>62554</v>
+      </c>
+      <c r="G1464">
+        <v>2</v>
+      </c>
+      <c r="H1464" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1465" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1465">
+        <v>16</v>
+      </c>
+      <c r="C1465" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1465" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1465" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1465">
+        <v>139005</v>
+      </c>
+      <c r="G1465">
+        <v>2</v>
+      </c>
+      <c r="H1465" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1466" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1466">
+        <v>45</v>
+      </c>
+      <c r="C1466" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1466" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1466" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1466">
+        <v>45597</v>
+      </c>
+      <c r="G1466">
+        <v>2</v>
+      </c>
+      <c r="H1466" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1467" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1467">
+        <v>33</v>
+      </c>
+      <c r="C1467" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1467" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1467" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1467">
+        <v>65145</v>
+      </c>
+      <c r="G1467">
+        <v>2</v>
+      </c>
+      <c r="H1467" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1468" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1468">
+        <v>39</v>
+      </c>
+      <c r="C1468" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1468" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1468" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1468">
+        <v>62803</v>
+      </c>
+      <c r="G1468">
+        <v>2</v>
+      </c>
+      <c r="H1468" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1469" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1469">
+        <v>70</v>
+      </c>
+      <c r="C1469" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1469" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1469" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1469">
+        <v>21471</v>
+      </c>
+      <c r="G1469">
+        <v>2</v>
+      </c>
+      <c r="H1469" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1470" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1470">
+        <v>46</v>
+      </c>
+      <c r="C1470" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1470" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1470" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1470">
+        <v>104914</v>
+      </c>
+      <c r="G1470">
+        <v>3</v>
+      </c>
+      <c r="H1470" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1471" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1471">
+        <v>52</v>
+      </c>
+      <c r="C1471" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1471" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1471" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1471">
+        <v>62439</v>
+      </c>
+      <c r="G1471">
+        <v>2</v>
+      </c>
+      <c r="H1471" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1472" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1472">
+        <v>7</v>
+      </c>
+      <c r="C1472" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1472" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1472" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1472">
+        <v>175610</v>
+      </c>
+      <c r="G1472">
+        <v>3</v>
+      </c>
+      <c r="H1472" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1473" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1473">
+        <v>40</v>
+      </c>
+      <c r="C1473" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1473" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1473" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1473">
+        <v>133980</v>
+      </c>
+      <c r="G1473">
+        <v>2</v>
+      </c>
+      <c r="H1473" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1474" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1474">
+        <v>54</v>
+      </c>
+      <c r="C1474" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1474" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1474" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1474">
+        <v>44310</v>
+      </c>
+      <c r="G1474">
+        <v>2</v>
+      </c>
+      <c r="H1474" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1475" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1475">
+        <v>48</v>
+      </c>
+      <c r="C1475" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1475" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1475" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1475">
+        <v>39637</v>
+      </c>
+      <c r="G1475">
+        <v>3</v>
+      </c>
+      <c r="H1475" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1476" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1476">
+        <v>2</v>
+      </c>
+      <c r="C1476" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1476" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1476" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1476">
+        <v>84159</v>
+      </c>
+      <c r="G1476">
+        <v>2</v>
+      </c>
+      <c r="H1476" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1477" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1477">
+        <v>19</v>
+      </c>
+      <c r="C1477" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1477" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1477" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1477">
+        <v>62209</v>
+      </c>
+      <c r="G1477">
+        <v>4</v>
+      </c>
+      <c r="H1477" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1478" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1478">
+        <v>56</v>
+      </c>
+      <c r="C1478" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1478" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1478" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1478">
+        <v>56702</v>
+      </c>
+      <c r="G1478">
+        <v>3</v>
+      </c>
+      <c r="H1478" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1479" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1479">
+        <v>35</v>
+      </c>
+      <c r="C1479" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1479" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1479" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1479">
+        <v>60519</v>
+      </c>
+      <c r="G1479">
+        <v>3</v>
+      </c>
+      <c r="H1479" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1480" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1480">
+        <v>75</v>
+      </c>
+      <c r="C1480" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1480" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1480" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1480">
+        <v>51685</v>
+      </c>
+      <c r="G1480">
+        <v>2</v>
+      </c>
+      <c r="H1480" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1481" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1481">
+        <v>12</v>
+      </c>
+      <c r="C1481" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1481" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1481" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1481">
+        <v>89832</v>
+      </c>
+      <c r="G1481">
+        <v>2</v>
+      </c>
+      <c r="H1481" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1482" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1482">
+        <v>58</v>
+      </c>
+      <c r="C1482" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1482" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1482" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1482">
+        <v>60446</v>
+      </c>
+      <c r="G1482">
+        <v>3</v>
+      </c>
+      <c r="H1482" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1483" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1483">
+        <v>72</v>
+      </c>
+      <c r="C1483" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1483" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1483" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1483">
+        <v>47105</v>
+      </c>
+      <c r="G1483">
+        <v>4</v>
+      </c>
+      <c r="H1483" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1484" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1484">
+        <v>50</v>
+      </c>
+      <c r="C1484" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1484" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1484" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1484">
+        <v>36241</v>
+      </c>
+      <c r="G1484">
+        <v>3</v>
+      </c>
+      <c r="H1484" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1485" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1485">
+        <v>44</v>
+      </c>
+      <c r="C1485" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1485" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1485" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1485">
+        <v>22819</v>
+      </c>
+      <c r="G1485">
+        <v>3</v>
+      </c>
+      <c r="H1485" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1486" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1486">
+        <v>21</v>
+      </c>
+      <c r="C1486" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1486" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1486" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1486">
+        <v>99765</v>
+      </c>
+      <c r="G1486">
+        <v>3</v>
+      </c>
+      <c r="H1486" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1487" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1487">
+        <v>17</v>
+      </c>
+      <c r="C1487" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1487" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1487" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1487">
+        <v>53954</v>
+      </c>
+      <c r="G1487">
+        <v>4</v>
+      </c>
+      <c r="H1487" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1488" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1488">
+        <v>38</v>
+      </c>
+      <c r="C1488" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1488" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1488" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1488">
+        <v>20532</v>
+      </c>
+      <c r="G1488">
+        <v>2</v>
+      </c>
+      <c r="H1488" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1489" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1489">
+        <v>53</v>
+      </c>
+      <c r="C1489" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1489" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1489" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1489">
+        <v>32564</v>
+      </c>
+      <c r="G1489">
+        <v>3</v>
+      </c>
+      <c r="H1489" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1490" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1490">
+        <v>18</v>
+      </c>
+      <c r="C1490" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1490" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1490" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1490">
+        <v>70132</v>
+      </c>
+      <c r="G1490">
+        <v>2</v>
+      </c>
+      <c r="H1490" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1491" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1491">
+        <v>10</v>
+      </c>
+      <c r="C1491" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1491" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1491" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1491">
+        <v>105353</v>
+      </c>
+      <c r="G1491">
+        <v>3</v>
+      </c>
+      <c r="H1491" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1492" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1492">
+        <v>8</v>
+      </c>
+      <c r="C1492" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1492" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1492" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1492">
+        <v>114523</v>
+      </c>
+      <c r="G1492">
+        <v>3</v>
+      </c>
+      <c r="H1492" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1493" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1493">
+        <v>57</v>
+      </c>
+      <c r="C1493" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1493" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1493" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1493">
+        <v>132455</v>
+      </c>
+      <c r="G1493">
+        <v>2</v>
+      </c>
+      <c r="H1493" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1494" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1494">
+        <v>6</v>
+      </c>
+      <c r="C1494" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1494" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1494" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1494">
+        <v>15884</v>
+      </c>
+      <c r="G1494">
+        <v>2</v>
+      </c>
+      <c r="H1494" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1495" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1495">
+        <v>71</v>
+      </c>
+      <c r="C1495" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1495" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1495" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1495">
+        <v>36180</v>
+      </c>
+      <c r="G1495">
+        <v>3</v>
+      </c>
+      <c r="H1495" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1496" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1496">
+        <v>37</v>
+      </c>
+      <c r="C1496" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1496" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1496" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1496">
+        <v>43473</v>
+      </c>
+      <c r="G1496">
+        <v>3</v>
+      </c>
+      <c r="H1496" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1497" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1497">
+        <v>22</v>
+      </c>
+      <c r="C1497" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1497" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1497" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1497">
+        <v>80767</v>
+      </c>
+      <c r="G1497">
+        <v>3</v>
+      </c>
+      <c r="H1497" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1498" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1498">
+        <v>42</v>
+      </c>
+      <c r="C1498" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1498" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1498" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1498">
+        <v>26153</v>
+      </c>
+      <c r="G1498">
+        <v>3</v>
+      </c>
+      <c r="H1498" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1499" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1499">
+        <v>43</v>
+      </c>
+      <c r="C1499" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1499" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1499" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1499">
+        <v>46862</v>
+      </c>
+      <c r="G1499">
+        <v>2</v>
+      </c>
+      <c r="H1499" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1500" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1500">
+        <v>26</v>
+      </c>
+      <c r="C1500" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1500" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1500" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1500">
+        <v>158043</v>
+      </c>
+      <c r="G1500">
+        <v>3</v>
+      </c>
+      <c r="H1500" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1501" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1501">
+        <v>51</v>
+      </c>
+      <c r="C1501" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1501" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1501" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1501">
+        <v>40573</v>
+      </c>
+      <c r="G1501">
+        <v>3</v>
+      </c>
+      <c r="H1501" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1502" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B1502">
+        <v>24</v>
+      </c>
+      <c r="C1502" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1502" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1502" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1502">
+        <v>68759</v>
+      </c>
+      <c r="G1502">
+        <v>2</v>
+      </c>
+      <c r="H1502" t="s">
         <v>98</v>
       </c>
     </row>
@@ -37709,15 +39763,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -37928,21 +39973,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C841AB4-9F11-4453-8762-85942E875817}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5280295C-2A2C-48C4-AC9E-9766062C4F31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37961,11 +40007,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4606366C-CC67-4067-BB57-10E9258263A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C841AB4-9F11-4453-8762-85942E875817}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/OpenData_Slovakia_CovidAutomat_History.xlsx
+++ b/OpenData_Slovakia_CovidAutomat_History.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{DF98854D-4A74-4BEA-8949-A754D409E20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09E9B7DB-9B5A-4793-ABDE-089D401BB686}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{DF98854D-4A74-4BEA-8949-A754D409E20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EFCE632-AF07-4F57-BAC6-87936548A09F}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{817111DC-07F4-49D8-B88A-F51DD2C39FFE}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6012" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6328" uniqueCount="100">
   <si>
     <t>Platne od</t>
   </si>
@@ -689,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3118A9E1-7AB7-4959-BB1E-0523D5A0DF60}">
-  <dimension ref="A1:H1502"/>
+  <dimension ref="A1:H1581"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1424" workbookViewId="0">
-      <selection activeCell="D1440" sqref="D1440"/>
+    <sheetView tabSelected="1" topLeftCell="A1504" workbookViewId="0">
+      <selection activeCell="A1504" sqref="A1504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -39749,6 +39749,2060 @@
         <v>2</v>
       </c>
       <c r="H1502" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1503" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1503">
+        <v>41</v>
+      </c>
+      <c r="C1503" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1503" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1503" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1503">
+        <v>36282</v>
+      </c>
+      <c r="G1503">
+        <v>3</v>
+      </c>
+      <c r="H1503" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1504" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1504">
+        <v>32</v>
+      </c>
+      <c r="C1504" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1504" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1504" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1504">
+        <v>110829</v>
+      </c>
+      <c r="G1504">
+        <v>2</v>
+      </c>
+      <c r="H1504" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1505" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1505">
+        <v>31</v>
+      </c>
+      <c r="C1505" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1505" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1505" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1505">
+        <v>16086</v>
+      </c>
+      <c r="G1505">
+        <v>2</v>
+      </c>
+      <c r="H1505" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1506" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1506">
+        <v>5</v>
+      </c>
+      <c r="C1506" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1506" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1506" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1506">
+        <v>77771</v>
+      </c>
+      <c r="G1506">
+        <v>4</v>
+      </c>
+      <c r="H1506" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1507" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1507">
+        <v>64</v>
+      </c>
+      <c r="C1507" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1507" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1507" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1507">
+        <v>41095</v>
+      </c>
+      <c r="G1507">
+        <v>2</v>
+      </c>
+      <c r="H1507" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1508" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1508">
+        <v>68</v>
+      </c>
+      <c r="C1508" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1508" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1508" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1508">
+        <v>115653</v>
+      </c>
+      <c r="G1508">
+        <v>2</v>
+      </c>
+      <c r="H1508" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1509" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1509">
+        <v>67</v>
+      </c>
+      <c r="C1509" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1509" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1509" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1509">
+        <v>67913</v>
+      </c>
+      <c r="G1509">
+        <v>2</v>
+      </c>
+      <c r="H1509" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1510" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1510">
+        <v>66</v>
+      </c>
+      <c r="C1510" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1510" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1510" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1510">
+        <v>97261</v>
+      </c>
+      <c r="G1510">
+        <v>2</v>
+      </c>
+      <c r="H1510" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1511" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1511">
+        <v>65</v>
+      </c>
+      <c r="C1511" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1511" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1511" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1511">
+        <v>110942</v>
+      </c>
+      <c r="G1511">
+        <v>2</v>
+      </c>
+      <c r="H1511" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1512" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1512">
+        <v>28</v>
+      </c>
+      <c r="C1512" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1512" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1512" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1512">
+        <v>61450</v>
+      </c>
+      <c r="G1512">
+        <v>2</v>
+      </c>
+      <c r="H1512" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1513" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1513">
+        <v>25</v>
+      </c>
+      <c r="C1513" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1513" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1513" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1513">
+        <v>30917</v>
+      </c>
+      <c r="G1513">
+        <v>3</v>
+      </c>
+      <c r="H1513" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1514" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1514">
+        <v>59</v>
+      </c>
+      <c r="C1514" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1514" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1514" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1514">
+        <v>90080</v>
+      </c>
+      <c r="G1514">
+        <v>4</v>
+      </c>
+      <c r="H1514" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1515" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1515">
+        <v>69</v>
+      </c>
+      <c r="C1515" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1515" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1515" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1515">
+        <v>32051</v>
+      </c>
+      <c r="G1515">
+        <v>3</v>
+      </c>
+      <c r="H1515" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1516" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1516">
+        <v>55</v>
+      </c>
+      <c r="C1516" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1516" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1516" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1516">
+        <v>39457</v>
+      </c>
+      <c r="G1516">
+        <v>3</v>
+      </c>
+      <c r="H1516" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1517" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1517">
+        <v>13</v>
+      </c>
+      <c r="C1517" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1517" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1517" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1517">
+        <v>122358</v>
+      </c>
+      <c r="G1517">
+        <v>2</v>
+      </c>
+      <c r="H1517" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1518" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1518">
+        <v>3</v>
+      </c>
+      <c r="C1518" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1518" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1518" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1518">
+        <v>94076</v>
+      </c>
+      <c r="G1518">
+        <v>2</v>
+      </c>
+      <c r="H1518" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1519" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1519">
+        <v>74</v>
+      </c>
+      <c r="C1519" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1519" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1519" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1519">
+        <v>31868</v>
+      </c>
+      <c r="G1519">
+        <v>3</v>
+      </c>
+      <c r="H1519" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1520" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1520">
+        <v>61</v>
+      </c>
+      <c r="C1520" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1520" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1520" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1520">
+        <v>45013</v>
+      </c>
+      <c r="G1520">
+        <v>2</v>
+      </c>
+      <c r="H1520" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1521" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1521">
+        <v>9</v>
+      </c>
+      <c r="C1521" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1521" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1521" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1521">
+        <v>61986</v>
+      </c>
+      <c r="G1521">
+        <v>3</v>
+      </c>
+      <c r="H1521" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1522" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1522">
+        <v>60</v>
+      </c>
+      <c r="C1522" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1522" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1522" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1522">
+        <v>59188</v>
+      </c>
+      <c r="G1522">
+        <v>3</v>
+      </c>
+      <c r="H1522" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1523" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1523">
+        <v>4</v>
+      </c>
+      <c r="C1523" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1523" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1523" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1523">
+        <v>75235</v>
+      </c>
+      <c r="G1523">
+        <v>3</v>
+      </c>
+      <c r="H1523" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1524" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1524">
+        <v>14</v>
+      </c>
+      <c r="C1524" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1524" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1524" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1524">
+        <v>101712</v>
+      </c>
+      <c r="G1524">
+        <v>2</v>
+      </c>
+      <c r="H1524" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1525" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1525">
+        <v>76</v>
+      </c>
+      <c r="C1525" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1525" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1525" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1525">
+        <v>67513</v>
+      </c>
+      <c r="G1525">
+        <v>4</v>
+      </c>
+      <c r="H1525" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1526" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1526">
+        <v>79</v>
+      </c>
+      <c r="C1526" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1526" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1526" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1526">
+        <v>82288</v>
+      </c>
+      <c r="G1526">
+        <v>4</v>
+      </c>
+      <c r="H1526" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1527" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1527">
+        <v>78</v>
+      </c>
+      <c r="C1527" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1527" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1527" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1527">
+        <v>28749</v>
+      </c>
+      <c r="G1527">
+        <v>4</v>
+      </c>
+      <c r="H1527" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1528" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1528">
+        <v>77</v>
+      </c>
+      <c r="C1528" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1528" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1528" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1528">
+        <v>60126</v>
+      </c>
+      <c r="G1528">
+        <v>4</v>
+      </c>
+      <c r="H1528" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1529" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1529">
+        <v>29</v>
+      </c>
+      <c r="C1529" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1529" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1529" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1529">
+        <v>129544</v>
+      </c>
+      <c r="G1529">
+        <v>4</v>
+      </c>
+      <c r="H1529" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1530" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1530">
+        <v>30</v>
+      </c>
+      <c r="C1530" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1530" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1530" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1530">
+        <v>22182</v>
+      </c>
+      <c r="G1530">
+        <v>4</v>
+      </c>
+      <c r="H1530" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1531" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1531">
+        <v>73</v>
+      </c>
+      <c r="C1531" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1531" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1531" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1531">
+        <v>32914</v>
+      </c>
+      <c r="G1531">
+        <v>4</v>
+      </c>
+      <c r="H1531" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1532" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1532">
+        <v>20</v>
+      </c>
+      <c r="C1532" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1532" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1532" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1532">
+        <v>110824</v>
+      </c>
+      <c r="G1532">
+        <v>3</v>
+      </c>
+      <c r="H1532" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1533" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1533">
+        <v>36</v>
+      </c>
+      <c r="C1533" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1533" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1533" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1533">
+        <v>33702</v>
+      </c>
+      <c r="G1533">
+        <v>3</v>
+      </c>
+      <c r="H1533" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1534" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1534">
+        <v>15</v>
+      </c>
+      <c r="C1534" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1534" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1534" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1534">
+        <v>72261</v>
+      </c>
+      <c r="G1534">
+        <v>3</v>
+      </c>
+      <c r="H1534" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1535" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1535">
+        <v>1</v>
+      </c>
+      <c r="C1535" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1535" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1535" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1535">
+        <v>73466</v>
+      </c>
+      <c r="G1535">
+        <v>3</v>
+      </c>
+      <c r="H1535" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1536" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1536">
+        <v>62</v>
+      </c>
+      <c r="C1536" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1536" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1536" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1536">
+        <v>74323</v>
+      </c>
+      <c r="G1536">
+        <v>2</v>
+      </c>
+      <c r="H1536" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1537" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1537">
+        <v>49</v>
+      </c>
+      <c r="C1537" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1537" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1537" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1537">
+        <v>96338</v>
+      </c>
+      <c r="G1537">
+        <v>3</v>
+      </c>
+      <c r="H1537" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1538" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1538">
+        <v>63</v>
+      </c>
+      <c r="C1538" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1538" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1538" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1538">
+        <v>11842</v>
+      </c>
+      <c r="G1538">
+        <v>3</v>
+      </c>
+      <c r="H1538" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1539" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1539">
+        <v>34</v>
+      </c>
+      <c r="C1539" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1539" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1539" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1539">
+        <v>110705</v>
+      </c>
+      <c r="G1539">
+        <v>3</v>
+      </c>
+      <c r="H1539" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1540" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1540">
+        <v>27</v>
+      </c>
+      <c r="C1540" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1540" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1540" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1540">
+        <v>26356</v>
+      </c>
+      <c r="G1540">
+        <v>3</v>
+      </c>
+      <c r="H1540" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1541" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1541">
+        <v>23</v>
+      </c>
+      <c r="C1541" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1541" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1541" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1541">
+        <v>62664</v>
+      </c>
+      <c r="G1541">
+        <v>4</v>
+      </c>
+      <c r="H1541" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1542" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1542">
+        <v>11</v>
+      </c>
+      <c r="C1542" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1542" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1542" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1542">
+        <v>161560</v>
+      </c>
+      <c r="G1542">
+        <v>3</v>
+      </c>
+      <c r="H1542" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1543" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1543">
+        <v>47</v>
+      </c>
+      <c r="C1543" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1543" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1543" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1543">
+        <v>62554</v>
+      </c>
+      <c r="G1543">
+        <v>3</v>
+      </c>
+      <c r="H1543" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1544" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1544">
+        <v>16</v>
+      </c>
+      <c r="C1544" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1544" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1544" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1544">
+        <v>139005</v>
+      </c>
+      <c r="G1544">
+        <v>2</v>
+      </c>
+      <c r="H1544" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1545" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1545">
+        <v>45</v>
+      </c>
+      <c r="C1545" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1545" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1545" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1545">
+        <v>45597</v>
+      </c>
+      <c r="G1545">
+        <v>2</v>
+      </c>
+      <c r="H1545" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1546" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1546">
+        <v>33</v>
+      </c>
+      <c r="C1546" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1546" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1546" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1546">
+        <v>65145</v>
+      </c>
+      <c r="G1546">
+        <v>2</v>
+      </c>
+      <c r="H1546" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1547" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1547">
+        <v>39</v>
+      </c>
+      <c r="C1547" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1547" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1547" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1547">
+        <v>62803</v>
+      </c>
+      <c r="G1547">
+        <v>2</v>
+      </c>
+      <c r="H1547" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1548" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1548">
+        <v>70</v>
+      </c>
+      <c r="C1548" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1548" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1548" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1548">
+        <v>21471</v>
+      </c>
+      <c r="G1548">
+        <v>3</v>
+      </c>
+      <c r="H1548" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1549" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1549">
+        <v>46</v>
+      </c>
+      <c r="C1549" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1549" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1549" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1549">
+        <v>104914</v>
+      </c>
+      <c r="G1549">
+        <v>3</v>
+      </c>
+      <c r="H1549" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1550" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1550">
+        <v>52</v>
+      </c>
+      <c r="C1550" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1550" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1550" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1550">
+        <v>62439</v>
+      </c>
+      <c r="G1550">
+        <v>3</v>
+      </c>
+      <c r="H1550" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1551" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1551">
+        <v>7</v>
+      </c>
+      <c r="C1551" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1551" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1551" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1551">
+        <v>175610</v>
+      </c>
+      <c r="G1551">
+        <v>3</v>
+      </c>
+      <c r="H1551" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1552" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1552">
+        <v>40</v>
+      </c>
+      <c r="C1552" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1552" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1552" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1552">
+        <v>133980</v>
+      </c>
+      <c r="G1552">
+        <v>2</v>
+      </c>
+      <c r="H1552" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1553" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1553">
+        <v>54</v>
+      </c>
+      <c r="C1553" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1553" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1553" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1553">
+        <v>44310</v>
+      </c>
+      <c r="G1553">
+        <v>3</v>
+      </c>
+      <c r="H1553" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1554" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1554">
+        <v>48</v>
+      </c>
+      <c r="C1554" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1554" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1554" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1554">
+        <v>39637</v>
+      </c>
+      <c r="G1554">
+        <v>2</v>
+      </c>
+      <c r="H1554" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1555" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1555">
+        <v>2</v>
+      </c>
+      <c r="C1555" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1555" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1555" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1555">
+        <v>84159</v>
+      </c>
+      <c r="G1555">
+        <v>2</v>
+      </c>
+      <c r="H1555" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1556" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1556">
+        <v>19</v>
+      </c>
+      <c r="C1556" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1556" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1556" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1556">
+        <v>62209</v>
+      </c>
+      <c r="G1556">
+        <v>3</v>
+      </c>
+      <c r="H1556" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1557" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1557">
+        <v>56</v>
+      </c>
+      <c r="C1557" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1557" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1557" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1557">
+        <v>56702</v>
+      </c>
+      <c r="G1557">
+        <v>3</v>
+      </c>
+      <c r="H1557" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1558" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1558">
+        <v>35</v>
+      </c>
+      <c r="C1558" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1558" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1558" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1558">
+        <v>60519</v>
+      </c>
+      <c r="G1558">
+        <v>3</v>
+      </c>
+      <c r="H1558" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1559" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1559">
+        <v>75</v>
+      </c>
+      <c r="C1559" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1559" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1559" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1559">
+        <v>51685</v>
+      </c>
+      <c r="G1559">
+        <v>2</v>
+      </c>
+      <c r="H1559" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1560" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1560">
+        <v>12</v>
+      </c>
+      <c r="C1560" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1560" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1560" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1560">
+        <v>89832</v>
+      </c>
+      <c r="G1560">
+        <v>2</v>
+      </c>
+      <c r="H1560" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1561" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1561">
+        <v>58</v>
+      </c>
+      <c r="C1561" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1561" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1561" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1561">
+        <v>60446</v>
+      </c>
+      <c r="G1561">
+        <v>3</v>
+      </c>
+      <c r="H1561" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1562" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1562">
+        <v>72</v>
+      </c>
+      <c r="C1562" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1562" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1562" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1562">
+        <v>47105</v>
+      </c>
+      <c r="G1562">
+        <v>4</v>
+      </c>
+      <c r="H1562" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1563" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1563">
+        <v>50</v>
+      </c>
+      <c r="C1563" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1563" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1563" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1563">
+        <v>36241</v>
+      </c>
+      <c r="G1563">
+        <v>3</v>
+      </c>
+      <c r="H1563" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1564" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1564">
+        <v>44</v>
+      </c>
+      <c r="C1564" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1564" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1564" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1564">
+        <v>22819</v>
+      </c>
+      <c r="G1564">
+        <v>3</v>
+      </c>
+      <c r="H1564" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1565" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1565">
+        <v>21</v>
+      </c>
+      <c r="C1565" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1565" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1565" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1565">
+        <v>99765</v>
+      </c>
+      <c r="G1565">
+        <v>3</v>
+      </c>
+      <c r="H1565" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1566" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1566">
+        <v>17</v>
+      </c>
+      <c r="C1566" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1566" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1566" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1566">
+        <v>53954</v>
+      </c>
+      <c r="G1566">
+        <v>4</v>
+      </c>
+      <c r="H1566" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1567" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1567">
+        <v>38</v>
+      </c>
+      <c r="C1567" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1567" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1567" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1567">
+        <v>20532</v>
+      </c>
+      <c r="G1567">
+        <v>3</v>
+      </c>
+      <c r="H1567" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1568" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1568">
+        <v>53</v>
+      </c>
+      <c r="C1568" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1568" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1568" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1568">
+        <v>32564</v>
+      </c>
+      <c r="G1568">
+        <v>4</v>
+      </c>
+      <c r="H1568" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1569" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1569">
+        <v>18</v>
+      </c>
+      <c r="C1569" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1569" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1569" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1569">
+        <v>70132</v>
+      </c>
+      <c r="G1569">
+        <v>2</v>
+      </c>
+      <c r="H1569" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1570" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1570">
+        <v>10</v>
+      </c>
+      <c r="C1570" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1570" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1570" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1570">
+        <v>105353</v>
+      </c>
+      <c r="G1570">
+        <v>3</v>
+      </c>
+      <c r="H1570" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1571" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1571">
+        <v>8</v>
+      </c>
+      <c r="C1571" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1571" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1571" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1571">
+        <v>114523</v>
+      </c>
+      <c r="G1571">
+        <v>3</v>
+      </c>
+      <c r="H1571" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1572" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1572">
+        <v>57</v>
+      </c>
+      <c r="C1572" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1572" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1572" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1572">
+        <v>132455</v>
+      </c>
+      <c r="G1572">
+        <v>2</v>
+      </c>
+      <c r="H1572" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1573" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1573">
+        <v>6</v>
+      </c>
+      <c r="C1573" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1573" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1573" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1573">
+        <v>15884</v>
+      </c>
+      <c r="G1573">
+        <v>2</v>
+      </c>
+      <c r="H1573" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1574" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1574">
+        <v>71</v>
+      </c>
+      <c r="C1574" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1574" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1574" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1574">
+        <v>36180</v>
+      </c>
+      <c r="G1574">
+        <v>3</v>
+      </c>
+      <c r="H1574" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1575" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1575">
+        <v>37</v>
+      </c>
+      <c r="C1575" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1575" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1575" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1575">
+        <v>43473</v>
+      </c>
+      <c r="G1575">
+        <v>3</v>
+      </c>
+      <c r="H1575" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1576" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1576">
+        <v>22</v>
+      </c>
+      <c r="C1576" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1576" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1576" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1576">
+        <v>80767</v>
+      </c>
+      <c r="G1576">
+        <v>3</v>
+      </c>
+      <c r="H1576" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1577" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1577">
+        <v>42</v>
+      </c>
+      <c r="C1577" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1577" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1577" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1577">
+        <v>26153</v>
+      </c>
+      <c r="G1577">
+        <v>3</v>
+      </c>
+      <c r="H1577" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1578" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1578">
+        <v>43</v>
+      </c>
+      <c r="C1578" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1578" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1578" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1578">
+        <v>46862</v>
+      </c>
+      <c r="G1578">
+        <v>2</v>
+      </c>
+      <c r="H1578" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1579" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1579">
+        <v>26</v>
+      </c>
+      <c r="C1579" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1579" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1579" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1579">
+        <v>158043</v>
+      </c>
+      <c r="G1579">
+        <v>3</v>
+      </c>
+      <c r="H1579" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1580" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1580">
+        <v>51</v>
+      </c>
+      <c r="C1580" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1580" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1580" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1580">
+        <v>40573</v>
+      </c>
+      <c r="G1580">
+        <v>3</v>
+      </c>
+      <c r="H1580" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1581" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B1581">
+        <v>24</v>
+      </c>
+      <c r="C1581" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1581" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1581" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1581">
+        <v>68759</v>
+      </c>
+      <c r="G1581">
+        <v>2</v>
+      </c>
+      <c r="H1581" t="s">
         <v>98</v>
       </c>
     </row>
@@ -39763,6 +41817,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -39973,12 +42033,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -39989,31 +42043,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5280295C-2A2C-48C4-AC9E-9766062C4F31}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
-    <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4606366C-CC67-4067-BB57-10E9258263A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F180DA5C-A3D8-49E7-A5D5-0477DF8283C9}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/OpenData_Slovakia_CovidAutomat_History.xlsx
+++ b/OpenData_Slovakia_CovidAutomat_History.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{DF98854D-4A74-4BEA-8949-A754D409E20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EFCE632-AF07-4F57-BAC6-87936548A09F}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{DF98854D-4A74-4BEA-8949-A754D409E20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50227180-04AE-41F9-9D0B-C10432C8BBAF}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{817111DC-07F4-49D8-B88A-F51DD2C39FFE}"/>
+    <workbookView xWindow="960" yWindow="-110" windowWidth="18350" windowHeight="11020" xr2:uid="{817111DC-07F4-49D8-B88A-F51DD2C39FFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6328" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="100">
   <si>
     <t>Platne od</t>
   </si>
@@ -689,15 +689,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3118A9E1-7AB7-4959-BB1E-0523D5A0DF60}">
-  <dimension ref="A1:H1581"/>
+  <dimension ref="A1:H1660"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1504" workbookViewId="0">
-      <selection activeCell="A1504" sqref="A1504"/>
+    <sheetView tabSelected="1" topLeftCell="A1637" workbookViewId="0">
+      <selection activeCell="A1660" sqref="A1660"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -41803,6 +41803,2060 @@
         <v>2</v>
       </c>
       <c r="H1581" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1582" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1582">
+        <v>41</v>
+      </c>
+      <c r="C1582" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1582" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1582" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1582">
+        <v>36282</v>
+      </c>
+      <c r="G1582">
+        <v>3</v>
+      </c>
+      <c r="H1582" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1583" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1583">
+        <v>32</v>
+      </c>
+      <c r="C1583" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1583" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1583" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1583">
+        <v>110829</v>
+      </c>
+      <c r="G1583">
+        <v>3</v>
+      </c>
+      <c r="H1583" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1584" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1584">
+        <v>31</v>
+      </c>
+      <c r="C1584" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1584" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1584" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1584">
+        <v>16086</v>
+      </c>
+      <c r="G1584">
+        <v>2</v>
+      </c>
+      <c r="H1584" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1585" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1585">
+        <v>5</v>
+      </c>
+      <c r="C1585" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1585" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1585" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1585">
+        <v>77771</v>
+      </c>
+      <c r="G1585">
+        <v>4</v>
+      </c>
+      <c r="H1585" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1586" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1586">
+        <v>64</v>
+      </c>
+      <c r="C1586" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1586" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1586" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1586">
+        <v>41095</v>
+      </c>
+      <c r="G1586">
+        <v>2</v>
+      </c>
+      <c r="H1586" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1587" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1587">
+        <v>68</v>
+      </c>
+      <c r="C1587" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1587" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1587" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1587">
+        <v>115653</v>
+      </c>
+      <c r="G1587">
+        <v>2</v>
+      </c>
+      <c r="H1587" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1588" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1588">
+        <v>67</v>
+      </c>
+      <c r="C1588" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1588" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1588" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1588">
+        <v>67913</v>
+      </c>
+      <c r="G1588">
+        <v>2</v>
+      </c>
+      <c r="H1588" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1589" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1589">
+        <v>66</v>
+      </c>
+      <c r="C1589" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1589" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1589" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1589">
+        <v>97261</v>
+      </c>
+      <c r="G1589">
+        <v>2</v>
+      </c>
+      <c r="H1589" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1590" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1590">
+        <v>65</v>
+      </c>
+      <c r="C1590" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1590" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1590" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1590">
+        <v>110942</v>
+      </c>
+      <c r="G1590">
+        <v>2</v>
+      </c>
+      <c r="H1590" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1591" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1591">
+        <v>28</v>
+      </c>
+      <c r="C1591" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1591" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1591" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1591">
+        <v>61450</v>
+      </c>
+      <c r="G1591">
+        <v>3</v>
+      </c>
+      <c r="H1591" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1592" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1592">
+        <v>25</v>
+      </c>
+      <c r="C1592" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1592" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1592" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1592">
+        <v>30917</v>
+      </c>
+      <c r="G1592">
+        <v>3</v>
+      </c>
+      <c r="H1592" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1593" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1593">
+        <v>59</v>
+      </c>
+      <c r="C1593" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1593" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1593" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1593">
+        <v>90080</v>
+      </c>
+      <c r="G1593">
+        <v>4</v>
+      </c>
+      <c r="H1593" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1594" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1594">
+        <v>69</v>
+      </c>
+      <c r="C1594" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1594" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1594" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1594">
+        <v>32051</v>
+      </c>
+      <c r="G1594">
+        <v>4</v>
+      </c>
+      <c r="H1594" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1595" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1595">
+        <v>55</v>
+      </c>
+      <c r="C1595" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1595" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1595" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1595">
+        <v>39457</v>
+      </c>
+      <c r="G1595">
+        <v>3</v>
+      </c>
+      <c r="H1595" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1596" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1596">
+        <v>13</v>
+      </c>
+      <c r="C1596" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1596" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1596" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1596">
+        <v>122358</v>
+      </c>
+      <c r="G1596">
+        <v>2</v>
+      </c>
+      <c r="H1596" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1597" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1597">
+        <v>3</v>
+      </c>
+      <c r="C1597" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1597" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1597" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1597">
+        <v>94076</v>
+      </c>
+      <c r="G1597">
+        <v>2</v>
+      </c>
+      <c r="H1597" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1598" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1598">
+        <v>74</v>
+      </c>
+      <c r="C1598" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1598" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1598" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1598">
+        <v>31868</v>
+      </c>
+      <c r="G1598">
+        <v>3</v>
+      </c>
+      <c r="H1598" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1599" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1599">
+        <v>61</v>
+      </c>
+      <c r="C1599" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1599" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1599" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1599">
+        <v>45013</v>
+      </c>
+      <c r="G1599">
+        <v>2</v>
+      </c>
+      <c r="H1599" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1600" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1600">
+        <v>9</v>
+      </c>
+      <c r="C1600" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1600" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1600" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1600">
+        <v>61986</v>
+      </c>
+      <c r="G1600">
+        <v>4</v>
+      </c>
+      <c r="H1600" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1601" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1601">
+        <v>60</v>
+      </c>
+      <c r="C1601" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1601" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1601" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1601">
+        <v>59188</v>
+      </c>
+      <c r="G1601">
+        <v>3</v>
+      </c>
+      <c r="H1601" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1602" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1602">
+        <v>4</v>
+      </c>
+      <c r="C1602" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1602" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1602" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1602">
+        <v>75235</v>
+      </c>
+      <c r="G1602">
+        <v>3</v>
+      </c>
+      <c r="H1602" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1603" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1603">
+        <v>14</v>
+      </c>
+      <c r="C1603" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1603" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1603" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1603">
+        <v>101712</v>
+      </c>
+      <c r="G1603">
+        <v>2</v>
+      </c>
+      <c r="H1603" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1604" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1604">
+        <v>76</v>
+      </c>
+      <c r="C1604" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1604" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1604" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1604">
+        <v>67513</v>
+      </c>
+      <c r="G1604">
+        <v>4</v>
+      </c>
+      <c r="H1604" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1605" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1605">
+        <v>79</v>
+      </c>
+      <c r="C1605" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1605" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1605" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1605">
+        <v>82288</v>
+      </c>
+      <c r="G1605">
+        <v>4</v>
+      </c>
+      <c r="H1605" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1606" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1606">
+        <v>78</v>
+      </c>
+      <c r="C1606" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1606" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1606" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1606">
+        <v>28749</v>
+      </c>
+      <c r="G1606">
+        <v>4</v>
+      </c>
+      <c r="H1606" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1607" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1607">
+        <v>77</v>
+      </c>
+      <c r="C1607" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1607" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1607" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1607">
+        <v>60126</v>
+      </c>
+      <c r="G1607">
+        <v>4</v>
+      </c>
+      <c r="H1607" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1608" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1608">
+        <v>29</v>
+      </c>
+      <c r="C1608" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1608" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1608" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1608">
+        <v>129544</v>
+      </c>
+      <c r="G1608">
+        <v>4</v>
+      </c>
+      <c r="H1608" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1609" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1609">
+        <v>30</v>
+      </c>
+      <c r="C1609" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1609" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1609" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1609">
+        <v>22182</v>
+      </c>
+      <c r="G1609">
+        <v>3</v>
+      </c>
+      <c r="H1609" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1610" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1610">
+        <v>73</v>
+      </c>
+      <c r="C1610" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1610" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1610" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1610">
+        <v>32914</v>
+      </c>
+      <c r="G1610">
+        <v>4</v>
+      </c>
+      <c r="H1610" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1611" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1611">
+        <v>20</v>
+      </c>
+      <c r="C1611" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1611" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1611" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1611">
+        <v>110824</v>
+      </c>
+      <c r="G1611">
+        <v>3</v>
+      </c>
+      <c r="H1611" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1612" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1612">
+        <v>36</v>
+      </c>
+      <c r="C1612" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1612" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1612" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1612">
+        <v>33702</v>
+      </c>
+      <c r="G1612">
+        <v>3</v>
+      </c>
+      <c r="H1612" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1613" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1613">
+        <v>15</v>
+      </c>
+      <c r="C1613" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1613" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1613" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1613">
+        <v>72261</v>
+      </c>
+      <c r="G1613">
+        <v>3</v>
+      </c>
+      <c r="H1613" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1614" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1614">
+        <v>1</v>
+      </c>
+      <c r="C1614" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1614" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1614" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1614">
+        <v>73466</v>
+      </c>
+      <c r="G1614">
+        <v>3</v>
+      </c>
+      <c r="H1614" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1615" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1615">
+        <v>62</v>
+      </c>
+      <c r="C1615" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1615" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1615" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1615">
+        <v>74323</v>
+      </c>
+      <c r="G1615">
+        <v>2</v>
+      </c>
+      <c r="H1615" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1616" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1616">
+        <v>49</v>
+      </c>
+      <c r="C1616" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1616" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1616" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1616">
+        <v>96338</v>
+      </c>
+      <c r="G1616">
+        <v>3</v>
+      </c>
+      <c r="H1616" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1617" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1617">
+        <v>63</v>
+      </c>
+      <c r="C1617" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1617" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1617" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1617">
+        <v>11842</v>
+      </c>
+      <c r="G1617">
+        <v>3</v>
+      </c>
+      <c r="H1617" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1618" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1618">
+        <v>34</v>
+      </c>
+      <c r="C1618" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1618" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1618" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1618">
+        <v>110705</v>
+      </c>
+      <c r="G1618">
+        <v>3</v>
+      </c>
+      <c r="H1618" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1619" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1619">
+        <v>27</v>
+      </c>
+      <c r="C1619" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1619" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1619" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1619">
+        <v>26356</v>
+      </c>
+      <c r="G1619">
+        <v>3</v>
+      </c>
+      <c r="H1619" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1620" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1620">
+        <v>23</v>
+      </c>
+      <c r="C1620" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1620" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1620" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1620">
+        <v>62664</v>
+      </c>
+      <c r="G1620">
+        <v>4</v>
+      </c>
+      <c r="H1620" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1621" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1621">
+        <v>11</v>
+      </c>
+      <c r="C1621" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1621" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1621" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1621">
+        <v>161560</v>
+      </c>
+      <c r="G1621">
+        <v>3</v>
+      </c>
+      <c r="H1621" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1622" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1622">
+        <v>47</v>
+      </c>
+      <c r="C1622" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1622" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1622" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1622">
+        <v>62554</v>
+      </c>
+      <c r="G1622">
+        <v>3</v>
+      </c>
+      <c r="H1622" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1623" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1623">
+        <v>16</v>
+      </c>
+      <c r="C1623" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1623" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1623" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1623">
+        <v>139005</v>
+      </c>
+      <c r="G1623">
+        <v>2</v>
+      </c>
+      <c r="H1623" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1624" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1624">
+        <v>45</v>
+      </c>
+      <c r="C1624" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1624" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1624" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1624">
+        <v>45597</v>
+      </c>
+      <c r="G1624">
+        <v>2</v>
+      </c>
+      <c r="H1624" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1625" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1625">
+        <v>33</v>
+      </c>
+      <c r="C1625" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1625" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1625" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1625">
+        <v>65145</v>
+      </c>
+      <c r="G1625">
+        <v>2</v>
+      </c>
+      <c r="H1625" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1626" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1626">
+        <v>39</v>
+      </c>
+      <c r="C1626" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1626" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1626" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1626">
+        <v>62803</v>
+      </c>
+      <c r="G1626">
+        <v>3</v>
+      </c>
+      <c r="H1626" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1627" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1627">
+        <v>70</v>
+      </c>
+      <c r="C1627" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1627" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1627" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1627">
+        <v>21471</v>
+      </c>
+      <c r="G1627">
+        <v>3</v>
+      </c>
+      <c r="H1627" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1628" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1628">
+        <v>46</v>
+      </c>
+      <c r="C1628" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1628" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1628" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1628">
+        <v>104914</v>
+      </c>
+      <c r="G1628">
+        <v>3</v>
+      </c>
+      <c r="H1628" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1629" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1629">
+        <v>52</v>
+      </c>
+      <c r="C1629" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1629" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1629" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1629">
+        <v>62439</v>
+      </c>
+      <c r="G1629">
+        <v>3</v>
+      </c>
+      <c r="H1629" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1630" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1630">
+        <v>7</v>
+      </c>
+      <c r="C1630" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1630" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1630" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1630">
+        <v>175610</v>
+      </c>
+      <c r="G1630">
+        <v>3</v>
+      </c>
+      <c r="H1630" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1631" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1631">
+        <v>40</v>
+      </c>
+      <c r="C1631" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1631" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1631" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1631">
+        <v>133980</v>
+      </c>
+      <c r="G1631">
+        <v>2</v>
+      </c>
+      <c r="H1631" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1632" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1632">
+        <v>54</v>
+      </c>
+      <c r="C1632" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1632" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1632" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1632">
+        <v>44310</v>
+      </c>
+      <c r="G1632">
+        <v>3</v>
+      </c>
+      <c r="H1632" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1633" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1633">
+        <v>48</v>
+      </c>
+      <c r="C1633" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1633" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1633" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1633">
+        <v>39637</v>
+      </c>
+      <c r="G1633">
+        <v>3</v>
+      </c>
+      <c r="H1633" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1634" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1634">
+        <v>2</v>
+      </c>
+      <c r="C1634" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1634" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1634" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1634">
+        <v>84159</v>
+      </c>
+      <c r="G1634">
+        <v>3</v>
+      </c>
+      <c r="H1634" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1635" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1635">
+        <v>19</v>
+      </c>
+      <c r="C1635" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1635" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1635" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1635">
+        <v>62209</v>
+      </c>
+      <c r="G1635">
+        <v>3</v>
+      </c>
+      <c r="H1635" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1636" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1636">
+        <v>56</v>
+      </c>
+      <c r="C1636" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1636" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1636" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1636">
+        <v>56702</v>
+      </c>
+      <c r="G1636">
+        <v>4</v>
+      </c>
+      <c r="H1636" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1637" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1637">
+        <v>35</v>
+      </c>
+      <c r="C1637" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1637" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1637" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1637">
+        <v>60519</v>
+      </c>
+      <c r="G1637">
+        <v>3</v>
+      </c>
+      <c r="H1637" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1638" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1638">
+        <v>75</v>
+      </c>
+      <c r="C1638" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1638" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1638" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1638">
+        <v>51685</v>
+      </c>
+      <c r="G1638">
+        <v>2</v>
+      </c>
+      <c r="H1638" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1639" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1639">
+        <v>12</v>
+      </c>
+      <c r="C1639" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1639" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1639" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1639">
+        <v>89832</v>
+      </c>
+      <c r="G1639">
+        <v>2</v>
+      </c>
+      <c r="H1639" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1640" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1640">
+        <v>58</v>
+      </c>
+      <c r="C1640" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1640" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1640" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1640">
+        <v>60446</v>
+      </c>
+      <c r="G1640">
+        <v>3</v>
+      </c>
+      <c r="H1640" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1641" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1641">
+        <v>72</v>
+      </c>
+      <c r="C1641" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1641" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1641" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1641">
+        <v>47105</v>
+      </c>
+      <c r="G1641">
+        <v>4</v>
+      </c>
+      <c r="H1641" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1642" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1642">
+        <v>50</v>
+      </c>
+      <c r="C1642" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1642" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1642" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1642">
+        <v>36241</v>
+      </c>
+      <c r="G1642">
+        <v>3</v>
+      </c>
+      <c r="H1642" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1643" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1643">
+        <v>44</v>
+      </c>
+      <c r="C1643" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1643" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1643" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1643">
+        <v>22819</v>
+      </c>
+      <c r="G1643">
+        <v>3</v>
+      </c>
+      <c r="H1643" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1644" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1644">
+        <v>21</v>
+      </c>
+      <c r="C1644" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1644" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1644" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1644">
+        <v>99765</v>
+      </c>
+      <c r="G1644">
+        <v>3</v>
+      </c>
+      <c r="H1644" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1645" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1645">
+        <v>17</v>
+      </c>
+      <c r="C1645" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1645" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1645" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1645">
+        <v>53954</v>
+      </c>
+      <c r="G1645">
+        <v>4</v>
+      </c>
+      <c r="H1645" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1646" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1646">
+        <v>38</v>
+      </c>
+      <c r="C1646" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1646" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1646" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1646">
+        <v>20532</v>
+      </c>
+      <c r="G1646">
+        <v>4</v>
+      </c>
+      <c r="H1646" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1647" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1647">
+        <v>53</v>
+      </c>
+      <c r="C1647" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1647" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1647" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1647">
+        <v>32564</v>
+      </c>
+      <c r="G1647">
+        <v>4</v>
+      </c>
+      <c r="H1647" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1648" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1648">
+        <v>18</v>
+      </c>
+      <c r="C1648" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1648" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1648" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1648">
+        <v>70132</v>
+      </c>
+      <c r="G1648">
+        <v>2</v>
+      </c>
+      <c r="H1648" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1649" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1649">
+        <v>10</v>
+      </c>
+      <c r="C1649" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1649" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1649" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1649">
+        <v>105353</v>
+      </c>
+      <c r="G1649">
+        <v>3</v>
+      </c>
+      <c r="H1649" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1650" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1650">
+        <v>8</v>
+      </c>
+      <c r="C1650" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1650" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1650" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1650">
+        <v>114523</v>
+      </c>
+      <c r="G1650">
+        <v>3</v>
+      </c>
+      <c r="H1650" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1651" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1651">
+        <v>57</v>
+      </c>
+      <c r="C1651" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1651" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1651" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1651">
+        <v>132455</v>
+      </c>
+      <c r="G1651">
+        <v>2</v>
+      </c>
+      <c r="H1651" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1652" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1652">
+        <v>6</v>
+      </c>
+      <c r="C1652" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1652" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1652" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1652">
+        <v>15884</v>
+      </c>
+      <c r="G1652">
+        <v>2</v>
+      </c>
+      <c r="H1652" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1653" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1653">
+        <v>71</v>
+      </c>
+      <c r="C1653" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1653" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1653" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1653">
+        <v>36180</v>
+      </c>
+      <c r="G1653">
+        <v>3</v>
+      </c>
+      <c r="H1653" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1654" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1654">
+        <v>37</v>
+      </c>
+      <c r="C1654" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1654" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1654" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1654">
+        <v>43473</v>
+      </c>
+      <c r="G1654">
+        <v>3</v>
+      </c>
+      <c r="H1654" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1655" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1655">
+        <v>22</v>
+      </c>
+      <c r="C1655" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1655" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1655" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1655">
+        <v>80767</v>
+      </c>
+      <c r="G1655">
+        <v>3</v>
+      </c>
+      <c r="H1655" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1656" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1656">
+        <v>42</v>
+      </c>
+      <c r="C1656" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1656" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1656" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1656">
+        <v>26153</v>
+      </c>
+      <c r="G1656">
+        <v>3</v>
+      </c>
+      <c r="H1656" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1657" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1657">
+        <v>43</v>
+      </c>
+      <c r="C1657" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1657" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1657" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1657">
+        <v>46862</v>
+      </c>
+      <c r="G1657">
+        <v>3</v>
+      </c>
+      <c r="H1657" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1658" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1658">
+        <v>26</v>
+      </c>
+      <c r="C1658" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1658" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1658" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1658">
+        <v>158043</v>
+      </c>
+      <c r="G1658">
+        <v>3</v>
+      </c>
+      <c r="H1658" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1659" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1659">
+        <v>51</v>
+      </c>
+      <c r="C1659" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1659" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1659" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1659">
+        <v>40573</v>
+      </c>
+      <c r="G1659">
+        <v>3</v>
+      </c>
+      <c r="H1659" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1660" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B1660">
+        <v>24</v>
+      </c>
+      <c r="C1660" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1660" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1660" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1660">
+        <v>68759</v>
+      </c>
+      <c r="G1660">
+        <v>3</v>
+      </c>
+      <c r="H1660" t="s">
         <v>98</v>
       </c>
     </row>
@@ -41817,12 +43871,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -42033,6 +44081,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -42043,16 +44097,31 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F180DA5C-A3D8-49E7-A5D5-0477DF8283C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
+    <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4606366C-CC67-4067-BB57-10E9258263A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F180DA5C-A3D8-49E7-A5D5-0477DF8283C9}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/OpenData_Slovakia_CovidAutomat_History.xlsx
+++ b/OpenData_Slovakia_CovidAutomat_History.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{DF98854D-4A74-4BEA-8949-A754D409E20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E723D159-7A3A-40D8-91F0-DB882401AEA6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C96AAB48-002E-4CD7-ADA8-DB8B10F7E0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{817111DC-07F4-49D8-B88A-F51DD2C39FFE}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9172" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9488" uniqueCount="101">
   <si>
     <t>Platne od</t>
   </si>
@@ -692,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3118A9E1-7AB7-4959-BB1E-0523D5A0DF60}">
-  <dimension ref="A1:H2292"/>
+  <dimension ref="A1:H2371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2258" workbookViewId="0">
-      <selection activeCell="H2292" sqref="H2292"/>
+    <sheetView tabSelected="1" topLeftCell="A2279" workbookViewId="0">
+      <selection activeCell="G2299" sqref="G2299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -60292,6 +60292,2060 @@
         <v>3</v>
       </c>
       <c r="H2292" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2293" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2293">
+        <v>41</v>
+      </c>
+      <c r="C2293" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2293" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2293" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2293">
+        <v>36282</v>
+      </c>
+      <c r="G2293">
+        <v>3</v>
+      </c>
+      <c r="H2293" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2294" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2294">
+        <v>32</v>
+      </c>
+      <c r="C2294" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2294" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2294" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2294">
+        <v>110829</v>
+      </c>
+      <c r="G2294">
+        <v>4</v>
+      </c>
+      <c r="H2294" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2295" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2295">
+        <v>31</v>
+      </c>
+      <c r="C2295" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2295" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2295" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2295">
+        <v>16086</v>
+      </c>
+      <c r="G2295">
+        <v>3</v>
+      </c>
+      <c r="H2295" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2296" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2296">
+        <v>5</v>
+      </c>
+      <c r="C2296" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2296" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2296" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2296">
+        <v>77771</v>
+      </c>
+      <c r="G2296">
+        <v>5</v>
+      </c>
+      <c r="H2296" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2297" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2297">
+        <v>64</v>
+      </c>
+      <c r="C2297" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2297" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2297" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2297">
+        <v>41095</v>
+      </c>
+      <c r="G2297">
+        <v>2</v>
+      </c>
+      <c r="H2297" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2298" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2298">
+        <v>68</v>
+      </c>
+      <c r="C2298" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2298" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2298" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2298">
+        <v>115653</v>
+      </c>
+      <c r="G2298">
+        <v>2</v>
+      </c>
+      <c r="H2298" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2299" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2299">
+        <v>67</v>
+      </c>
+      <c r="C2299" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2299" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2299" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2299">
+        <v>67913</v>
+      </c>
+      <c r="G2299">
+        <v>2</v>
+      </c>
+      <c r="H2299" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2300" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2300">
+        <v>66</v>
+      </c>
+      <c r="C2300" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2300" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2300" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2300">
+        <v>97261</v>
+      </c>
+      <c r="G2300">
+        <v>2</v>
+      </c>
+      <c r="H2300" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2301" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2301">
+        <v>65</v>
+      </c>
+      <c r="C2301" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2301" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2301" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2301">
+        <v>110942</v>
+      </c>
+      <c r="G2301">
+        <v>2</v>
+      </c>
+      <c r="H2301" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2302" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2302">
+        <v>28</v>
+      </c>
+      <c r="C2302" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2302" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2302" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2302">
+        <v>61450</v>
+      </c>
+      <c r="G2302">
+        <v>3</v>
+      </c>
+      <c r="H2302" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2303" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2303">
+        <v>25</v>
+      </c>
+      <c r="C2303" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2303" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2303" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2303">
+        <v>30917</v>
+      </c>
+      <c r="G2303">
+        <v>4</v>
+      </c>
+      <c r="H2303" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2304" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2304">
+        <v>59</v>
+      </c>
+      <c r="C2304" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2304" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2304" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2304">
+        <v>90080</v>
+      </c>
+      <c r="G2304">
+        <v>5</v>
+      </c>
+      <c r="H2304" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2305" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2305">
+        <v>69</v>
+      </c>
+      <c r="C2305" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2305" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2305" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2305">
+        <v>32051</v>
+      </c>
+      <c r="G2305">
+        <v>4</v>
+      </c>
+      <c r="H2305" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2306" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2306">
+        <v>55</v>
+      </c>
+      <c r="C2306" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2306" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2306" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2306">
+        <v>39457</v>
+      </c>
+      <c r="G2306">
+        <v>4</v>
+      </c>
+      <c r="H2306" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2307" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2307">
+        <v>13</v>
+      </c>
+      <c r="C2307" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2307" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2307" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2307">
+        <v>122358</v>
+      </c>
+      <c r="G2307">
+        <v>2</v>
+      </c>
+      <c r="H2307" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2308" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2308">
+        <v>3</v>
+      </c>
+      <c r="C2308" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2308" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2308" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2308">
+        <v>94076</v>
+      </c>
+      <c r="G2308">
+        <v>2</v>
+      </c>
+      <c r="H2308" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2309" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2309">
+        <v>74</v>
+      </c>
+      <c r="C2309" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2309" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2309" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2309">
+        <v>31868</v>
+      </c>
+      <c r="G2309">
+        <v>3</v>
+      </c>
+      <c r="H2309" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2310" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2310">
+        <v>61</v>
+      </c>
+      <c r="C2310" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2310" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2310" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2310">
+        <v>45013</v>
+      </c>
+      <c r="G2310">
+        <v>3</v>
+      </c>
+      <c r="H2310" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2311" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2311">
+        <v>9</v>
+      </c>
+      <c r="C2311" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2311" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2311" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2311">
+        <v>61986</v>
+      </c>
+      <c r="G2311">
+        <v>4</v>
+      </c>
+      <c r="H2311" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2312" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2312">
+        <v>60</v>
+      </c>
+      <c r="C2312" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2312" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2312" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2312">
+        <v>59188</v>
+      </c>
+      <c r="G2312">
+        <v>3</v>
+      </c>
+      <c r="H2312" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2313" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2313">
+        <v>4</v>
+      </c>
+      <c r="C2313" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2313" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2313" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2313">
+        <v>75235</v>
+      </c>
+      <c r="G2313">
+        <v>4</v>
+      </c>
+      <c r="H2313" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2314" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2314">
+        <v>14</v>
+      </c>
+      <c r="C2314" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2314" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2314" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2314">
+        <v>101712</v>
+      </c>
+      <c r="G2314">
+        <v>2</v>
+      </c>
+      <c r="H2314" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2315" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2315">
+        <v>76</v>
+      </c>
+      <c r="C2315" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2315" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2315" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2315">
+        <v>67513</v>
+      </c>
+      <c r="G2315">
+        <v>4</v>
+      </c>
+      <c r="H2315" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2316" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2316">
+        <v>79</v>
+      </c>
+      <c r="C2316" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2316" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2316" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2316">
+        <v>82288</v>
+      </c>
+      <c r="G2316">
+        <v>4</v>
+      </c>
+      <c r="H2316" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2317" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2317">
+        <v>78</v>
+      </c>
+      <c r="C2317" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2317" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2317" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2317">
+        <v>28749</v>
+      </c>
+      <c r="G2317">
+        <v>4</v>
+      </c>
+      <c r="H2317" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2318" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2318">
+        <v>77</v>
+      </c>
+      <c r="C2318" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2318" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2318" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2318">
+        <v>60126</v>
+      </c>
+      <c r="G2318">
+        <v>4</v>
+      </c>
+      <c r="H2318" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2319" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2319">
+        <v>29</v>
+      </c>
+      <c r="C2319" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2319" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2319" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2319">
+        <v>129544</v>
+      </c>
+      <c r="G2319">
+        <v>4</v>
+      </c>
+      <c r="H2319" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2320" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2320">
+        <v>30</v>
+      </c>
+      <c r="C2320" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2320" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2320" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2320">
+        <v>22182</v>
+      </c>
+      <c r="G2320">
+        <v>4</v>
+      </c>
+      <c r="H2320" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2321" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2321">
+        <v>73</v>
+      </c>
+      <c r="C2321" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2321" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2321" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2321">
+        <v>32914</v>
+      </c>
+      <c r="G2321">
+        <v>5</v>
+      </c>
+      <c r="H2321" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2322" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2322">
+        <v>20</v>
+      </c>
+      <c r="C2322" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2322" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2322" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2322">
+        <v>110824</v>
+      </c>
+      <c r="G2322">
+        <v>3</v>
+      </c>
+      <c r="H2322" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2323" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2323">
+        <v>36</v>
+      </c>
+      <c r="C2323" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2323" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2323" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2323">
+        <v>33702</v>
+      </c>
+      <c r="G2323">
+        <v>5</v>
+      </c>
+      <c r="H2323" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2324" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2324">
+        <v>15</v>
+      </c>
+      <c r="C2324" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2324" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2324" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2324">
+        <v>72261</v>
+      </c>
+      <c r="G2324">
+        <v>4</v>
+      </c>
+      <c r="H2324" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2325" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2325">
+        <v>1</v>
+      </c>
+      <c r="C2325" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2325" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2325" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2325">
+        <v>73466</v>
+      </c>
+      <c r="G2325">
+        <v>4</v>
+      </c>
+      <c r="H2325" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2326" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2326">
+        <v>62</v>
+      </c>
+      <c r="C2326" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2326" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2326" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2326">
+        <v>74323</v>
+      </c>
+      <c r="G2326">
+        <v>3</v>
+      </c>
+      <c r="H2326" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2327" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2327">
+        <v>49</v>
+      </c>
+      <c r="C2327" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2327" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2327" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2327">
+        <v>96338</v>
+      </c>
+      <c r="G2327">
+        <v>4</v>
+      </c>
+      <c r="H2327" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2328" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2328">
+        <v>63</v>
+      </c>
+      <c r="C2328" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2328" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2328" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2328">
+        <v>11842</v>
+      </c>
+      <c r="G2328">
+        <v>4</v>
+      </c>
+      <c r="H2328" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2329" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2329">
+        <v>34</v>
+      </c>
+      <c r="C2329" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2329" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2329" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2329">
+        <v>110705</v>
+      </c>
+      <c r="G2329">
+        <v>5</v>
+      </c>
+      <c r="H2329" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2330" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2330">
+        <v>27</v>
+      </c>
+      <c r="C2330" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2330" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2330" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2330">
+        <v>26356</v>
+      </c>
+      <c r="G2330">
+        <v>3</v>
+      </c>
+      <c r="H2330" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2331" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2331">
+        <v>23</v>
+      </c>
+      <c r="C2331" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2331" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2331" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2331">
+        <v>62664</v>
+      </c>
+      <c r="G2331">
+        <v>4</v>
+      </c>
+      <c r="H2331" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2332" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2332">
+        <v>11</v>
+      </c>
+      <c r="C2332" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2332" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2332" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2332">
+        <v>161560</v>
+      </c>
+      <c r="G2332">
+        <v>3</v>
+      </c>
+      <c r="H2332" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2333" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2333">
+        <v>47</v>
+      </c>
+      <c r="C2333" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2333" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2333" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2333">
+        <v>62554</v>
+      </c>
+      <c r="G2333">
+        <v>3</v>
+      </c>
+      <c r="H2333" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2334" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2334">
+        <v>16</v>
+      </c>
+      <c r="C2334" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2334" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2334" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2334">
+        <v>139005</v>
+      </c>
+      <c r="G2334">
+        <v>3</v>
+      </c>
+      <c r="H2334" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2335" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2335">
+        <v>45</v>
+      </c>
+      <c r="C2335" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2335" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2335" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2335">
+        <v>45597</v>
+      </c>
+      <c r="G2335">
+        <v>2</v>
+      </c>
+      <c r="H2335" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2336" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2336">
+        <v>33</v>
+      </c>
+      <c r="C2336" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2336" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2336" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2336">
+        <v>65145</v>
+      </c>
+      <c r="G2336">
+        <v>2</v>
+      </c>
+      <c r="H2336" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2337" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2337">
+        <v>39</v>
+      </c>
+      <c r="C2337" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2337" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2337" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2337">
+        <v>62803</v>
+      </c>
+      <c r="G2337">
+        <v>3</v>
+      </c>
+      <c r="H2337" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2338" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2338">
+        <v>70</v>
+      </c>
+      <c r="C2338" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2338" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2338" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2338">
+        <v>21471</v>
+      </c>
+      <c r="G2338">
+        <v>4</v>
+      </c>
+      <c r="H2338" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2339" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2339">
+        <v>46</v>
+      </c>
+      <c r="C2339" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2339" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2339" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2339">
+        <v>104914</v>
+      </c>
+      <c r="G2339">
+        <v>4</v>
+      </c>
+      <c r="H2339" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2340" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2340">
+        <v>52</v>
+      </c>
+      <c r="C2340" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2340" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2340" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2340">
+        <v>62439</v>
+      </c>
+      <c r="G2340">
+        <v>3</v>
+      </c>
+      <c r="H2340" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2341" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2341">
+        <v>7</v>
+      </c>
+      <c r="C2341" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2341" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2341" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2341">
+        <v>175610</v>
+      </c>
+      <c r="G2341">
+        <v>4</v>
+      </c>
+      <c r="H2341" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2342" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2342">
+        <v>40</v>
+      </c>
+      <c r="C2342" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2342" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2342" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2342">
+        <v>133980</v>
+      </c>
+      <c r="G2342">
+        <v>3</v>
+      </c>
+      <c r="H2342" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2343" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2343">
+        <v>54</v>
+      </c>
+      <c r="C2343" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2343" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2343" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2343">
+        <v>44310</v>
+      </c>
+      <c r="G2343">
+        <v>3</v>
+      </c>
+      <c r="H2343" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2344" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2344">
+        <v>48</v>
+      </c>
+      <c r="C2344" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2344" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2344" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2344">
+        <v>39637</v>
+      </c>
+      <c r="G2344">
+        <v>3</v>
+      </c>
+      <c r="H2344" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2345" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2345">
+        <v>2</v>
+      </c>
+      <c r="C2345" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2345" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2345" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2345">
+        <v>84159</v>
+      </c>
+      <c r="G2345">
+        <v>3</v>
+      </c>
+      <c r="H2345" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2346" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2346">
+        <v>19</v>
+      </c>
+      <c r="C2346" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2346" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2346" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2346">
+        <v>62209</v>
+      </c>
+      <c r="G2346">
+        <v>3</v>
+      </c>
+      <c r="H2346" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2347" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2347">
+        <v>56</v>
+      </c>
+      <c r="C2347" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2347" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2347" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2347">
+        <v>56702</v>
+      </c>
+      <c r="G2347">
+        <v>4</v>
+      </c>
+      <c r="H2347" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2348" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2348">
+        <v>35</v>
+      </c>
+      <c r="C2348" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2348" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2348" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2348">
+        <v>60519</v>
+      </c>
+      <c r="G2348">
+        <v>5</v>
+      </c>
+      <c r="H2348" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2349" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2349">
+        <v>75</v>
+      </c>
+      <c r="C2349" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2349" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2349" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2349">
+        <v>51685</v>
+      </c>
+      <c r="G2349">
+        <v>2</v>
+      </c>
+      <c r="H2349" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2350" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2350">
+        <v>12</v>
+      </c>
+      <c r="C2350" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2350" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2350" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2350">
+        <v>89832</v>
+      </c>
+      <c r="G2350">
+        <v>3</v>
+      </c>
+      <c r="H2350" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2351" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2351">
+        <v>58</v>
+      </c>
+      <c r="C2351" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2351" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2351" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2351">
+        <v>60446</v>
+      </c>
+      <c r="G2351">
+        <v>3</v>
+      </c>
+      <c r="H2351" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2352" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2352">
+        <v>72</v>
+      </c>
+      <c r="C2352" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2352" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2352" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2352">
+        <v>47105</v>
+      </c>
+      <c r="G2352">
+        <v>4</v>
+      </c>
+      <c r="H2352" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2353" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2353">
+        <v>50</v>
+      </c>
+      <c r="C2353" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2353" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2353" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2353">
+        <v>36241</v>
+      </c>
+      <c r="G2353">
+        <v>4</v>
+      </c>
+      <c r="H2353" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2354" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2354">
+        <v>44</v>
+      </c>
+      <c r="C2354" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2354" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2354" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2354">
+        <v>22819</v>
+      </c>
+      <c r="G2354">
+        <v>4</v>
+      </c>
+      <c r="H2354" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2355" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2355">
+        <v>21</v>
+      </c>
+      <c r="C2355" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2355" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2355" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2355">
+        <v>99765</v>
+      </c>
+      <c r="G2355">
+        <v>4</v>
+      </c>
+      <c r="H2355" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2356" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2356">
+        <v>17</v>
+      </c>
+      <c r="C2356" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2356" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2356" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2356">
+        <v>53954</v>
+      </c>
+      <c r="G2356">
+        <v>5</v>
+      </c>
+      <c r="H2356" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2357" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2357">
+        <v>38</v>
+      </c>
+      <c r="C2357" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2357" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2357" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2357">
+        <v>20532</v>
+      </c>
+      <c r="G2357">
+        <v>5</v>
+      </c>
+      <c r="H2357" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2358" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2358">
+        <v>53</v>
+      </c>
+      <c r="C2358" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2358" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2358" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2358">
+        <v>32564</v>
+      </c>
+      <c r="G2358">
+        <v>5</v>
+      </c>
+      <c r="H2358" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2359" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2359">
+        <v>18</v>
+      </c>
+      <c r="C2359" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2359" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2359" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2359">
+        <v>70132</v>
+      </c>
+      <c r="G2359">
+        <v>3</v>
+      </c>
+      <c r="H2359" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2360" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2360">
+        <v>10</v>
+      </c>
+      <c r="C2360" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2360" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2360" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2360">
+        <v>105353</v>
+      </c>
+      <c r="G2360">
+        <v>4</v>
+      </c>
+      <c r="H2360" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2361" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2361">
+        <v>8</v>
+      </c>
+      <c r="C2361" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2361" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2361" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2361">
+        <v>114523</v>
+      </c>
+      <c r="G2361">
+        <v>3</v>
+      </c>
+      <c r="H2361" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2362" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2362">
+        <v>57</v>
+      </c>
+      <c r="C2362" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2362" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2362" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2362">
+        <v>132455</v>
+      </c>
+      <c r="G2362">
+        <v>2</v>
+      </c>
+      <c r="H2362" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2363" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2363">
+        <v>6</v>
+      </c>
+      <c r="C2363" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2363" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2363" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2363">
+        <v>15884</v>
+      </c>
+      <c r="G2363">
+        <v>3</v>
+      </c>
+      <c r="H2363" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2364" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2364">
+        <v>71</v>
+      </c>
+      <c r="C2364" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2364" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2364" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2364">
+        <v>36180</v>
+      </c>
+      <c r="G2364">
+        <v>5</v>
+      </c>
+      <c r="H2364" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2365" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2365">
+        <v>37</v>
+      </c>
+      <c r="C2365" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2365" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2365" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2365">
+        <v>43473</v>
+      </c>
+      <c r="G2365">
+        <v>4</v>
+      </c>
+      <c r="H2365" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2366" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2366">
+        <v>22</v>
+      </c>
+      <c r="C2366" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2366" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2366" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2366">
+        <v>80767</v>
+      </c>
+      <c r="G2366">
+        <v>4</v>
+      </c>
+      <c r="H2366" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2367" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2367">
+        <v>42</v>
+      </c>
+      <c r="C2367" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2367" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2367" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2367">
+        <v>26153</v>
+      </c>
+      <c r="G2367">
+        <v>3</v>
+      </c>
+      <c r="H2367" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2368" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2368">
+        <v>43</v>
+      </c>
+      <c r="C2368" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2368" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2368" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2368">
+        <v>46862</v>
+      </c>
+      <c r="G2368">
+        <v>4</v>
+      </c>
+      <c r="H2368" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2369" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2369">
+        <v>26</v>
+      </c>
+      <c r="C2369" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2369" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2369" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2369">
+        <v>158043</v>
+      </c>
+      <c r="G2369">
+        <v>4</v>
+      </c>
+      <c r="H2369" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2370" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2370">
+        <v>51</v>
+      </c>
+      <c r="C2370" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2370" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2370" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2370">
+        <v>40573</v>
+      </c>
+      <c r="G2370">
+        <v>3</v>
+      </c>
+      <c r="H2370" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2371" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B2371">
+        <v>24</v>
+      </c>
+      <c r="C2371" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2371" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2371" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2371">
+        <v>68759</v>
+      </c>
+      <c r="G2371">
+        <v>3</v>
+      </c>
+      <c r="H2371" t="s">
         <v>98</v>
       </c>
     </row>
@@ -60312,6 +62366,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -60522,15 +62585,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4606366C-CC67-4067-BB57-10E9258263A1}">
   <ds:schemaRefs>
@@ -60541,6 +62595,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C841AB4-9F11-4453-8762-85942E875817}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F180DA5C-A3D8-49E7-A5D5-0477DF8283C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -60557,12 +62619,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C841AB4-9F11-4453-8762-85942E875817}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/OpenData_Slovakia_CovidAutomat_History.xlsx
+++ b/OpenData_Slovakia_CovidAutomat_History.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szabor\health.gov.sk\IZA - Dokumenty\Projects\Covid\Data covid\OpenData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C96AAB48-002E-4CD7-ADA8-DB8B10F7E0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{817111DC-07F4-49D8-B88A-F51DD2C39FFE}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$2292</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9488" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9804" uniqueCount="101">
   <si>
     <t>Platne od</t>
   </si>
@@ -345,7 +344,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,7 +379,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -691,11 +690,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3118A9E1-7AB7-4959-BB1E-0523D5A0DF60}">
-  <dimension ref="A1:H2371"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2450"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2279" workbookViewId="0">
-      <selection activeCell="G2299" sqref="G2299"/>
+    <sheetView tabSelected="1" topLeftCell="A2362" workbookViewId="0">
+      <selection activeCell="K2381" sqref="K2381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -62349,9 +62348,2063 @@
         <v>98</v>
       </c>
     </row>
+    <row r="2372" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2372" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2372">
+        <v>41</v>
+      </c>
+      <c r="C2372" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2372" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2372" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2372">
+        <v>36282</v>
+      </c>
+      <c r="G2372">
+        <v>4</v>
+      </c>
+      <c r="H2372" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2373" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2373">
+        <v>32</v>
+      </c>
+      <c r="C2373" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2373" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2373" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2373">
+        <v>110829</v>
+      </c>
+      <c r="G2373">
+        <v>4</v>
+      </c>
+      <c r="H2373" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2374" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2374">
+        <v>31</v>
+      </c>
+      <c r="C2374" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2374" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2374" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2374">
+        <v>16086</v>
+      </c>
+      <c r="G2374">
+        <v>4</v>
+      </c>
+      <c r="H2374" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2375" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2375">
+        <v>5</v>
+      </c>
+      <c r="C2375" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2375" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2375" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2375">
+        <v>77771</v>
+      </c>
+      <c r="G2375">
+        <v>5</v>
+      </c>
+      <c r="H2375" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2376" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2376">
+        <v>64</v>
+      </c>
+      <c r="C2376" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2376" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2376" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2376">
+        <v>41095</v>
+      </c>
+      <c r="G2376">
+        <v>2</v>
+      </c>
+      <c r="H2376" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2377" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2377">
+        <v>68</v>
+      </c>
+      <c r="C2377" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2377" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2377" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2377">
+        <v>115653</v>
+      </c>
+      <c r="G2377">
+        <v>2</v>
+      </c>
+      <c r="H2377" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2378" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2378">
+        <v>67</v>
+      </c>
+      <c r="C2378" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2378" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2378" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2378">
+        <v>67913</v>
+      </c>
+      <c r="G2378">
+        <v>2</v>
+      </c>
+      <c r="H2378" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2379" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2379">
+        <v>66</v>
+      </c>
+      <c r="C2379" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2379" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2379" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2379">
+        <v>97261</v>
+      </c>
+      <c r="G2379">
+        <v>2</v>
+      </c>
+      <c r="H2379" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2380" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2380">
+        <v>65</v>
+      </c>
+      <c r="C2380" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2380" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2380" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2380">
+        <v>110942</v>
+      </c>
+      <c r="G2380">
+        <v>2</v>
+      </c>
+      <c r="H2380" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2381" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2381">
+        <v>28</v>
+      </c>
+      <c r="C2381" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2381" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2381" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2381">
+        <v>61450</v>
+      </c>
+      <c r="G2381">
+        <v>4</v>
+      </c>
+      <c r="H2381" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2382" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2382">
+        <v>25</v>
+      </c>
+      <c r="C2382" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2382" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2382" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2382">
+        <v>30917</v>
+      </c>
+      <c r="G2382">
+        <v>4</v>
+      </c>
+      <c r="H2382" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2383" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2383">
+        <v>59</v>
+      </c>
+      <c r="C2383" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2383" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2383" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2383">
+        <v>90080</v>
+      </c>
+      <c r="G2383">
+        <v>5</v>
+      </c>
+      <c r="H2383" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2384" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2384">
+        <v>69</v>
+      </c>
+      <c r="C2384" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2384" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2384" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2384">
+        <v>32051</v>
+      </c>
+      <c r="G2384">
+        <v>4</v>
+      </c>
+      <c r="H2384" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2385" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2385">
+        <v>55</v>
+      </c>
+      <c r="C2385" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2385" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2385" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2385">
+        <v>39457</v>
+      </c>
+      <c r="G2385">
+        <v>4</v>
+      </c>
+      <c r="H2385" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2386" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2386">
+        <v>13</v>
+      </c>
+      <c r="C2386" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2386" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2386" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2386">
+        <v>122358</v>
+      </c>
+      <c r="G2386">
+        <v>3</v>
+      </c>
+      <c r="H2386" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2387" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2387">
+        <v>3</v>
+      </c>
+      <c r="C2387" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2387" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2387" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2387">
+        <v>94076</v>
+      </c>
+      <c r="G2387">
+        <v>2</v>
+      </c>
+      <c r="H2387" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2388" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2388">
+        <v>74</v>
+      </c>
+      <c r="C2388" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2388" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2388" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2388">
+        <v>31868</v>
+      </c>
+      <c r="G2388">
+        <v>4</v>
+      </c>
+      <c r="H2388" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2389" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2389">
+        <v>61</v>
+      </c>
+      <c r="C2389" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2389" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2389" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2389">
+        <v>45013</v>
+      </c>
+      <c r="G2389">
+        <v>4</v>
+      </c>
+      <c r="H2389" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2390" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2390">
+        <v>9</v>
+      </c>
+      <c r="C2390" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2390" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2390" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2390">
+        <v>61986</v>
+      </c>
+      <c r="G2390">
+        <v>5</v>
+      </c>
+      <c r="H2390" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2391" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2391">
+        <v>60</v>
+      </c>
+      <c r="C2391" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2391" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2391" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2391">
+        <v>59188</v>
+      </c>
+      <c r="G2391">
+        <v>3</v>
+      </c>
+      <c r="H2391" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2392" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2392">
+        <v>4</v>
+      </c>
+      <c r="C2392" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2392" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2392" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2392">
+        <v>75235</v>
+      </c>
+      <c r="G2392">
+        <v>4</v>
+      </c>
+      <c r="H2392" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2393" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2393">
+        <v>14</v>
+      </c>
+      <c r="C2393" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2393" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2393" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2393">
+        <v>101712</v>
+      </c>
+      <c r="G2393">
+        <v>2</v>
+      </c>
+      <c r="H2393" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2394" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2394">
+        <v>29</v>
+      </c>
+      <c r="C2394" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2394" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2394" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2394">
+        <v>129544</v>
+      </c>
+      <c r="G2394">
+        <v>4</v>
+      </c>
+      <c r="H2394" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2395" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2395">
+        <v>76</v>
+      </c>
+      <c r="C2395" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2395" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2395" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2395">
+        <v>67513</v>
+      </c>
+      <c r="G2395">
+        <v>4</v>
+      </c>
+      <c r="H2395" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2396" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2396">
+        <v>79</v>
+      </c>
+      <c r="C2396" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2396" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2396" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2396">
+        <v>82288</v>
+      </c>
+      <c r="G2396">
+        <v>4</v>
+      </c>
+      <c r="H2396" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2397" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2397">
+        <v>78</v>
+      </c>
+      <c r="C2397" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2397" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2397" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2397">
+        <v>28749</v>
+      </c>
+      <c r="G2397">
+        <v>4</v>
+      </c>
+      <c r="H2397" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2398" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2398">
+        <v>77</v>
+      </c>
+      <c r="C2398" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2398" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2398" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2398">
+        <v>60126</v>
+      </c>
+      <c r="G2398">
+        <v>4</v>
+      </c>
+      <c r="H2398" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2399" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2399">
+        <v>30</v>
+      </c>
+      <c r="C2399" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2399" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2399" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2399">
+        <v>22182</v>
+      </c>
+      <c r="G2399">
+        <v>4</v>
+      </c>
+      <c r="H2399" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2400" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2400">
+        <v>73</v>
+      </c>
+      <c r="C2400" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2400" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2400" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2400">
+        <v>32914</v>
+      </c>
+      <c r="G2400">
+        <v>5</v>
+      </c>
+      <c r="H2400" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2401" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2401">
+        <v>20</v>
+      </c>
+      <c r="C2401" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2401" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2401" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2401">
+        <v>110824</v>
+      </c>
+      <c r="G2401">
+        <v>3</v>
+      </c>
+      <c r="H2401" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2402" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2402">
+        <v>36</v>
+      </c>
+      <c r="C2402" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2402" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2402" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2402">
+        <v>33702</v>
+      </c>
+      <c r="G2402">
+        <v>5</v>
+      </c>
+      <c r="H2402" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2403" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2403">
+        <v>15</v>
+      </c>
+      <c r="C2403" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2403" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2403" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2403">
+        <v>72261</v>
+      </c>
+      <c r="G2403">
+        <v>4</v>
+      </c>
+      <c r="H2403" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2404" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2404">
+        <v>1</v>
+      </c>
+      <c r="C2404" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2404" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2404" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2404">
+        <v>73466</v>
+      </c>
+      <c r="G2404">
+        <v>5</v>
+      </c>
+      <c r="H2404" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2405" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2405">
+        <v>62</v>
+      </c>
+      <c r="C2405" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2405" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2405" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2405">
+        <v>74323</v>
+      </c>
+      <c r="G2405">
+        <v>4</v>
+      </c>
+      <c r="H2405" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2406" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2406">
+        <v>49</v>
+      </c>
+      <c r="C2406" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2406" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2406" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2406">
+        <v>96338</v>
+      </c>
+      <c r="G2406">
+        <v>5</v>
+      </c>
+      <c r="H2406" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2407" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2407">
+        <v>63</v>
+      </c>
+      <c r="C2407" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2407" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2407" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2407">
+        <v>11842</v>
+      </c>
+      <c r="G2407">
+        <v>5</v>
+      </c>
+      <c r="H2407" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2408" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2408">
+        <v>34</v>
+      </c>
+      <c r="C2408" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2408" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2408" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2408">
+        <v>110705</v>
+      </c>
+      <c r="G2408">
+        <v>5</v>
+      </c>
+      <c r="H2408" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2409" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2409">
+        <v>27</v>
+      </c>
+      <c r="C2409" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2409" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2409" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2409">
+        <v>26356</v>
+      </c>
+      <c r="G2409">
+        <v>4</v>
+      </c>
+      <c r="H2409" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2410" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2410">
+        <v>23</v>
+      </c>
+      <c r="C2410" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2410" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2410" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2410">
+        <v>62664</v>
+      </c>
+      <c r="G2410">
+        <v>5</v>
+      </c>
+      <c r="H2410" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2411" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2411">
+        <v>11</v>
+      </c>
+      <c r="C2411" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2411" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2411" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2411">
+        <v>161560</v>
+      </c>
+      <c r="G2411">
+        <v>4</v>
+      </c>
+      <c r="H2411" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2412" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2412">
+        <v>47</v>
+      </c>
+      <c r="C2412" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2412" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2412" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2412">
+        <v>62554</v>
+      </c>
+      <c r="G2412">
+        <v>4</v>
+      </c>
+      <c r="H2412" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2413" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2413">
+        <v>16</v>
+      </c>
+      <c r="C2413" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2413" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2413" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2413">
+        <v>139005</v>
+      </c>
+      <c r="G2413">
+        <v>3</v>
+      </c>
+      <c r="H2413" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2414" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2414">
+        <v>45</v>
+      </c>
+      <c r="C2414" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2414" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2414" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2414">
+        <v>45597</v>
+      </c>
+      <c r="G2414">
+        <v>4</v>
+      </c>
+      <c r="H2414" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2415" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2415">
+        <v>33</v>
+      </c>
+      <c r="C2415" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2415" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2415" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2415">
+        <v>65145</v>
+      </c>
+      <c r="G2415">
+        <v>4</v>
+      </c>
+      <c r="H2415" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2416" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2416">
+        <v>39</v>
+      </c>
+      <c r="C2416" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2416" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2416" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2416">
+        <v>62803</v>
+      </c>
+      <c r="G2416">
+        <v>4</v>
+      </c>
+      <c r="H2416" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2417" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2417">
+        <v>70</v>
+      </c>
+      <c r="C2417" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2417" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2417" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2417">
+        <v>21471</v>
+      </c>
+      <c r="G2417">
+        <v>5</v>
+      </c>
+      <c r="H2417" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2418" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2418">
+        <v>46</v>
+      </c>
+      <c r="C2418" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2418" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2418" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2418">
+        <v>104914</v>
+      </c>
+      <c r="G2418">
+        <v>5</v>
+      </c>
+      <c r="H2418" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2419" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2419">
+        <v>52</v>
+      </c>
+      <c r="C2419" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2419" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2419" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2419">
+        <v>62439</v>
+      </c>
+      <c r="G2419">
+        <v>4</v>
+      </c>
+      <c r="H2419" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2420" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2420">
+        <v>7</v>
+      </c>
+      <c r="C2420" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2420" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2420" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2420">
+        <v>175610</v>
+      </c>
+      <c r="G2420">
+        <v>4</v>
+      </c>
+      <c r="H2420" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2421" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2421">
+        <v>40</v>
+      </c>
+      <c r="C2421" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2421" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2421" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2421">
+        <v>133980</v>
+      </c>
+      <c r="G2421">
+        <v>3</v>
+      </c>
+      <c r="H2421" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2422" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2422">
+        <v>54</v>
+      </c>
+      <c r="C2422" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2422" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2422" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2422">
+        <v>44310</v>
+      </c>
+      <c r="G2422">
+        <v>4</v>
+      </c>
+      <c r="H2422" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2423" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2423">
+        <v>48</v>
+      </c>
+      <c r="C2423" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2423" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2423" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2423">
+        <v>39637</v>
+      </c>
+      <c r="G2423">
+        <v>4</v>
+      </c>
+      <c r="H2423" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2424" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2424">
+        <v>2</v>
+      </c>
+      <c r="C2424" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2424" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2424" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2424">
+        <v>84159</v>
+      </c>
+      <c r="G2424">
+        <v>5</v>
+      </c>
+      <c r="H2424" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2425" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2425">
+        <v>19</v>
+      </c>
+      <c r="C2425" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2425" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2425" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2425">
+        <v>62209</v>
+      </c>
+      <c r="G2425">
+        <v>4</v>
+      </c>
+      <c r="H2425" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2426" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2426">
+        <v>56</v>
+      </c>
+      <c r="C2426" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2426" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2426" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2426">
+        <v>56702</v>
+      </c>
+      <c r="G2426">
+        <v>5</v>
+      </c>
+      <c r="H2426" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2427" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2427">
+        <v>35</v>
+      </c>
+      <c r="C2427" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2427" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2427" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2427">
+        <v>60519</v>
+      </c>
+      <c r="G2427">
+        <v>5</v>
+      </c>
+      <c r="H2427" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2428" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2428">
+        <v>75</v>
+      </c>
+      <c r="C2428" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2428" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2428" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2428">
+        <v>51685</v>
+      </c>
+      <c r="G2428">
+        <v>2</v>
+      </c>
+      <c r="H2428" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2429" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2429">
+        <v>12</v>
+      </c>
+      <c r="C2429" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2429" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2429" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2429">
+        <v>89832</v>
+      </c>
+      <c r="G2429">
+        <v>4</v>
+      </c>
+      <c r="H2429" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2430" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2430">
+        <v>58</v>
+      </c>
+      <c r="C2430" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2430" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2430" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2430">
+        <v>60446</v>
+      </c>
+      <c r="G2430">
+        <v>3</v>
+      </c>
+      <c r="H2430" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2431" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2431">
+        <v>72</v>
+      </c>
+      <c r="C2431" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2431" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2431" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2431">
+        <v>47105</v>
+      </c>
+      <c r="G2431">
+        <v>4</v>
+      </c>
+      <c r="H2431" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2432" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2432">
+        <v>50</v>
+      </c>
+      <c r="C2432" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2432" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2432" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2432">
+        <v>36241</v>
+      </c>
+      <c r="G2432">
+        <v>5</v>
+      </c>
+      <c r="H2432" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2433" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2433">
+        <v>44</v>
+      </c>
+      <c r="C2433" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2433" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2433" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2433">
+        <v>22819</v>
+      </c>
+      <c r="G2433">
+        <v>5</v>
+      </c>
+      <c r="H2433" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2434" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2434">
+        <v>21</v>
+      </c>
+      <c r="C2434" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2434" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2434" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2434">
+        <v>99765</v>
+      </c>
+      <c r="G2434">
+        <v>5</v>
+      </c>
+      <c r="H2434" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2435" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2435">
+        <v>17</v>
+      </c>
+      <c r="C2435" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2435" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2435" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2435">
+        <v>53954</v>
+      </c>
+      <c r="G2435">
+        <v>5</v>
+      </c>
+      <c r="H2435" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2436" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2436">
+        <v>38</v>
+      </c>
+      <c r="C2436" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2436" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2436" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2436">
+        <v>20532</v>
+      </c>
+      <c r="G2436">
+        <v>5</v>
+      </c>
+      <c r="H2436" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2437" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2437">
+        <v>53</v>
+      </c>
+      <c r="C2437" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2437" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2437" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2437">
+        <v>32564</v>
+      </c>
+      <c r="G2437">
+        <v>5</v>
+      </c>
+      <c r="H2437" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2438" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2438">
+        <v>18</v>
+      </c>
+      <c r="C2438" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2438" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2438" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2438">
+        <v>70132</v>
+      </c>
+      <c r="G2438">
+        <v>5</v>
+      </c>
+      <c r="H2438" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2439" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2439">
+        <v>10</v>
+      </c>
+      <c r="C2439" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2439" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2439" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2439">
+        <v>105353</v>
+      </c>
+      <c r="G2439">
+        <v>4</v>
+      </c>
+      <c r="H2439" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2440" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2440">
+        <v>8</v>
+      </c>
+      <c r="C2440" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2440" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2440" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2440">
+        <v>114523</v>
+      </c>
+      <c r="G2440">
+        <v>4</v>
+      </c>
+      <c r="H2440" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2441" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2441">
+        <v>57</v>
+      </c>
+      <c r="C2441" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2441" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2441" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2441">
+        <v>132455</v>
+      </c>
+      <c r="G2441">
+        <v>3</v>
+      </c>
+      <c r="H2441" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2442" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2442">
+        <v>6</v>
+      </c>
+      <c r="C2442" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2442" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2442" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2442">
+        <v>15884</v>
+      </c>
+      <c r="G2442">
+        <v>4</v>
+      </c>
+      <c r="H2442" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2443" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2443">
+        <v>71</v>
+      </c>
+      <c r="C2443" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2443" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2443" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2443">
+        <v>36180</v>
+      </c>
+      <c r="G2443">
+        <v>5</v>
+      </c>
+      <c r="H2443" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2444" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2444">
+        <v>37</v>
+      </c>
+      <c r="C2444" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2444" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2444" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2444">
+        <v>43473</v>
+      </c>
+      <c r="G2444">
+        <v>4</v>
+      </c>
+      <c r="H2444" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2445" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2445">
+        <v>22</v>
+      </c>
+      <c r="C2445" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2445" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2445" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2445">
+        <v>80767</v>
+      </c>
+      <c r="G2445">
+        <v>5</v>
+      </c>
+      <c r="H2445" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2446" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2446">
+        <v>42</v>
+      </c>
+      <c r="C2446" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2446" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2446" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2446">
+        <v>26153</v>
+      </c>
+      <c r="G2446">
+        <v>3</v>
+      </c>
+      <c r="H2446" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2447" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2447">
+        <v>43</v>
+      </c>
+      <c r="C2447" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2447" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2447" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2447">
+        <v>46862</v>
+      </c>
+      <c r="G2447">
+        <v>4</v>
+      </c>
+      <c r="H2447" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2448" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2448">
+        <v>26</v>
+      </c>
+      <c r="C2448" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2448" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2448" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2448">
+        <v>158043</v>
+      </c>
+      <c r="G2448">
+        <v>4</v>
+      </c>
+      <c r="H2448" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2449" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2449">
+        <v>51</v>
+      </c>
+      <c r="C2449" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2449" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2449" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2449">
+        <v>40573</v>
+      </c>
+      <c r="G2449">
+        <v>4</v>
+      </c>
+      <c r="H2449" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2450" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B2450">
+        <v>24</v>
+      </c>
+      <c r="C2450" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2450" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2450" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2450">
+        <v>68759</v>
+      </c>
+      <c r="G2450">
+        <v>4</v>
+      </c>
+      <c r="H2450" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H2292" xr:uid="{3118A9E1-7AB7-4959-BB1E-0523D5A0DF60}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H2292">
+  <autoFilter ref="A1:H2292">
+    <sortState ref="A2:H2292">
       <sortCondition ref="A2:A2292"/>
     </sortState>
   </autoFilter>
@@ -62360,21 +64413,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -62585,24 +64623,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4606366C-CC67-4067-BB57-10E9258263A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C841AB4-9F11-4453-8762-85942E875817}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F180DA5C-A3D8-49E7-A5D5-0477DF8283C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -62619,4 +64655,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C841AB4-9F11-4453-8762-85942E875817}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4606366C-CC67-4067-BB57-10E9258263A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/OpenData_Slovakia_CovidAutomat_History.xlsx
+++ b/OpenData_Slovakia_CovidAutomat_History.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9804" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10120" uniqueCount="101">
   <si>
     <t>Platne od</t>
   </si>
@@ -345,10 +345,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
       <charset val="238"/>
@@ -374,9 +380,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -691,15 +700,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2450"/>
+  <dimension ref="A1:H2529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2362" workbookViewId="0">
-      <selection activeCell="K2381" sqref="K2381"/>
+    <sheetView tabSelected="1" topLeftCell="A2464" workbookViewId="0">
+      <selection activeCell="L2476" sqref="L2476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -64399,6 +64411,2060 @@
         <v>4</v>
       </c>
       <c r="H2450" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2451" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2451" s="3">
+        <v>41</v>
+      </c>
+      <c r="C2451" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2451" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2451" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2451" s="3">
+        <v>36282</v>
+      </c>
+      <c r="G2451" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2451" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2452" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2452" s="3">
+        <v>32</v>
+      </c>
+      <c r="C2452" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2452" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2452" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2452" s="3">
+        <v>110829</v>
+      </c>
+      <c r="G2452" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2452" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2453" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2453" s="3">
+        <v>31</v>
+      </c>
+      <c r="C2453" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2453" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2453" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2453" s="3">
+        <v>16086</v>
+      </c>
+      <c r="G2453" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2453" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2454" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2454" s="3">
+        <v>5</v>
+      </c>
+      <c r="C2454" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2454" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2454" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2454" s="3">
+        <v>77771</v>
+      </c>
+      <c r="G2454" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2454" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2455" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2455" s="3">
+        <v>64</v>
+      </c>
+      <c r="C2455" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2455" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2455" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2455" s="3">
+        <v>41095</v>
+      </c>
+      <c r="G2455" s="4">
+        <v>3</v>
+      </c>
+      <c r="H2455" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2456" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2456" s="3">
+        <v>68</v>
+      </c>
+      <c r="C2456" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2456" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2456" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2456" s="3">
+        <v>115653</v>
+      </c>
+      <c r="G2456" s="4">
+        <v>3</v>
+      </c>
+      <c r="H2456" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2457" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2457" s="3">
+        <v>67</v>
+      </c>
+      <c r="C2457" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2457" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2457" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2457" s="3">
+        <v>67913</v>
+      </c>
+      <c r="G2457" s="4">
+        <v>3</v>
+      </c>
+      <c r="H2457" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2458" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2458" s="3">
+        <v>66</v>
+      </c>
+      <c r="C2458" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2458" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2458" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2458" s="3">
+        <v>97261</v>
+      </c>
+      <c r="G2458" s="4">
+        <v>3</v>
+      </c>
+      <c r="H2458" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2459" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2459" s="3">
+        <v>65</v>
+      </c>
+      <c r="C2459" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2459" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2459" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2459" s="3">
+        <v>110942</v>
+      </c>
+      <c r="G2459" s="4">
+        <v>3</v>
+      </c>
+      <c r="H2459" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2460" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2460" s="3">
+        <v>28</v>
+      </c>
+      <c r="C2460" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2460" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2460" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2460" s="3">
+        <v>61450</v>
+      </c>
+      <c r="G2460" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2460" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2461" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2461" s="3">
+        <v>25</v>
+      </c>
+      <c r="C2461" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2461" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2461" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2461" s="3">
+        <v>30917</v>
+      </c>
+      <c r="G2461" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2461" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2462" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2462" s="3">
+        <v>59</v>
+      </c>
+      <c r="C2462" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2462" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2462" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2462" s="3">
+        <v>90080</v>
+      </c>
+      <c r="G2462" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2462" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2463" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2463" s="3">
+        <v>69</v>
+      </c>
+      <c r="C2463" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2463" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2463" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2463" s="3">
+        <v>32051</v>
+      </c>
+      <c r="G2463" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2463" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2464" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2464" s="3">
+        <v>55</v>
+      </c>
+      <c r="C2464" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2464" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2464" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2464" s="3">
+        <v>39457</v>
+      </c>
+      <c r="G2464" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2464" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2465" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2465" s="3">
+        <v>13</v>
+      </c>
+      <c r="C2465" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2465" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2465" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2465" s="3">
+        <v>122358</v>
+      </c>
+      <c r="G2465" s="4">
+        <v>2</v>
+      </c>
+      <c r="H2465" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2466" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2466" s="3">
+        <v>3</v>
+      </c>
+      <c r="C2466" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2466" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2466" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2466" s="3">
+        <v>94076</v>
+      </c>
+      <c r="G2466" s="4">
+        <v>3</v>
+      </c>
+      <c r="H2466" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2467" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2467" s="3">
+        <v>74</v>
+      </c>
+      <c r="C2467" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2467" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2467" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2467" s="3">
+        <v>31868</v>
+      </c>
+      <c r="G2467" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2467" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2468" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2468" s="3">
+        <v>61</v>
+      </c>
+      <c r="C2468" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2468" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2468" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2468" s="3">
+        <v>45013</v>
+      </c>
+      <c r="G2468" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2468" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2469" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2469" s="3">
+        <v>9</v>
+      </c>
+      <c r="C2469" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2469" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2469" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2469" s="3">
+        <v>61986</v>
+      </c>
+      <c r="G2469" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2469" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2470" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2470" s="3">
+        <v>60</v>
+      </c>
+      <c r="C2470" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2470" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2470" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2470" s="3">
+        <v>59188</v>
+      </c>
+      <c r="G2470" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2470" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2471" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2471" s="3">
+        <v>4</v>
+      </c>
+      <c r="C2471" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2471" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2471" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2471" s="3">
+        <v>75235</v>
+      </c>
+      <c r="G2471" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2471" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2472" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2472" s="3">
+        <v>14</v>
+      </c>
+      <c r="C2472" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2472" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2472" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2472" s="3">
+        <v>101712</v>
+      </c>
+      <c r="G2472" s="4">
+        <v>2</v>
+      </c>
+      <c r="H2472" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2473" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2473" s="3">
+        <v>29</v>
+      </c>
+      <c r="C2473" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2473" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2473" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2473" s="3">
+        <v>129544</v>
+      </c>
+      <c r="G2473" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2473" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2474" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2474" s="3">
+        <v>76</v>
+      </c>
+      <c r="C2474" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2474" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2474" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2474" s="3">
+        <v>67513</v>
+      </c>
+      <c r="G2474" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2474" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2475" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2475" s="3">
+        <v>79</v>
+      </c>
+      <c r="C2475" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2475" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2475" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2475" s="3">
+        <v>82288</v>
+      </c>
+      <c r="G2475" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2475" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2476" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2476" s="3">
+        <v>78</v>
+      </c>
+      <c r="C2476" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2476" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2476" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2476" s="3">
+        <v>28749</v>
+      </c>
+      <c r="G2476" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2476" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2477" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2477" s="3">
+        <v>77</v>
+      </c>
+      <c r="C2477" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2477" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2477" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2477" s="3">
+        <v>60126</v>
+      </c>
+      <c r="G2477" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2477" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2478" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2478" s="3">
+        <v>30</v>
+      </c>
+      <c r="C2478" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2478" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2478" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2478" s="3">
+        <v>22182</v>
+      </c>
+      <c r="G2478" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2478" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2479" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2479" s="3">
+        <v>73</v>
+      </c>
+      <c r="C2479" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2479" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2479" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2479" s="3">
+        <v>32914</v>
+      </c>
+      <c r="G2479" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2479" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2480" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2480" s="3">
+        <v>20</v>
+      </c>
+      <c r="C2480" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2480" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2480" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2480" s="3">
+        <v>110824</v>
+      </c>
+      <c r="G2480" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2480" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2481" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2481" s="3">
+        <v>36</v>
+      </c>
+      <c r="C2481" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2481" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2481" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2481" s="3">
+        <v>33702</v>
+      </c>
+      <c r="G2481" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2481" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2482" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2482" s="3">
+        <v>15</v>
+      </c>
+      <c r="C2482" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2482" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2482" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2482" s="3">
+        <v>72261</v>
+      </c>
+      <c r="G2482" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2482" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2483" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2483" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2483" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2483" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2483" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2483" s="3">
+        <v>73466</v>
+      </c>
+      <c r="G2483" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2483" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2484" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2484" s="3">
+        <v>62</v>
+      </c>
+      <c r="C2484" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2484" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2484" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2484" s="3">
+        <v>74323</v>
+      </c>
+      <c r="G2484" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2484" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2485" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2485" s="3">
+        <v>49</v>
+      </c>
+      <c r="C2485" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2485" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2485" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2485" s="3">
+        <v>96338</v>
+      </c>
+      <c r="G2485" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2485" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2486" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2486" s="3">
+        <v>63</v>
+      </c>
+      <c r="C2486" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2486" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2486" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2486" s="3">
+        <v>11842</v>
+      </c>
+      <c r="G2486" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2486" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2487" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2487" s="3">
+        <v>34</v>
+      </c>
+      <c r="C2487" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2487" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2487" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2487" s="3">
+        <v>110705</v>
+      </c>
+      <c r="G2487" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2487" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2488" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2488" s="3">
+        <v>27</v>
+      </c>
+      <c r="C2488" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2488" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2488" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2488" s="3">
+        <v>26356</v>
+      </c>
+      <c r="G2488" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2488" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2489" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2489" s="3">
+        <v>23</v>
+      </c>
+      <c r="C2489" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2489" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2489" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2489" s="3">
+        <v>62664</v>
+      </c>
+      <c r="G2489" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2489" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2490" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2490" s="3">
+        <v>11</v>
+      </c>
+      <c r="C2490" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2490" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2490" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2490" s="3">
+        <v>161560</v>
+      </c>
+      <c r="G2490" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2490" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2491" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2491" s="3">
+        <v>47</v>
+      </c>
+      <c r="C2491" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2491" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2491" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2491" s="3">
+        <v>62554</v>
+      </c>
+      <c r="G2491" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2491" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2492" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2492" s="3">
+        <v>16</v>
+      </c>
+      <c r="C2492" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2492" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2492" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2492" s="3">
+        <v>139005</v>
+      </c>
+      <c r="G2492" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2492" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2493" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2493" s="3">
+        <v>45</v>
+      </c>
+      <c r="C2493" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2493" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2493" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2493" s="3">
+        <v>45597</v>
+      </c>
+      <c r="G2493" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2493" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2494" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2494" s="3">
+        <v>33</v>
+      </c>
+      <c r="C2494" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2494" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2494" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2494" s="3">
+        <v>65145</v>
+      </c>
+      <c r="G2494" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2494" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2495" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2495" s="3">
+        <v>39</v>
+      </c>
+      <c r="C2495" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2495" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2495" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2495" s="3">
+        <v>62803</v>
+      </c>
+      <c r="G2495" s="4">
+        <v>3</v>
+      </c>
+      <c r="H2495" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2496" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2496" s="3">
+        <v>70</v>
+      </c>
+      <c r="C2496" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2496" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2496" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2496" s="3">
+        <v>21471</v>
+      </c>
+      <c r="G2496" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2496" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2497" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2497" s="3">
+        <v>46</v>
+      </c>
+      <c r="C2497" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2497" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2497" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2497" s="3">
+        <v>104914</v>
+      </c>
+      <c r="G2497" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2497" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2498" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2498" s="3">
+        <v>52</v>
+      </c>
+      <c r="C2498" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2498" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2498" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2498" s="3">
+        <v>62439</v>
+      </c>
+      <c r="G2498" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2498" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2499" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2499" s="3">
+        <v>7</v>
+      </c>
+      <c r="C2499" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2499" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2499" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2499" s="3">
+        <v>175610</v>
+      </c>
+      <c r="G2499" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2499" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2500" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2500" s="3">
+        <v>40</v>
+      </c>
+      <c r="C2500" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2500" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2500" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2500" s="3">
+        <v>133980</v>
+      </c>
+      <c r="G2500" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2500" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2501" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2501" s="3">
+        <v>54</v>
+      </c>
+      <c r="C2501" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2501" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2501" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2501" s="3">
+        <v>44310</v>
+      </c>
+      <c r="G2501" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2501" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2502" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2502" s="3">
+        <v>48</v>
+      </c>
+      <c r="C2502" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2502" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2502" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2502" s="3">
+        <v>39637</v>
+      </c>
+      <c r="G2502" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2502" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2503" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2503" s="3">
+        <v>2</v>
+      </c>
+      <c r="C2503" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2503" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2503" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2503" s="3">
+        <v>84159</v>
+      </c>
+      <c r="G2503" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2503" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2504" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2504" s="3">
+        <v>19</v>
+      </c>
+      <c r="C2504" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2504" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2504" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2504" s="3">
+        <v>62209</v>
+      </c>
+      <c r="G2504" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2504" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2505" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2505" s="3">
+        <v>56</v>
+      </c>
+      <c r="C2505" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2505" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2505" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2505" s="3">
+        <v>56702</v>
+      </c>
+      <c r="G2505" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2505" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2506" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2506" s="3">
+        <v>35</v>
+      </c>
+      <c r="C2506" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2506" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2506" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2506" s="3">
+        <v>60519</v>
+      </c>
+      <c r="G2506" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2506" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2507" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2507" s="3">
+        <v>75</v>
+      </c>
+      <c r="C2507" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2507" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2507" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2507" s="3">
+        <v>51685</v>
+      </c>
+      <c r="G2507" s="4">
+        <v>2</v>
+      </c>
+      <c r="H2507" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2508" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2508" s="3">
+        <v>12</v>
+      </c>
+      <c r="C2508" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2508" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2508" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2508" s="3">
+        <v>89832</v>
+      </c>
+      <c r="G2508" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2508" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2509" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2509" s="3">
+        <v>58</v>
+      </c>
+      <c r="C2509" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2509" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2509" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2509" s="3">
+        <v>60446</v>
+      </c>
+      <c r="G2509" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2509" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2510" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2510" s="3">
+        <v>72</v>
+      </c>
+      <c r="C2510" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2510" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2510" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2510" s="3">
+        <v>47105</v>
+      </c>
+      <c r="G2510" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2510" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2511" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2511" s="3">
+        <v>50</v>
+      </c>
+      <c r="C2511" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2511" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2511" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2511" s="3">
+        <v>36241</v>
+      </c>
+      <c r="G2511" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2511" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2512" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2512" s="3">
+        <v>44</v>
+      </c>
+      <c r="C2512" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2512" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2512" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2512" s="3">
+        <v>22819</v>
+      </c>
+      <c r="G2512" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2512" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2513" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2513" s="3">
+        <v>21</v>
+      </c>
+      <c r="C2513" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2513" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2513" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2513" s="3">
+        <v>99765</v>
+      </c>
+      <c r="G2513" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2513" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2514" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2514" s="3">
+        <v>17</v>
+      </c>
+      <c r="C2514" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2514" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2514" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2514" s="3">
+        <v>53954</v>
+      </c>
+      <c r="G2514" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2514" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2515" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2515" s="3">
+        <v>38</v>
+      </c>
+      <c r="C2515" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2515" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2515" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2515" s="3">
+        <v>20532</v>
+      </c>
+      <c r="G2515" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2515" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2516" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2516" s="3">
+        <v>53</v>
+      </c>
+      <c r="C2516" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2516" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2516" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2516" s="3">
+        <v>32564</v>
+      </c>
+      <c r="G2516" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2516" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2517" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2517" s="3">
+        <v>18</v>
+      </c>
+      <c r="C2517" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2517" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2517" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2517" s="3">
+        <v>70132</v>
+      </c>
+      <c r="G2517" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2517" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2518" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2518" s="3">
+        <v>10</v>
+      </c>
+      <c r="C2518" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2518" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2518" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2518" s="3">
+        <v>105353</v>
+      </c>
+      <c r="G2518" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2518" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2519" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2519" s="3">
+        <v>8</v>
+      </c>
+      <c r="C2519" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2519" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2519" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2519" s="3">
+        <v>114523</v>
+      </c>
+      <c r="G2519" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2519" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2520" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2520" s="3">
+        <v>57</v>
+      </c>
+      <c r="C2520" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2520" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2520" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2520" s="3">
+        <v>132455</v>
+      </c>
+      <c r="G2520" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2520" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2521" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2521" s="3">
+        <v>6</v>
+      </c>
+      <c r="C2521" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2521" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2521" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2521" s="3">
+        <v>15884</v>
+      </c>
+      <c r="G2521" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2521" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2522" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2522" s="3">
+        <v>71</v>
+      </c>
+      <c r="C2522" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2522" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2522" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2522" s="3">
+        <v>36180</v>
+      </c>
+      <c r="G2522" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2522" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2523" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2523" s="3">
+        <v>37</v>
+      </c>
+      <c r="C2523" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2523" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2523" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2523" s="3">
+        <v>43473</v>
+      </c>
+      <c r="G2523" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2523" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2524" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2524" s="3">
+        <v>22</v>
+      </c>
+      <c r="C2524" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2524" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2524" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2524" s="3">
+        <v>80767</v>
+      </c>
+      <c r="G2524" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2524" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2525" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2525" s="3">
+        <v>42</v>
+      </c>
+      <c r="C2525" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2525" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2525" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2525" s="3">
+        <v>26153</v>
+      </c>
+      <c r="G2525" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2525" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2526" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2526" s="3">
+        <v>43</v>
+      </c>
+      <c r="C2526" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2526" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2526" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2526" s="3">
+        <v>46862</v>
+      </c>
+      <c r="G2526" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2526" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2527" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2527" s="3">
+        <v>26</v>
+      </c>
+      <c r="C2527" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2527" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2527" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2527" s="3">
+        <v>158043</v>
+      </c>
+      <c r="G2527" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2527" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2528" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2528" s="3">
+        <v>51</v>
+      </c>
+      <c r="C2528" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2528" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2528" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2528" s="3">
+        <v>40573</v>
+      </c>
+      <c r="G2528" s="4">
+        <v>3</v>
+      </c>
+      <c r="H2528" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2529" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2529" s="3">
+        <v>24</v>
+      </c>
+      <c r="C2529" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2529" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2529" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2529" s="3">
+        <v>68759</v>
+      </c>
+      <c r="G2529" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2529" s="4" t="s">
         <v>98</v>
       </c>
     </row>
@@ -64409,10 +66475,20 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -64623,15 +66699,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -64639,6 +66706,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C841AB4-9F11-4453-8762-85942E875817}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F180DA5C-A3D8-49E7-A5D5-0477DF8283C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -64657,25 +66732,17 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C841AB4-9F11-4453-8762-85942E875817}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4606366C-CC67-4067-BB57-10E9258263A1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
+    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>

--- a/OpenData_Slovakia_CovidAutomat_History.xlsx
+++ b/OpenData_Slovakia_CovidAutomat_History.xlsx
@@ -702,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2464" workbookViewId="0">
-      <selection activeCell="L2476" sqref="L2476"/>
+    <sheetView tabSelected="1" topLeftCell="A2473" workbookViewId="0">
+      <selection activeCell="J2501" sqref="J2501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -64798,7 +64798,7 @@
         <v>122358</v>
       </c>
       <c r="G2465" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2465" s="4" t="s">
         <v>98</v>
@@ -65838,7 +65838,7 @@
         <v>56702</v>
       </c>
       <c r="G2505" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2505" s="4" t="s">
         <v>98</v>
@@ -66480,15 +66480,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -66699,6 +66690,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -66706,14 +66706,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C841AB4-9F11-4453-8762-85942E875817}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F180DA5C-A3D8-49E7-A5D5-0477DF8283C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -66732,17 +66724,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C841AB4-9F11-4453-8762-85942E875817}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4606366C-CC67-4067-BB57-10E9258263A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
     <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
-    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>

--- a/OpenData_Slovakia_CovidAutomat_History.xlsx
+++ b/OpenData_Slovakia_CovidAutomat_History.xlsx
@@ -702,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2473" workbookViewId="0">
-      <selection activeCell="J2501" sqref="J2501"/>
+    <sheetView tabSelected="1" topLeftCell="A2488" workbookViewId="0">
+      <selection activeCell="J2500" sqref="J2500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -65578,7 +65578,7 @@
         <v>62803</v>
       </c>
       <c r="G2495" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2495" s="4" t="s">
         <v>98</v>
@@ -66691,18 +66691,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66725,26 +66725,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4606366C-CC67-4067-BB57-10E9258263A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
+    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C841AB4-9F11-4453-8762-85942E875817}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4606366C-CC67-4067-BB57-10E9258263A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
-    <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/OpenData_Slovakia_CovidAutomat_History.xlsx
+++ b/OpenData_Slovakia_CovidAutomat_History.xlsx
@@ -702,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2488" workbookViewId="0">
-      <selection activeCell="J2500" sqref="J2500"/>
+    <sheetView tabSelected="1" topLeftCell="A2509" workbookViewId="0">
+      <selection activeCell="H2530" sqref="H2530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -66436,7 +66436,7 @@
         <v>40573</v>
       </c>
       <c r="G2528" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2528" s="4" t="s">
         <v>98</v>
@@ -66691,18 +66691,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66725,26 +66725,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4606366C-CC67-4067-BB57-10E9258263A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C841AB4-9F11-4453-8762-85942E875817}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
-    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C841AB4-9F11-4453-8762-85942E875817}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4606366C-CC67-4067-BB57-10E9258263A1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/OpenData_Slovakia_CovidAutomat_History.xlsx
+++ b/OpenData_Slovakia_CovidAutomat_History.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10120" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10436" uniqueCount="101">
   <si>
     <t>Platne od</t>
   </si>
@@ -700,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2529"/>
+  <dimension ref="A1:H2608"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2509" workbookViewId="0">
-      <selection activeCell="H2530" sqref="H2530"/>
+    <sheetView tabSelected="1" topLeftCell="A2512" workbookViewId="0">
+      <selection activeCell="K2534" sqref="K2534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -66468,6 +66468,2060 @@
         <v>98</v>
       </c>
     </row>
+    <row r="2530" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2530" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2530">
+        <v>41</v>
+      </c>
+      <c r="C2530" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2530" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2530" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2530">
+        <v>36282</v>
+      </c>
+      <c r="G2530">
+        <v>5</v>
+      </c>
+      <c r="H2530" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2531" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2531">
+        <v>32</v>
+      </c>
+      <c r="C2531" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2531" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2531" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2531">
+        <v>110829</v>
+      </c>
+      <c r="G2531">
+        <v>5</v>
+      </c>
+      <c r="H2531" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2532" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2532">
+        <v>31</v>
+      </c>
+      <c r="C2532" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2532" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2532" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2532">
+        <v>16086</v>
+      </c>
+      <c r="G2532">
+        <v>5</v>
+      </c>
+      <c r="H2532" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2533" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2533">
+        <v>5</v>
+      </c>
+      <c r="C2533" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2533" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2533" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2533">
+        <v>77771</v>
+      </c>
+      <c r="G2533">
+        <v>5</v>
+      </c>
+      <c r="H2533" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2534" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2534">
+        <v>64</v>
+      </c>
+      <c r="C2534" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2534" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2534" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2534">
+        <v>41095</v>
+      </c>
+      <c r="G2534">
+        <v>3</v>
+      </c>
+      <c r="H2534" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2535" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2535">
+        <v>68</v>
+      </c>
+      <c r="C2535" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2535" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2535" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2535">
+        <v>115653</v>
+      </c>
+      <c r="G2535">
+        <v>3</v>
+      </c>
+      <c r="H2535" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2536" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2536">
+        <v>67</v>
+      </c>
+      <c r="C2536" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2536" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2536" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2536">
+        <v>67913</v>
+      </c>
+      <c r="G2536">
+        <v>3</v>
+      </c>
+      <c r="H2536" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2537" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2537">
+        <v>66</v>
+      </c>
+      <c r="C2537" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2537" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2537" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2537">
+        <v>97261</v>
+      </c>
+      <c r="G2537">
+        <v>3</v>
+      </c>
+      <c r="H2537" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2538" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2538">
+        <v>65</v>
+      </c>
+      <c r="C2538" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2538" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2538" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2538">
+        <v>110942</v>
+      </c>
+      <c r="G2538">
+        <v>3</v>
+      </c>
+      <c r="H2538" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2539" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2539">
+        <v>28</v>
+      </c>
+      <c r="C2539" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2539" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2539" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2539">
+        <v>61450</v>
+      </c>
+      <c r="G2539">
+        <v>5</v>
+      </c>
+      <c r="H2539" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2540" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2540">
+        <v>25</v>
+      </c>
+      <c r="C2540" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2540" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2540" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2540">
+        <v>30917</v>
+      </c>
+      <c r="G2540">
+        <v>5</v>
+      </c>
+      <c r="H2540" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2541" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2541">
+        <v>59</v>
+      </c>
+      <c r="C2541" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2541" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2541" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2541">
+        <v>90080</v>
+      </c>
+      <c r="G2541">
+        <v>5</v>
+      </c>
+      <c r="H2541" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2542" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2542">
+        <v>69</v>
+      </c>
+      <c r="C2542" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2542" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2542" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2542">
+        <v>32051</v>
+      </c>
+      <c r="G2542">
+        <v>5</v>
+      </c>
+      <c r="H2542" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2543" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2543">
+        <v>55</v>
+      </c>
+      <c r="C2543" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2543" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2543" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2543">
+        <v>39457</v>
+      </c>
+      <c r="G2543">
+        <v>4</v>
+      </c>
+      <c r="H2543" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2544" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2544">
+        <v>13</v>
+      </c>
+      <c r="C2544" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2544" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2544" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2544">
+        <v>122358</v>
+      </c>
+      <c r="G2544">
+        <v>3</v>
+      </c>
+      <c r="H2544" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2545" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2545">
+        <v>3</v>
+      </c>
+      <c r="C2545" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2545" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2545" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2545">
+        <v>94076</v>
+      </c>
+      <c r="G2545">
+        <v>4</v>
+      </c>
+      <c r="H2545" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2546" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2546">
+        <v>74</v>
+      </c>
+      <c r="C2546" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2546" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2546" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2546">
+        <v>31868</v>
+      </c>
+      <c r="G2546">
+        <v>5</v>
+      </c>
+      <c r="H2546" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2547" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2547">
+        <v>61</v>
+      </c>
+      <c r="C2547" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2547" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2547" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2547">
+        <v>45013</v>
+      </c>
+      <c r="G2547">
+        <v>4</v>
+      </c>
+      <c r="H2547" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2548" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2548">
+        <v>9</v>
+      </c>
+      <c r="C2548" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2548" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2548" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2548">
+        <v>61986</v>
+      </c>
+      <c r="G2548">
+        <v>5</v>
+      </c>
+      <c r="H2548" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2549" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2549">
+        <v>60</v>
+      </c>
+      <c r="C2549" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2549" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2549" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2549">
+        <v>59188</v>
+      </c>
+      <c r="G2549">
+        <v>5</v>
+      </c>
+      <c r="H2549" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2550" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2550">
+        <v>4</v>
+      </c>
+      <c r="C2550" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2550" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2550" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2550">
+        <v>75235</v>
+      </c>
+      <c r="G2550">
+        <v>5</v>
+      </c>
+      <c r="H2550" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2551" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2551">
+        <v>14</v>
+      </c>
+      <c r="C2551" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2551" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2551" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2551">
+        <v>101712</v>
+      </c>
+      <c r="G2551">
+        <v>3</v>
+      </c>
+      <c r="H2551" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2552" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2552">
+        <v>29</v>
+      </c>
+      <c r="C2552" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2552" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2552" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2552">
+        <v>129544</v>
+      </c>
+      <c r="G2552">
+        <v>5</v>
+      </c>
+      <c r="H2552" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2553" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2553">
+        <v>76</v>
+      </c>
+      <c r="C2553" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2553" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2553" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2553">
+        <v>67513</v>
+      </c>
+      <c r="G2553">
+        <v>5</v>
+      </c>
+      <c r="H2553" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2554" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2554">
+        <v>79</v>
+      </c>
+      <c r="C2554" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2554" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2554" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2554">
+        <v>82288</v>
+      </c>
+      <c r="G2554">
+        <v>5</v>
+      </c>
+      <c r="H2554" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2555" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2555">
+        <v>78</v>
+      </c>
+      <c r="C2555" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2555" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2555" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2555">
+        <v>28749</v>
+      </c>
+      <c r="G2555">
+        <v>5</v>
+      </c>
+      <c r="H2555" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2556" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2556">
+        <v>77</v>
+      </c>
+      <c r="C2556" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2556" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2556" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2556">
+        <v>60126</v>
+      </c>
+      <c r="G2556">
+        <v>5</v>
+      </c>
+      <c r="H2556" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2557" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2557">
+        <v>30</v>
+      </c>
+      <c r="C2557" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2557" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2557" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2557">
+        <v>22182</v>
+      </c>
+      <c r="G2557">
+        <v>5</v>
+      </c>
+      <c r="H2557" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2558" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2558">
+        <v>73</v>
+      </c>
+      <c r="C2558" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2558" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2558" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2558">
+        <v>32914</v>
+      </c>
+      <c r="G2558">
+        <v>5</v>
+      </c>
+      <c r="H2558" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2559" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2559">
+        <v>20</v>
+      </c>
+      <c r="C2559" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2559" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2559" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2559">
+        <v>110824</v>
+      </c>
+      <c r="G2559">
+        <v>5</v>
+      </c>
+      <c r="H2559" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2560" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2560">
+        <v>36</v>
+      </c>
+      <c r="C2560" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2560" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2560" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2560">
+        <v>33702</v>
+      </c>
+      <c r="G2560">
+        <v>5</v>
+      </c>
+      <c r="H2560" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2561" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2561">
+        <v>15</v>
+      </c>
+      <c r="C2561" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2561" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2561" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2561">
+        <v>72261</v>
+      </c>
+      <c r="G2561">
+        <v>5</v>
+      </c>
+      <c r="H2561" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2562" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2562">
+        <v>1</v>
+      </c>
+      <c r="C2562" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2562" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2562" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2562">
+        <v>73466</v>
+      </c>
+      <c r="G2562">
+        <v>5</v>
+      </c>
+      <c r="H2562" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2563" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2563">
+        <v>62</v>
+      </c>
+      <c r="C2563" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2563" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2563" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2563">
+        <v>74323</v>
+      </c>
+      <c r="G2563">
+        <v>4</v>
+      </c>
+      <c r="H2563" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2564" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2564">
+        <v>49</v>
+      </c>
+      <c r="C2564" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2564" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2564" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2564">
+        <v>96338</v>
+      </c>
+      <c r="G2564">
+        <v>5</v>
+      </c>
+      <c r="H2564" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2565" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2565">
+        <v>63</v>
+      </c>
+      <c r="C2565" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2565" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2565" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2565">
+        <v>11842</v>
+      </c>
+      <c r="G2565">
+        <v>5</v>
+      </c>
+      <c r="H2565" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2566" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2566">
+        <v>34</v>
+      </c>
+      <c r="C2566" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2566" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2566" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2566">
+        <v>110705</v>
+      </c>
+      <c r="G2566">
+        <v>5</v>
+      </c>
+      <c r="H2566" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2567" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2567">
+        <v>27</v>
+      </c>
+      <c r="C2567" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2567" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2567" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2567">
+        <v>26356</v>
+      </c>
+      <c r="G2567">
+        <v>4</v>
+      </c>
+      <c r="H2567" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2568" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2568">
+        <v>23</v>
+      </c>
+      <c r="C2568" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2568" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2568" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2568">
+        <v>62664</v>
+      </c>
+      <c r="G2568">
+        <v>5</v>
+      </c>
+      <c r="H2568" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2569" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2569">
+        <v>11</v>
+      </c>
+      <c r="C2569" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2569" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2569" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2569">
+        <v>161560</v>
+      </c>
+      <c r="G2569">
+        <v>4</v>
+      </c>
+      <c r="H2569" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2570" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2570">
+        <v>47</v>
+      </c>
+      <c r="C2570" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2570" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2570" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2570">
+        <v>62554</v>
+      </c>
+      <c r="G2570">
+        <v>5</v>
+      </c>
+      <c r="H2570" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2571" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2571">
+        <v>16</v>
+      </c>
+      <c r="C2571" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2571" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2571" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2571">
+        <v>139005</v>
+      </c>
+      <c r="G2571">
+        <v>5</v>
+      </c>
+      <c r="H2571" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2572" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2572">
+        <v>45</v>
+      </c>
+      <c r="C2572" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2572" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2572" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2572">
+        <v>45597</v>
+      </c>
+      <c r="G2572">
+        <v>5</v>
+      </c>
+      <c r="H2572" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2573" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2573">
+        <v>33</v>
+      </c>
+      <c r="C2573" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2573" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2573" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2573">
+        <v>65145</v>
+      </c>
+      <c r="G2573">
+        <v>4</v>
+      </c>
+      <c r="H2573" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2574" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2574">
+        <v>39</v>
+      </c>
+      <c r="C2574" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2574" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2574" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2574">
+        <v>62803</v>
+      </c>
+      <c r="G2574">
+        <v>5</v>
+      </c>
+      <c r="H2574" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2575" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2575">
+        <v>70</v>
+      </c>
+      <c r="C2575" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2575" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2575" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2575">
+        <v>21471</v>
+      </c>
+      <c r="G2575">
+        <v>5</v>
+      </c>
+      <c r="H2575" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2576" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2576">
+        <v>46</v>
+      </c>
+      <c r="C2576" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2576" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2576" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2576">
+        <v>104914</v>
+      </c>
+      <c r="G2576">
+        <v>5</v>
+      </c>
+      <c r="H2576" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2577" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2577">
+        <v>52</v>
+      </c>
+      <c r="C2577" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2577" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2577" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2577">
+        <v>62439</v>
+      </c>
+      <c r="G2577">
+        <v>5</v>
+      </c>
+      <c r="H2577" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2578" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2578">
+        <v>7</v>
+      </c>
+      <c r="C2578" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2578" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2578" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2578">
+        <v>175610</v>
+      </c>
+      <c r="G2578">
+        <v>4</v>
+      </c>
+      <c r="H2578" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2579" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2579">
+        <v>40</v>
+      </c>
+      <c r="C2579" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2579" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2579" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2579">
+        <v>133980</v>
+      </c>
+      <c r="G2579">
+        <v>4</v>
+      </c>
+      <c r="H2579" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2580" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2580">
+        <v>54</v>
+      </c>
+      <c r="C2580" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2580" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2580" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2580">
+        <v>44310</v>
+      </c>
+      <c r="G2580">
+        <v>5</v>
+      </c>
+      <c r="H2580" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2581" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2581">
+        <v>48</v>
+      </c>
+      <c r="C2581" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2581" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2581" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2581">
+        <v>39637</v>
+      </c>
+      <c r="G2581">
+        <v>4</v>
+      </c>
+      <c r="H2581" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2582" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2582">
+        <v>2</v>
+      </c>
+      <c r="C2582" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2582" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2582" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2582">
+        <v>84159</v>
+      </c>
+      <c r="G2582">
+        <v>5</v>
+      </c>
+      <c r="H2582" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2583" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2583">
+        <v>19</v>
+      </c>
+      <c r="C2583" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2583" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2583" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2583">
+        <v>62209</v>
+      </c>
+      <c r="G2583">
+        <v>4</v>
+      </c>
+      <c r="H2583" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2584" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2584">
+        <v>56</v>
+      </c>
+      <c r="C2584" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2584" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2584" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2584">
+        <v>56702</v>
+      </c>
+      <c r="G2584">
+        <v>4</v>
+      </c>
+      <c r="H2584" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2585" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2585">
+        <v>35</v>
+      </c>
+      <c r="C2585" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2585" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2585" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2585">
+        <v>60519</v>
+      </c>
+      <c r="G2585">
+        <v>4</v>
+      </c>
+      <c r="H2585" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2586" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2586">
+        <v>75</v>
+      </c>
+      <c r="C2586" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2586" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2586" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2586">
+        <v>51685</v>
+      </c>
+      <c r="G2586">
+        <v>3</v>
+      </c>
+      <c r="H2586" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2587" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2587">
+        <v>12</v>
+      </c>
+      <c r="C2587" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2587" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2587" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2587">
+        <v>89832</v>
+      </c>
+      <c r="G2587">
+        <v>4</v>
+      </c>
+      <c r="H2587" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2588" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2588">
+        <v>58</v>
+      </c>
+      <c r="C2588" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2588" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2588" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2588">
+        <v>60446</v>
+      </c>
+      <c r="G2588">
+        <v>5</v>
+      </c>
+      <c r="H2588" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2589" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2589">
+        <v>72</v>
+      </c>
+      <c r="C2589" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2589" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2589" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2589">
+        <v>47105</v>
+      </c>
+      <c r="G2589">
+        <v>4</v>
+      </c>
+      <c r="H2589" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2590" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2590">
+        <v>50</v>
+      </c>
+      <c r="C2590" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2590" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2590" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2590">
+        <v>36241</v>
+      </c>
+      <c r="G2590">
+        <v>5</v>
+      </c>
+      <c r="H2590" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2591" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2591">
+        <v>44</v>
+      </c>
+      <c r="C2591" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2591" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2591" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2591">
+        <v>22819</v>
+      </c>
+      <c r="G2591">
+        <v>5</v>
+      </c>
+      <c r="H2591" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2592" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2592">
+        <v>21</v>
+      </c>
+      <c r="C2592" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2592" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2592" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2592">
+        <v>99765</v>
+      </c>
+      <c r="G2592">
+        <v>5</v>
+      </c>
+      <c r="H2592" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2593" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2593">
+        <v>17</v>
+      </c>
+      <c r="C2593" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2593" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2593" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2593">
+        <v>53954</v>
+      </c>
+      <c r="G2593">
+        <v>5</v>
+      </c>
+      <c r="H2593" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2594" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2594">
+        <v>38</v>
+      </c>
+      <c r="C2594" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2594" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2594" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2594">
+        <v>20532</v>
+      </c>
+      <c r="G2594">
+        <v>5</v>
+      </c>
+      <c r="H2594" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2595" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2595">
+        <v>53</v>
+      </c>
+      <c r="C2595" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2595" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2595" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2595">
+        <v>32564</v>
+      </c>
+      <c r="G2595">
+        <v>5</v>
+      </c>
+      <c r="H2595" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2596" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2596">
+        <v>18</v>
+      </c>
+      <c r="C2596" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2596" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2596" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2596">
+        <v>70132</v>
+      </c>
+      <c r="G2596">
+        <v>5</v>
+      </c>
+      <c r="H2596" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2597" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2597">
+        <v>10</v>
+      </c>
+      <c r="C2597" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2597" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2597" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2597">
+        <v>105353</v>
+      </c>
+      <c r="G2597">
+        <v>5</v>
+      </c>
+      <c r="H2597" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2598" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2598">
+        <v>8</v>
+      </c>
+      <c r="C2598" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2598" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2598" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2598">
+        <v>114523</v>
+      </c>
+      <c r="G2598">
+        <v>4</v>
+      </c>
+      <c r="H2598" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2599" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2599">
+        <v>57</v>
+      </c>
+      <c r="C2599" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2599" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2599" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2599">
+        <v>132455</v>
+      </c>
+      <c r="G2599">
+        <v>4</v>
+      </c>
+      <c r="H2599" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2600" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2600">
+        <v>6</v>
+      </c>
+      <c r="C2600" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2600" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2600" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2600">
+        <v>15884</v>
+      </c>
+      <c r="G2600">
+        <v>5</v>
+      </c>
+      <c r="H2600" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2601" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2601">
+        <v>71</v>
+      </c>
+      <c r="C2601" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2601" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2601" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2601">
+        <v>36180</v>
+      </c>
+      <c r="G2601">
+        <v>5</v>
+      </c>
+      <c r="H2601" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2602" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2602">
+        <v>37</v>
+      </c>
+      <c r="C2602" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2602" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2602" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2602">
+        <v>43473</v>
+      </c>
+      <c r="G2602">
+        <v>5</v>
+      </c>
+      <c r="H2602" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2603" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2603" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2603">
+        <v>22</v>
+      </c>
+      <c r="C2603" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2603" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2603" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2603">
+        <v>80767</v>
+      </c>
+      <c r="G2603">
+        <v>5</v>
+      </c>
+      <c r="H2603" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2604" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2604">
+        <v>42</v>
+      </c>
+      <c r="C2604" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2604" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2604" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2604">
+        <v>26153</v>
+      </c>
+      <c r="G2604">
+        <v>5</v>
+      </c>
+      <c r="H2604" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2605" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2605">
+        <v>43</v>
+      </c>
+      <c r="C2605" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2605" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2605" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2605">
+        <v>46862</v>
+      </c>
+      <c r="G2605">
+        <v>5</v>
+      </c>
+      <c r="H2605" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2606" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2606">
+        <v>26</v>
+      </c>
+      <c r="C2606" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2606" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2606" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2606">
+        <v>158043</v>
+      </c>
+      <c r="G2606">
+        <v>4</v>
+      </c>
+      <c r="H2606" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2607" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2607" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2607">
+        <v>51</v>
+      </c>
+      <c r="C2607" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2607" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2607" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2607">
+        <v>40573</v>
+      </c>
+      <c r="G2607">
+        <v>4</v>
+      </c>
+      <c r="H2607" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2608" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2608" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B2608">
+        <v>24</v>
+      </c>
+      <c r="C2608" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2608" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2608" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2608">
+        <v>68759</v>
+      </c>
+      <c r="G2608">
+        <v>5</v>
+      </c>
+      <c r="H2608" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H2292">
     <sortState ref="A2:H2292">
@@ -66480,6 +68534,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -66690,22 +68759,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C841AB4-9F11-4453-8762-85942E875817}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4606366C-CC67-4067-BB57-10E9258263A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F180DA5C-A3D8-49E7-A5D5-0477DF8283C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -66722,29 +68801,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C841AB4-9F11-4453-8762-85942E875817}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4606366C-CC67-4067-BB57-10E9258263A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/OpenData_Slovakia_CovidAutomat_History.xlsx
+++ b/OpenData_Slovakia_CovidAutomat_History.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10436" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10752" uniqueCount="101">
   <si>
     <t>Platne od</t>
   </si>
@@ -345,6 +345,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ _S_k_-;\-* #,##0\ _S_k_-;_-* &quot;-&quot;??\ _S_k_-;_-@_-"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,12 +383,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -700,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2608"/>
+  <dimension ref="A1:H2687"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2512" workbookViewId="0">
-      <selection activeCell="K2534" sqref="K2534"/>
+    <sheetView tabSelected="1" topLeftCell="A2677" workbookViewId="0">
+      <selection activeCell="I2601" sqref="I2601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -68519,6 +68523,2060 @@
         <v>5</v>
       </c>
       <c r="H2608" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2609" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2609" s="3">
+        <v>41</v>
+      </c>
+      <c r="C2609" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2609" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2609" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2609" s="5">
+        <v>36282</v>
+      </c>
+      <c r="G2609" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2609" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2610" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2610" s="3">
+        <v>32</v>
+      </c>
+      <c r="C2610" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2610" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2610" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2610" s="5">
+        <v>110829</v>
+      </c>
+      <c r="G2610" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2610" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2611" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2611" s="3">
+        <v>31</v>
+      </c>
+      <c r="C2611" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2611" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2611" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2611" s="5">
+        <v>16086</v>
+      </c>
+      <c r="G2611" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2611" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2612" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2612" s="3">
+        <v>5</v>
+      </c>
+      <c r="C2612" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2612" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2612" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2612" s="5">
+        <v>77771</v>
+      </c>
+      <c r="G2612" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2612" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2613" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2613" s="3">
+        <v>64</v>
+      </c>
+      <c r="C2613" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2613" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2613" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2613" s="5">
+        <v>41095</v>
+      </c>
+      <c r="G2613" s="4">
+        <v>3</v>
+      </c>
+      <c r="H2613" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2614" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2614" s="3">
+        <v>68</v>
+      </c>
+      <c r="C2614" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2614" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2614" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2614" s="5">
+        <v>115653</v>
+      </c>
+      <c r="G2614" s="4">
+        <v>3</v>
+      </c>
+      <c r="H2614" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2615" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2615" s="3">
+        <v>67</v>
+      </c>
+      <c r="C2615" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2615" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2615" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2615" s="5">
+        <v>67913</v>
+      </c>
+      <c r="G2615" s="4">
+        <v>3</v>
+      </c>
+      <c r="H2615" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2616" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2616" s="3">
+        <v>66</v>
+      </c>
+      <c r="C2616" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2616" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2616" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2616" s="5">
+        <v>97261</v>
+      </c>
+      <c r="G2616" s="4">
+        <v>3</v>
+      </c>
+      <c r="H2616" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2617" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2617" s="3">
+        <v>65</v>
+      </c>
+      <c r="C2617" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2617" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2617" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2617" s="5">
+        <v>110942</v>
+      </c>
+      <c r="G2617" s="4">
+        <v>3</v>
+      </c>
+      <c r="H2617" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2618" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2618" s="3">
+        <v>28</v>
+      </c>
+      <c r="C2618" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2618" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2618" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2618" s="5">
+        <v>61450</v>
+      </c>
+      <c r="G2618" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2618" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2619" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2619" s="3">
+        <v>25</v>
+      </c>
+      <c r="C2619" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2619" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2619" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2619" s="5">
+        <v>30917</v>
+      </c>
+      <c r="G2619" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2619" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2620" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2620" s="3">
+        <v>59</v>
+      </c>
+      <c r="C2620" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2620" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2620" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2620" s="5">
+        <v>90080</v>
+      </c>
+      <c r="G2620" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2620" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2621" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2621" s="3">
+        <v>69</v>
+      </c>
+      <c r="C2621" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2621" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2621" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2621" s="5">
+        <v>32051</v>
+      </c>
+      <c r="G2621" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2621" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2622" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2622" s="3">
+        <v>55</v>
+      </c>
+      <c r="C2622" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2622" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2622" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2622" s="5">
+        <v>39457</v>
+      </c>
+      <c r="G2622" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2622" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2623" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2623" s="3">
+        <v>13</v>
+      </c>
+      <c r="C2623" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2623" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2623" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2623" s="5">
+        <v>122358</v>
+      </c>
+      <c r="G2623" s="4">
+        <v>3</v>
+      </c>
+      <c r="H2623" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2624" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2624" s="3">
+        <v>3</v>
+      </c>
+      <c r="C2624" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2624" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2624" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2624" s="5">
+        <v>94076</v>
+      </c>
+      <c r="G2624" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2624" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2625" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2625" s="3">
+        <v>74</v>
+      </c>
+      <c r="C2625" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2625" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2625" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2625" s="5">
+        <v>31868</v>
+      </c>
+      <c r="G2625" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2625" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2626" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2626" s="3">
+        <v>61</v>
+      </c>
+      <c r="C2626" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2626" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2626" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2626" s="5">
+        <v>45013</v>
+      </c>
+      <c r="G2626" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2626" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2627" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2627" s="3">
+        <v>9</v>
+      </c>
+      <c r="C2627" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2627" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2627" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2627" s="5">
+        <v>61986</v>
+      </c>
+      <c r="G2627" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2627" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2628" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2628" s="3">
+        <v>60</v>
+      </c>
+      <c r="C2628" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2628" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2628" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2628" s="5">
+        <v>59188</v>
+      </c>
+      <c r="G2628" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2628" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2629" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2629" s="3">
+        <v>4</v>
+      </c>
+      <c r="C2629" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2629" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2629" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2629" s="5">
+        <v>75235</v>
+      </c>
+      <c r="G2629" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2629" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2630" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2630" s="3">
+        <v>14</v>
+      </c>
+      <c r="C2630" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2630" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2630" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2630" s="5">
+        <v>101712</v>
+      </c>
+      <c r="G2630" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2630" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2631" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2631" s="3">
+        <v>29</v>
+      </c>
+      <c r="C2631" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2631" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2631" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2631" s="5">
+        <v>129544</v>
+      </c>
+      <c r="G2631" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2631" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2632" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2632" s="3">
+        <v>76</v>
+      </c>
+      <c r="C2632" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2632" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2632" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2632" s="5">
+        <v>67513</v>
+      </c>
+      <c r="G2632" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2632" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2633" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2633" s="3">
+        <v>79</v>
+      </c>
+      <c r="C2633" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2633" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2633" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2633" s="5">
+        <v>82288</v>
+      </c>
+      <c r="G2633" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2633" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2634" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2634" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2634" s="3">
+        <v>78</v>
+      </c>
+      <c r="C2634" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2634" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2634" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2634" s="5">
+        <v>28749</v>
+      </c>
+      <c r="G2634" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2634" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2635" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2635" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2635" s="3">
+        <v>77</v>
+      </c>
+      <c r="C2635" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2635" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2635" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2635" s="5">
+        <v>60126</v>
+      </c>
+      <c r="G2635" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2635" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2636" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2636" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2636" s="3">
+        <v>30</v>
+      </c>
+      <c r="C2636" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2636" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2636" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2636" s="5">
+        <v>22182</v>
+      </c>
+      <c r="G2636" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2636" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2637" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2637" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2637" s="3">
+        <v>73</v>
+      </c>
+      <c r="C2637" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2637" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2637" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2637" s="5">
+        <v>32914</v>
+      </c>
+      <c r="G2637" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2637" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2638" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2638" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2638" s="3">
+        <v>20</v>
+      </c>
+      <c r="C2638" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2638" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2638" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2638" s="5">
+        <v>110824</v>
+      </c>
+      <c r="G2638" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2638" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2639" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2639" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2639" s="3">
+        <v>36</v>
+      </c>
+      <c r="C2639" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2639" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2639" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2639" s="5">
+        <v>33702</v>
+      </c>
+      <c r="G2639" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2639" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2640" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2640" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2640" s="3">
+        <v>15</v>
+      </c>
+      <c r="C2640" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2640" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2640" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2640" s="5">
+        <v>72261</v>
+      </c>
+      <c r="G2640" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2640" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2641" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2641" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2641" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2641" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2641" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2641" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2641" s="5">
+        <v>73466</v>
+      </c>
+      <c r="G2641" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2641" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2642" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2642" s="3">
+        <v>62</v>
+      </c>
+      <c r="C2642" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2642" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2642" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2642" s="5">
+        <v>74323</v>
+      </c>
+      <c r="G2642" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2642" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2643" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2643" s="3">
+        <v>49</v>
+      </c>
+      <c r="C2643" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2643" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2643" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2643" s="5">
+        <v>96338</v>
+      </c>
+      <c r="G2643" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2643" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2644" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2644" s="3">
+        <v>63</v>
+      </c>
+      <c r="C2644" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2644" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2644" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2644" s="5">
+        <v>11842</v>
+      </c>
+      <c r="G2644" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2644" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2645" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2645" s="3">
+        <v>34</v>
+      </c>
+      <c r="C2645" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2645" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2645" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2645" s="5">
+        <v>110705</v>
+      </c>
+      <c r="G2645" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2645" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2646" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2646" s="3">
+        <v>27</v>
+      </c>
+      <c r="C2646" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2646" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2646" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2646" s="5">
+        <v>26356</v>
+      </c>
+      <c r="G2646" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2646" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2647" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2647" s="3">
+        <v>23</v>
+      </c>
+      <c r="C2647" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2647" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2647" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2647" s="5">
+        <v>62664</v>
+      </c>
+      <c r="G2647" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2647" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2648" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2648" s="3">
+        <v>11</v>
+      </c>
+      <c r="C2648" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2648" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2648" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2648" s="5">
+        <v>161560</v>
+      </c>
+      <c r="G2648" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2648" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2649" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2649" s="3">
+        <v>47</v>
+      </c>
+      <c r="C2649" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2649" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2649" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2649" s="5">
+        <v>62554</v>
+      </c>
+      <c r="G2649" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2649" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2650" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2650" s="3">
+        <v>16</v>
+      </c>
+      <c r="C2650" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2650" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2650" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2650" s="5">
+        <v>139005</v>
+      </c>
+      <c r="G2650" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2650" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2651" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2651" s="3">
+        <v>45</v>
+      </c>
+      <c r="C2651" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2651" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2651" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2651" s="5">
+        <v>45597</v>
+      </c>
+      <c r="G2651" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2651" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2652" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2652" s="3">
+        <v>33</v>
+      </c>
+      <c r="C2652" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2652" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2652" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2652" s="5">
+        <v>65145</v>
+      </c>
+      <c r="G2652" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2652" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2653" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2653" s="3">
+        <v>39</v>
+      </c>
+      <c r="C2653" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2653" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2653" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2653" s="5">
+        <v>62803</v>
+      </c>
+      <c r="G2653" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2653" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2654" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2654" s="3">
+        <v>70</v>
+      </c>
+      <c r="C2654" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2654" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2654" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2654" s="5">
+        <v>21471</v>
+      </c>
+      <c r="G2654" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2654" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2655" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2655" s="3">
+        <v>46</v>
+      </c>
+      <c r="C2655" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2655" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2655" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2655" s="5">
+        <v>104914</v>
+      </c>
+      <c r="G2655" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2655" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2656" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2656" s="3">
+        <v>52</v>
+      </c>
+      <c r="C2656" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2656" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2656" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2656" s="5">
+        <v>62439</v>
+      </c>
+      <c r="G2656" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2656" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2657" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2657" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2657" s="3">
+        <v>7</v>
+      </c>
+      <c r="C2657" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2657" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2657" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2657" s="5">
+        <v>175610</v>
+      </c>
+      <c r="G2657" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2657" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2658" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2658" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2658" s="3">
+        <v>40</v>
+      </c>
+      <c r="C2658" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2658" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2658" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2658" s="5">
+        <v>133980</v>
+      </c>
+      <c r="G2658" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2658" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2659" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2659" s="3">
+        <v>54</v>
+      </c>
+      <c r="C2659" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2659" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2659" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2659" s="5">
+        <v>44310</v>
+      </c>
+      <c r="G2659" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2659" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2660" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2660" s="3">
+        <v>48</v>
+      </c>
+      <c r="C2660" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2660" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2660" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2660" s="5">
+        <v>39637</v>
+      </c>
+      <c r="G2660" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2660" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2661" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2661" s="3">
+        <v>2</v>
+      </c>
+      <c r="C2661" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2661" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2661" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2661" s="5">
+        <v>84159</v>
+      </c>
+      <c r="G2661" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2661" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2662" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2662" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2662" s="3">
+        <v>19</v>
+      </c>
+      <c r="C2662" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2662" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2662" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2662" s="5">
+        <v>62209</v>
+      </c>
+      <c r="G2662" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2662" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2663" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2663" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2663" s="3">
+        <v>56</v>
+      </c>
+      <c r="C2663" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2663" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2663" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2663" s="5">
+        <v>56702</v>
+      </c>
+      <c r="G2663" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2663" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2664" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2664" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2664" s="3">
+        <v>35</v>
+      </c>
+      <c r="C2664" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2664" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2664" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2664" s="5">
+        <v>60519</v>
+      </c>
+      <c r="G2664" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2664" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2665" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2665" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2665" s="3">
+        <v>75</v>
+      </c>
+      <c r="C2665" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2665" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2665" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2665" s="5">
+        <v>51685</v>
+      </c>
+      <c r="G2665" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2665" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2666" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2666" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2666" s="3">
+        <v>12</v>
+      </c>
+      <c r="C2666" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2666" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2666" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2666" s="5">
+        <v>89832</v>
+      </c>
+      <c r="G2666" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2666" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2667" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2667" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2667" s="3">
+        <v>58</v>
+      </c>
+      <c r="C2667" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2667" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2667" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2667" s="5">
+        <v>60446</v>
+      </c>
+      <c r="G2667" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2667" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2668" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2668" s="3">
+        <v>72</v>
+      </c>
+      <c r="C2668" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2668" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2668" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2668" s="5">
+        <v>47105</v>
+      </c>
+      <c r="G2668" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2668" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2669" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2669" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2669" s="3">
+        <v>50</v>
+      </c>
+      <c r="C2669" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2669" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2669" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2669" s="5">
+        <v>36241</v>
+      </c>
+      <c r="G2669" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2669" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2670" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2670" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2670" s="3">
+        <v>44</v>
+      </c>
+      <c r="C2670" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2670" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2670" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2670" s="5">
+        <v>22819</v>
+      </c>
+      <c r="G2670" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2670" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2671" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2671" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2671" s="3">
+        <v>21</v>
+      </c>
+      <c r="C2671" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2671" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2671" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2671" s="5">
+        <v>99765</v>
+      </c>
+      <c r="G2671" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2671" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2672" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2672" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2672" s="3">
+        <v>17</v>
+      </c>
+      <c r="C2672" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2672" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2672" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2672" s="5">
+        <v>53954</v>
+      </c>
+      <c r="G2672" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2672" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2673" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2673" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2673" s="3">
+        <v>38</v>
+      </c>
+      <c r="C2673" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2673" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2673" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2673" s="5">
+        <v>20532</v>
+      </c>
+      <c r="G2673" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2673" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2674" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2674" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2674" s="3">
+        <v>53</v>
+      </c>
+      <c r="C2674" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2674" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2674" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2674" s="5">
+        <v>32564</v>
+      </c>
+      <c r="G2674" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2674" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2675" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2675" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2675" s="3">
+        <v>18</v>
+      </c>
+      <c r="C2675" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2675" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2675" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2675" s="5">
+        <v>70132</v>
+      </c>
+      <c r="G2675" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2675" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2676" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2676" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2676" s="3">
+        <v>10</v>
+      </c>
+      <c r="C2676" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2676" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2676" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2676" s="5">
+        <v>105353</v>
+      </c>
+      <c r="G2676" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2676" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2677" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2677" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2677" s="3">
+        <v>8</v>
+      </c>
+      <c r="C2677" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2677" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2677" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2677" s="5">
+        <v>114523</v>
+      </c>
+      <c r="G2677" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2677" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2678" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2678" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2678" s="3">
+        <v>57</v>
+      </c>
+      <c r="C2678" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2678" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2678" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2678" s="5">
+        <v>132455</v>
+      </c>
+      <c r="G2678" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2678" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2679" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2679" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2679" s="3">
+        <v>6</v>
+      </c>
+      <c r="C2679" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2679" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2679" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2679" s="5">
+        <v>15884</v>
+      </c>
+      <c r="G2679" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2679" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2680" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2680" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2680" s="3">
+        <v>71</v>
+      </c>
+      <c r="C2680" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2680" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2680" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2680" s="5">
+        <v>36180</v>
+      </c>
+      <c r="G2680" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2680" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2681" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2681" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2681" s="3">
+        <v>37</v>
+      </c>
+      <c r="C2681" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2681" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2681" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2681" s="5">
+        <v>43473</v>
+      </c>
+      <c r="G2681" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2681" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2682" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2682" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2682" s="3">
+        <v>22</v>
+      </c>
+      <c r="C2682" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2682" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2682" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2682" s="5">
+        <v>80767</v>
+      </c>
+      <c r="G2682" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2682" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2683" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2683" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2683" s="3">
+        <v>42</v>
+      </c>
+      <c r="C2683" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2683" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2683" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2683" s="5">
+        <v>26153</v>
+      </c>
+      <c r="G2683" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2683" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2684" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2684" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2684" s="3">
+        <v>43</v>
+      </c>
+      <c r="C2684" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2684" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2684" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2684" s="5">
+        <v>46862</v>
+      </c>
+      <c r="G2684" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2684" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2685" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2685" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2685" s="3">
+        <v>26</v>
+      </c>
+      <c r="C2685" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2685" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2685" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2685" s="5">
+        <v>158043</v>
+      </c>
+      <c r="G2685" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2685" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2686" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2686" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2686" s="3">
+        <v>51</v>
+      </c>
+      <c r="C2686" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2686" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2686" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2686" s="5">
+        <v>40573</v>
+      </c>
+      <c r="G2686" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2686" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2687" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2687" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B2687" s="3">
+        <v>24</v>
+      </c>
+      <c r="C2687" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2687" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2687" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2687" s="5">
+        <v>68759</v>
+      </c>
+      <c r="G2687" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2687" s="4" t="s">
         <v>98</v>
       </c>
     </row>
@@ -68543,12 +70601,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -68759,6 +70811,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C841AB4-9F11-4453-8762-85942E875817}">
   <ds:schemaRefs>
@@ -68768,23 +70826,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4606366C-CC67-4067-BB57-10E9258263A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F180DA5C-A3D8-49E7-A5D5-0477DF8283C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -68801,4 +70842,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4606366C-CC67-4067-BB57-10E9258263A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
+    <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>